--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1666\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="8_{B8BF83B0-EBDF-4114-A6F8-5BEB7A150D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52E8661A-A365-4F27-8F2D-1065B1BE376B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71E95E-5B5C-4098-8CB2-195570926275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -43,46 +43,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={95756E46-73C8-4427-B2E1-35A8ACFA9BDA}</author>
-    <author>tc={728C796A-2E58-467B-B09C-7A583072E2DD}</author>
-    <author>tc={D56E161E-80EE-4995-BD58-D1D04279D4FF}</author>
     <author>tc={FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}</author>
     <author>tc={9DF15E11-CE08-4B06-8A6C-C2191CF34776}</author>
     <author>tc={E9D928FE-8BB5-4CD5-8D4C-2DBF81042E73}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{95756E46-73C8-4427-B2E1-35A8ACFA9BDA}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Kathleen Yue the dropdown menu doesn not match the location data
-Reply:
-    I've fixed that.
-</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{728C796A-2E58-467B-B09C-7A583072E2DD}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Kathleen Yue if we want to add author filter, data in this column needs to be cleaned up and written in a standradized way. For example James downer is written differently in two resources
-</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{D56E161E-80EE-4995-BD58-D1D04279D4FF}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Kathleen Yue this needs to be formatted as dropdown list of options similar to location column
-Reply:
-    I've formatted this column 
-</t>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="3" shapeId="0" xr:uid="{FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +60,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="H15" authorId="4" shapeId="0" xr:uid="{9DF15E11-CE08-4B06-8A6C-C2191CF34776}">
+    <comment ref="H15" authorId="1" shapeId="0" xr:uid="{9DF15E11-CE08-4B06-8A6C-C2191CF34776}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +72,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="H16" authorId="5" shapeId="0" xr:uid="{E9D928FE-8BB5-4CD5-8D4C-2DBF81042E73}">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{E9D928FE-8BB5-4CD5-8D4C-2DBF81042E73}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,7 +89,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="201">
+  <si>
+    <t>Audience</t>
+  </si>
   <si>
     <t>Topic</t>
   </si>
@@ -131,12 +100,21 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Target Australiastraliadience</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
+    <t>Resource Type</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>All</t>
   </si>
   <si>
@@ -152,7 +130,7 @@
     <t>HCP</t>
   </si>
   <si>
-    <t>Pallium</t>
+    <t>Pallium Canada</t>
   </si>
   <si>
     <t>Online Training Modules</t>
@@ -161,6 +139,9 @@
     <t>https://www.pallium.ca/course/covid-19-response-free-online-modules/</t>
   </si>
   <si>
+    <t>Nurses</t>
+  </si>
+  <si>
     <t>Pandemic palliative care: beyond ventilators and saving lives</t>
   </si>
   <si>
@@ -173,6 +154,9 @@
     <t>https://www.cmaj.ca/content/cmaj/early/2020/03/31/cmaj.200465.full.pdf</t>
   </si>
   <si>
+    <t>Physicians</t>
+  </si>
+  <si>
     <t>Advance Care Planning</t>
   </si>
   <si>
@@ -260,7 +244,7 @@
     <t>https://www.lindadykes.org/covid19</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Other provinces in Canada</t>
   </si>
   <si>
     <t>COVID-19 Goals of Care - Communication Guide for Clinicians</t>
@@ -329,13 +313,25 @@
     <t>https://www.fnha.ca/Documents/FNHA-Care-of-the-Deceased-Body-Guide.pdf</t>
   </si>
   <si>
-    <t>Nurses</t>
-  </si>
-  <si>
     <t>Palliative care during COVID-19 illness</t>
   </si>
   <si>
     <t>https://www.fnha.ca/Documents/FNHA-Palliative-Care-During-COVID-19-Illness.pdf</t>
+  </si>
+  <si>
+    <t>Bristish Columbia</t>
+  </si>
+  <si>
+    <t>Clinical decision pathway COVID-19 in LTC residents</t>
+  </si>
+  <si>
+    <t>Interior Health</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>https://www.divisionsbc.ca/sites/default/files/64258/IH-PH-COV-360%20Clinical%20Decision%20Pathway%20COVID-19%20-%20LTC_06Apr2020.pdf</t>
   </si>
   <si>
     <t>SIC Program COVID 19 Response Toolkit</t>
@@ -355,9 +351,6 @@
     <t>Canadian Red Cross</t>
   </si>
   <si>
-    <t>Guide</t>
-  </si>
-  <si>
     <t>https://www.redcross.ca/crc/documents/CRC-Psychological-First-Aid-Guide-2019.pdf</t>
   </si>
   <si>
@@ -463,9 +456,6 @@
     <t>https://advancingexpertcare.org/HPNAweb/Education/COVID19_PrimaryPalliativeNursing.aspx</t>
   </si>
   <si>
-    <t>Bristish Columbia</t>
-  </si>
-  <si>
     <t>Shift your Care to a Palliative Approach</t>
   </si>
   <si>
@@ -572,9 +562,6 @@
   </si>
   <si>
     <t>End-of-Life Care in the ED for Patients Imminently Dying of a Transmissible Acute Respiratory Infection (such as COVID-19)</t>
-  </si>
-  <si>
-    <t>Pallium Canada</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=87NswgYLK-Y&amp;feature=youtu.be</t>
@@ -679,13 +666,28 @@
     <t>https://cpa.ca/new-covid-19-factsheet/</t>
   </si>
   <si>
-    <t>Resource Type</t>
-  </si>
-  <si>
-    <t>Audience</t>
-  </si>
-  <si>
-    <t>Other provinces in Canada</t>
+    <t>PPE in the Home</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h34W7yozmWU&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Shortage of Palliative Medications during COVID-19: Options</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ss7SX7EhVQo&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Reorganizing Palliative Care Services during the COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KRrMALfg8i4&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Palliative Approach to Care in the Coronavirus Pandemic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mlf83Ddat_g&amp;feature=youtu.be</t>
   </si>
   <si>
     <t>Ethic</t>
@@ -695,24 +697,6 @@
   </si>
   <si>
     <t>Support groups</t>
-  </si>
-  <si>
-    <t>Clinical decision pathway COVID-19 in LTC residents</t>
-  </si>
-  <si>
-    <t>Interior Health</t>
-  </si>
-  <si>
-    <t>https://www.divisionsbc.ca/sites/default/files/64258/IH-PH-COV-360%20Clinical%20Decision%20Pathway%20COVID-19%20-%20LTC_06Apr2020.pdf</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Physicians</t>
   </si>
 </sst>
 </file>
@@ -904,66 +888,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1290,35 +1274,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2020-04-22T23:30:38.24" personId="{2FF045FD-7978-4ADE-B6E0-493FAB50783F}" id="{95756E46-73C8-4427-B2E1-35A8ACFA9BDA}" done="1">
-    <text xml:space="preserve">@Kathleen Yue the dropdown menu doesn not match the location data
-</text>
-    <mentions>
-      <mention mentionpersonId="{0D2F5C28-CB1C-4692-8A5C-118E3622A6C7}" mentionId="{68B16CFA-6DF6-4CA0-ADB7-57256EFB1714}" startIndex="0" length="13"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2020-04-22T23:36:33.27" personId="{51A54013-F211-43E9-B2F9-0842275B1AB5}" id="{E2478237-8F09-4B8C-9EBE-06E77D327E63}" parentId="{95756E46-73C8-4427-B2E1-35A8ACFA9BDA}">
-    <text xml:space="preserve">I've fixed that.
-</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2020-04-22T23:27:49.08" personId="{2FF045FD-7978-4ADE-B6E0-493FAB50783F}" id="{728C796A-2E58-467B-B09C-7A583072E2DD}">
-    <text xml:space="preserve">@Kathleen Yue if we want to add author filter, data in this column needs to be cleaned up and written in a standradized way. For example James downer is written differently in two resources
-</text>
-    <mentions>
-      <mention mentionpersonId="{0D2F5C28-CB1C-4692-8A5C-118E3622A6C7}" mentionId="{5468167E-FB9A-4BD9-AC3D-B86040DF6D7B}" startIndex="0" length="13"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2020-04-22T22:30:59.16" personId="{2FF045FD-7978-4ADE-B6E0-493FAB50783F}" id="{D56E161E-80EE-4995-BD58-D1D04279D4FF}" done="1">
-    <text xml:space="preserve">@Kathleen Yue this needs to be formatted as dropdown list of options similar to location column
-</text>
-    <mentions>
-      <mention mentionpersonId="{0D2F5C28-CB1C-4692-8A5C-118E3622A6C7}" mentionId="{3C42F051-BE57-4D14-A0EB-746F307E756F}" startIndex="0" length="13"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2020-04-23T00:29:35.65" personId="{51A54013-F211-43E9-B2F9-0842275B1AB5}" id="{FD89B5E2-C2C9-4BE6-ABC3-77A8BE66E72E}" parentId="{D56E161E-80EE-4995-BD58-D1D04279D4FF}">
-    <text xml:space="preserve">I've formatted this column 
-</text>
-  </threadedComment>
   <threadedComment ref="H14" dT="2020-04-22T22:29:31.71" personId="{2FF045FD-7978-4ADE-B6E0-493FAB50783F}" id="{FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}" done="1">
     <text xml:space="preserve">@Kathleen Yue 
 must be a direct link to the resource 
@@ -1363,1229 +1318,1323 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="29" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.54296875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="27" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="H34" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="13" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G47" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>168</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" t="s">
         <v>178</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
@@ -2643,10 +2692,14 @@
     <hyperlink ref="H16" r:id="rId49" xr:uid="{7C10A579-0B00-49C9-B104-3A1DEA15F500}"/>
     <hyperlink ref="H17" r:id="rId50" xr:uid="{41E1F84B-907D-460D-8A4A-0F5CB3F55250}"/>
     <hyperlink ref="H3" r:id="rId51" xr:uid="{76CCD6D0-3BF2-43D9-96A3-CCC202BC567E}"/>
+    <hyperlink ref="H50" r:id="rId52" xr:uid="{D352F136-D315-480A-92AD-ADD098EED3D7}"/>
+    <hyperlink ref="H51" r:id="rId53" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
+    <hyperlink ref="H52" r:id="rId54" xr:uid="{6F3CAC21-1DCD-474A-9787-C22BBD0C4E38}"/>
+    <hyperlink ref="H53" r:id="rId55" xr:uid="{6BE943BD-671F-489F-AB3B-CF5D11F8263D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId52"/>
-  <legacyDrawing r:id="rId53"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -2691,227 +2744,227 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
+        <v>198</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E21" s="16"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E24" s="16"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E28" s="16"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E32" s="16"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="16"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" s="16"/>
     </row>
   </sheetData>
@@ -2930,31 +2983,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3214,7 +3242,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3223,18 +3251,32 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3253,10 +3295,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mazenk/IdeaProjects/BC-CPC-COVID-19-ws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40062A5A-E75E-4942-A2BE-6B2947678B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4AFFF0-7FCC-0945-8D83-8CBE7BEA131A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'COVID Resources-HCP'!$A$1:$H$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'COVID Resources-HCP'!$A$1:$H$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'COVID Resources-HCP'!$D$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="178">
   <si>
     <t>Audience</t>
   </si>
@@ -1282,17 +1282,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1374,90 +1374,90 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
@@ -1480,27 +1480,27 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="40.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="120.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="8" max="8" width="120.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -2867,13 +2867,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H57" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
+  <autoFilter ref="A1:H56" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <filterColumn colId="5">
       <filters>
         <filter val="Pallium Canada"/>
@@ -2884,8 +2879,8 @@
         <filter val="Education"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H57">
-      <sortCondition ref="D1:D57"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H56">
+      <sortCondition ref="D1:D56"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
@@ -2948,12 +2943,11 @@
     <hyperlink ref="H6" r:id="rId53" xr:uid="{7C24382D-49F8-4923-91B9-773AC826C128}"/>
     <hyperlink ref="H52" r:id="rId54" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
     <hyperlink ref="H39" r:id="rId55" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
-    <hyperlink ref="H57" r:id="rId56" xr:uid="{B009F998-D90B-4BD6-B959-7FBD4ABD935C}"/>
-    <hyperlink ref="H15" r:id="rId57" xr:uid="{4F1D6A2D-E11C-41B7-B026-66CF7367B005}"/>
+    <hyperlink ref="H15" r:id="rId56" xr:uid="{4F1D6A2D-E11C-41B7-B026-66CF7367B005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId58"/>
-  <legacyDrawing r:id="rId59"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId57"/>
+  <legacyDrawing r:id="rId58"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -3003,31 +2997,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3287,6 +3256,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
@@ -3296,23 +3290,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3329,4 +3306,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_34a3\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60489D4A-4B4C-404C-B586-42D1345D404A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D056275-710C-F044-989B-FD7EB619B63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25500" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="460" windowWidth="25500" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$H$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,15 @@
   <commentList>
     <comment ref="H22" authorId="0" shapeId="0" xr:uid="{9DF15E11-CE08-4B06-8A6C-C2191CF34776}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Kathleen Yue 
@@ -58,11 +66,20 @@
 Reply:
     I've fixed that.
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="H23" authorId="1" shapeId="0" xr:uid="{E9D928FE-8BB5-4CD5-8D4C-2DBF81042E73}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Kathleen Yue 
@@ -70,11 +87,20 @@
 Reply:
     I've fixed that.
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="H26" authorId="2" shapeId="0" xr:uid="{FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Kathleen Yue 
@@ -82,6 +108,7 @@
 Reply:
     I've fixed that.
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -642,7 +669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,25 +1289,25 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="120.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="120.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" customHeight="1">
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="94.5" customHeight="1">
+    <row r="4" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:8" s="25" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:8" s="25" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51" customHeight="1">
+    <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +1539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +1565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1">
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1561,7 +1588,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="25" customFormat="1">
+    <row r="12" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1">
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="29.25" customHeight="1">
+    <row r="15" spans="1:8" s="25" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
@@ -1656,7 +1683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" ht="30">
+    <row r="16" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="25" customFormat="1">
+    <row r="17" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="25" customFormat="1">
+    <row r="18" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
@@ -1728,7 +1755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="25" customFormat="1">
+    <row r="19" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>8</v>
       </c>
@@ -1752,7 +1779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1798,7 +1825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -1844,7 +1871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="25" customFormat="1" ht="30">
+    <row r="24" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1895,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1918,7 +1945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
@@ -1944,7 +1971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="25" customFormat="1" ht="60">
+    <row r="28" spans="1:8" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +1995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -1991,7 +2018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" customHeight="1">
+    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2041,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -2040,7 +2067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2093,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60">
+    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -2092,7 +2119,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30">
+    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30">
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
@@ -2141,7 +2168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30">
+    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>115</v>
       </c>
@@ -2167,7 +2194,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45">
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>116</v>
       </c>
@@ -2193,7 +2220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2246,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30">
+    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -2268,7 +2295,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -2291,7 +2318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="45">
+    <row r="42" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2344,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="25" customFormat="1">
+    <row r="43" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30">
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2393,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2416,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30">
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2439,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30">
+    <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2488,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30">
+    <row r="49" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2514,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30">
+    <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>8</v>
       </c>
@@ -2513,7 +2540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="25" customFormat="1" ht="30">
+    <row r="51" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +2566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
@@ -2562,7 +2589,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2615,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -2614,7 +2641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2637,7 +2664,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="60">
+    <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -2660,7 +2687,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="25" customFormat="1" ht="30">
+    <row r="57" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2711,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="25" customFormat="1" ht="30">
+    <row r="58" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>8</v>
       </c>
@@ -2710,11 +2737,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H56">
+    <sortState ref="A2:H56">
       <sortCondition ref="F1:F56"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+  <sortState ref="A2:H49">
     <sortCondition ref="B2:B49"/>
   </sortState>
   <dataConsolidate/>
@@ -2784,7 +2811,7 @@
   <legacyDrawing r:id="rId61"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Data!$F$3:$F$4</xm:f>
@@ -2795,25 +2822,31 @@
           <x14:formula1>
             <xm:f>Data!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>H58 G1:G1048576</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Data!$B:$B</xm:f>
+            <xm:f>Data!$B$2:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F2A78CC-13C9-4962-911B-274FAE1329EE}">
           <x14:formula1>
-            <xm:f>Data!$C:$C</xm:f>
+            <xm:f>Data!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCEEC85A-1DC4-4547-B883-C2ED288C2077}">
           <x14:formula1>
-            <xm:f>Data!$A:$A</xm:f>
+            <xm:f>Data!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEB03C2E-3FB8-1A41-B9B2-6846FA45A0A0}">
+          <x14:formula1>
+            <xm:f>Data!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2829,17 +2862,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>116</v>
       </c>
@@ -2882,7 +2915,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -2897,7 +2930,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
@@ -2912,7 +2945,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
@@ -2921,94 +2954,94 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>178</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
+  <sortState ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -3023,6 +3056,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3282,48 +3349,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,30 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D056275-710C-F044-989B-FD7EB619B63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4F4AC-84B1-CC4C-8F5A-31F0E7E3BF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="460" windowWidth="25500" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="980" windowWidth="32760" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$H$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$H$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +40,7 @@
     <author>tc={FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}</author>
   </authors>
   <commentList>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{9DF15E11-CE08-4B06-8A6C-C2191CF34776}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{9DF15E11-CE08-4B06-8A6C-C2191CF34776}">
       <text>
         <r>
           <rPr>
@@ -69,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="1" shapeId="0" xr:uid="{E9D928FE-8BB5-4CD5-8D4C-2DBF81042E73}">
+    <comment ref="G23" authorId="1" shapeId="0" xr:uid="{E9D928FE-8BB5-4CD5-8D4C-2DBF81042E73}">
       <text>
         <r>
           <rPr>
@@ -90,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="2" shapeId="0" xr:uid="{FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}">
+    <comment ref="G26" authorId="2" shapeId="0" xr:uid="{FE6737F5-A745-4FAF-BE95-D1CEAFF6776B}">
       <text>
         <r>
           <rPr>
@@ -116,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="173">
   <si>
     <t>Audience</t>
   </si>
@@ -130,9 +122,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Target Australiastraliadience</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -154,9 +143,6 @@
     <t>SIC Program COVID 19 Response Toolkit</t>
   </si>
   <si>
-    <t>HCP</t>
-  </si>
-  <si>
     <t>Ariadne Labs</t>
   </si>
   <si>
@@ -178,9 +164,6 @@
     <t>Supporting the Psychosocial Well-being of Health Care Providers During the Novel Coronavirus (COVID-19) Pandemic</t>
   </si>
   <si>
-    <t>Ministry of Health</t>
-  </si>
-  <si>
     <t>B.C. Ministry of Health</t>
   </si>
   <si>
@@ -220,9 +203,6 @@
     <t>Safe Handling of Bodies of Deceased Persons with Suspected or Confirmed COVID-19: Interim Guidance</t>
   </si>
   <si>
-    <t>BCCDC, Ministry of Health</t>
-  </si>
-  <si>
     <t>BC Centre for Disease Control</t>
   </si>
   <si>
@@ -230,9 +210,6 @@
   </si>
   <si>
     <t>CORONA WARS: COVID-19 Emergency Sim Game</t>
-  </si>
-  <si>
-    <t>BC EMERGENCY MEDICINE NETWORK</t>
   </si>
   <si>
     <t>BC Emergency Network</t>
@@ -378,9 +355,6 @@
     <t>HPNA Primary Palliative Nursing for Patients with COVID-19</t>
   </si>
   <si>
-    <t>HPNA</t>
-  </si>
-  <si>
     <t>Hospice and Palliative Nurses Association</t>
   </si>
   <si>
@@ -475,9 +449,6 @@
     <t>COVID-19 resource: Recognizing difficult breathing and strategies for supporting comfort</t>
   </si>
   <si>
-    <t>Ann-Marie,  Life and death matters</t>
-  </si>
-  <si>
     <t>Life and Death Matters</t>
   </si>
   <si>
@@ -500,9 +471,6 @@
   </si>
   <si>
     <t>Guide to evidence based COVID Resrources</t>
-  </si>
-  <si>
-    <t>HCp</t>
   </si>
   <si>
     <t>McMaster University</t>
@@ -812,7 +780,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -846,7 +814,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1287,11 +1254,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1300,14 +1267,13 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="120.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,1509 +1286,1409 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G16" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="24" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="D30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="D52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D57" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="C58" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="D58" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>163</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" t="s">
-        <v>168</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="6" t="s">
+      <c r="G58" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState ref="A2:H56">
-      <sortCondition ref="F1:F56"/>
+  <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
+    <sortState ref="A2:G56">
+      <sortCondition ref="E1:E56"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:H49">
+  <sortState ref="A2:G49">
     <sortCondition ref="B2:B49"/>
   </sortState>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="H36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H49" r:id="rId4" display="http://covid19.providencehealthcare.org/resources/tools-covid-conversations-patientsdms" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H25" r:id="rId5" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F32" r:id="rId8" display="www.careserach.com.au" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F38" r:id="rId10" display="https://www.lindadykes.org/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H54" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H39" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="H37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H10" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H21" r:id="rId33" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
-    <hyperlink ref="H13" r:id="rId34" xr:uid="{D1A003A7-83B0-4A25-AD01-2DC1467CFDB7}"/>
-    <hyperlink ref="H29" r:id="rId35" xr:uid="{14811286-5305-41A0-BE96-FBB5D6F3A1F8}"/>
-    <hyperlink ref="H40" r:id="rId36" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
-    <hyperlink ref="H56" r:id="rId37" xr:uid="{F3CF529A-34B0-4598-A917-ED1DB54B579F}"/>
-    <hyperlink ref="H11" r:id="rId38" xr:uid="{0EB7216B-90CC-44EF-AE38-BA8103F03069}"/>
-    <hyperlink ref="H26" r:id="rId39" xr:uid="{F2297418-1B6E-441E-9B4B-9BD8780E2A20}"/>
-    <hyperlink ref="H22" r:id="rId40" xr:uid="{A2538264-0D7D-4FFC-B715-9479B8A5EF0B}"/>
-    <hyperlink ref="H23" r:id="rId41" xr:uid="{7C10A579-0B00-49C9-B104-3A1DEA15F500}"/>
-    <hyperlink ref="H30" r:id="rId42" xr:uid="{41E1F84B-907D-460D-8A4A-0F5CB3F55250}"/>
-    <hyperlink ref="H35" r:id="rId43" xr:uid="{76CCD6D0-3BF2-43D9-96A3-CCC202BC567E}"/>
-    <hyperlink ref="H45" r:id="rId44" xr:uid="{D352F136-D315-480A-92AD-ADD098EED3D7}"/>
-    <hyperlink ref="H48" r:id="rId45" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
-    <hyperlink ref="H46" r:id="rId46" xr:uid="{6F3CAC21-1DCD-474A-9787-C22BBD0C4E38}"/>
-    <hyperlink ref="H44" r:id="rId47" xr:uid="{6BE943BD-671F-489F-AB3B-CF5D11F8263D}"/>
-    <hyperlink ref="H17" r:id="rId48" xr:uid="{D4951B3D-B69F-4D87-9FF9-631674FCC8AF}"/>
-    <hyperlink ref="H18" r:id="rId49" xr:uid="{E85101F4-9577-4AC1-844D-7E7D420BE749}"/>
-    <hyperlink ref="H15" r:id="rId50" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
-    <hyperlink ref="H16" r:id="rId51" xr:uid="{7C24382D-49F8-4923-91B9-773AC826C128}"/>
-    <hyperlink ref="H19" r:id="rId52" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
-    <hyperlink ref="H14" r:id="rId53" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
-    <hyperlink ref="H41" r:id="rId54" xr:uid="{4F1D6A2D-E11C-41B7-B026-66CF7367B005}"/>
-    <hyperlink ref="H2" r:id="rId55" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
-    <hyperlink ref="H51" r:id="rId56" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
-    <hyperlink ref="H24" r:id="rId57" xr:uid="{D42286FC-FBC5-4AC8-9F80-CE45DA9024A1}"/>
-    <hyperlink ref="H57" r:id="rId58" xr:uid="{8272CA27-9695-400E-9D5C-D0AC5D569886}"/>
-    <hyperlink ref="H58" r:id="rId59" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
+    <hyperlink ref="G36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G49" r:id="rId4" display="http://covid19.providencehealthcare.org/resources/tools-covid-conversations-patientsdms" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G25" r:id="rId5" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E32" r:id="rId8" display="www.careserach.com.au" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E38" r:id="rId10" display="https://www.lindadykes.org/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G54" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G39" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G10" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G21" r:id="rId33" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
+    <hyperlink ref="G13" r:id="rId34" xr:uid="{D1A003A7-83B0-4A25-AD01-2DC1467CFDB7}"/>
+    <hyperlink ref="G29" r:id="rId35" xr:uid="{14811286-5305-41A0-BE96-FBB5D6F3A1F8}"/>
+    <hyperlink ref="G40" r:id="rId36" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
+    <hyperlink ref="G56" r:id="rId37" xr:uid="{F3CF529A-34B0-4598-A917-ED1DB54B579F}"/>
+    <hyperlink ref="G11" r:id="rId38" xr:uid="{0EB7216B-90CC-44EF-AE38-BA8103F03069}"/>
+    <hyperlink ref="G26" r:id="rId39" xr:uid="{F2297418-1B6E-441E-9B4B-9BD8780E2A20}"/>
+    <hyperlink ref="G22" r:id="rId40" xr:uid="{A2538264-0D7D-4FFC-B715-9479B8A5EF0B}"/>
+    <hyperlink ref="G23" r:id="rId41" xr:uid="{7C10A579-0B00-49C9-B104-3A1DEA15F500}"/>
+    <hyperlink ref="G30" r:id="rId42" xr:uid="{41E1F84B-907D-460D-8A4A-0F5CB3F55250}"/>
+    <hyperlink ref="G35" r:id="rId43" xr:uid="{76CCD6D0-3BF2-43D9-96A3-CCC202BC567E}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{D352F136-D315-480A-92AD-ADD098EED3D7}"/>
+    <hyperlink ref="G48" r:id="rId45" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
+    <hyperlink ref="G46" r:id="rId46" xr:uid="{6F3CAC21-1DCD-474A-9787-C22BBD0C4E38}"/>
+    <hyperlink ref="G44" r:id="rId47" xr:uid="{6BE943BD-671F-489F-AB3B-CF5D11F8263D}"/>
+    <hyperlink ref="G17" r:id="rId48" xr:uid="{D4951B3D-B69F-4D87-9FF9-631674FCC8AF}"/>
+    <hyperlink ref="G18" r:id="rId49" xr:uid="{E85101F4-9577-4AC1-844D-7E7D420BE749}"/>
+    <hyperlink ref="G15" r:id="rId50" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
+    <hyperlink ref="G16" r:id="rId51" xr:uid="{7C24382D-49F8-4923-91B9-773AC826C128}"/>
+    <hyperlink ref="G19" r:id="rId52" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
+    <hyperlink ref="G14" r:id="rId53" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
+    <hyperlink ref="G41" r:id="rId54" xr:uid="{4F1D6A2D-E11C-41B7-B026-66CF7367B005}"/>
+    <hyperlink ref="G2" r:id="rId55" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
+    <hyperlink ref="G51" r:id="rId56" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
+    <hyperlink ref="G24" r:id="rId57" xr:uid="{D42286FC-FBC5-4AC8-9F80-CE45DA9024A1}"/>
+    <hyperlink ref="G57" r:id="rId58" xr:uid="{8272CA27-9695-400E-9D5C-D0AC5D569886}"/>
+    <hyperlink ref="G58" r:id="rId59" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId60"/>
   <legacyDrawing r:id="rId61"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>Data!$F$3:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E9:E24 E2:E7</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C97644D7-410E-42A1-BEC8-C76DF66C65E0}">
           <x14:formula1>
             <xm:f>Data!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>G58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -2846,7 +2712,7 @@
           <x14:formula1>
             <xm:f>Data!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2873,117 +2739,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>6</v>
+      <c r="D1" s="19" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3056,40 +2922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3349,10 +3181,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3369,20 +3246,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5F3DF4-A2DF-7749-AA48-2F9886E0D685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3543DD0-8991-405C-9289-8D03FD8E3E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -595,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,61 +787,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1165,24 +1165,24 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A24" s="20" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="45" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="90">
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="60">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" s="20" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="30">
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A50" s="4" t="s">
         <v>145</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="20" t="s">
         <v>149</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="20" t="s">
         <v>149</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="20" t="s">
         <v>149</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" s="20" t="s">
         <v>149</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A56" s="20" t="s">
         <v>149</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A57" s="20" t="s">
         <v>149</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A59" s="4" t="s">
         <v>149</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A60" s="20" t="s">
         <v>149</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A63" s="4" t="s">
         <v>172</v>
       </c>
@@ -2633,11 +2633,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState ref="A2:G63">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:G48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
     <sortCondition ref="B2:B48"/>
   </sortState>
   <dataConsolidate/>
@@ -2744,21 +2744,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="29.1">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -2840,94 +2840,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>179</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="D2:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -2942,6 +2942,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3201,7 +3210,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -3226,49 +3235,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3543DD0-8991-405C-9289-8D03FD8E3E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{399CABA5-8F7A-449A-A783-8358F5D70200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>Symptom Management</t>
   </si>
   <si>
-    <t>Regional Pre-Printed orders for COVID-19 Kit for Patient at Home Palliative Care</t>
+    <t>Regional Pre-Printed Orders for COVID-19 Kit for Patient at Home Palliative Care</t>
   </si>
   <si>
     <t>Fraser Health</t>
@@ -115,7 +115,7 @@
     <t>http://medicalstaff.fraserhealth.ca/getattachment/COVID-19/Strips/COVID-19/Updates/forms/2020-05-05-NUXX107348B_COVID-19DischargeChecklistforEoL_proof.pdf.aspx/</t>
   </si>
   <si>
-    <t>Serious Illness Conversations in the time of COVID-19</t>
+    <t>Serious Illness Conversations in the Time of COVID-19</t>
   </si>
   <si>
     <t>Dr. Lawrence Chow et al.</t>
@@ -166,7 +166,7 @@
     <t>Pan-Canadian</t>
   </si>
   <si>
-    <t>Grief and COVID-19 for Healthcare Providers: Staying Connected in a time of Loss and Uncertainty</t>
+    <t>Grief and COVID-19 for Healthcare Providers: Staying Connected in a Time of Loss and Uncertainty</t>
   </si>
   <si>
     <t>Canadian Virtual Hospice</t>
@@ -211,7 +211,7 @@
     <t>https://jamanetwork.com/journals/jama/fullarticle/2763952</t>
   </si>
   <si>
-    <t>Actively Dying Protocol and COVID Crisis orders</t>
+    <t>Actively Dying Protocol and COVID Crisis Orders</t>
   </si>
   <si>
     <t xml:space="preserve">Fraser Health </t>
@@ -245,7 +245,7 @@
     <t>Other provinces in Canada</t>
   </si>
   <si>
-    <t>COVID-19 Speakup Canada</t>
+    <t>COVID-19 SpeakUp Canada</t>
   </si>
   <si>
     <t>SpeakUp Canada</t>
@@ -429,7 +429,7 @@
     <t>https://www.who.int/docs/defAustraliastralialt-source/coronaviruse/mental-health-considerations.pdf?sfvrsn=6d3578af_2</t>
   </si>
   <si>
-    <t>End-of-Life Care In the ED for Patients Imminently Dying of a Transmissible Acute Respiratory Infection (Such as COVID-19)</t>
+    <t>End-of-Life Care in the ED for Patients Imminently Dying of a Transmissible Acute Respiratory Infection (Such as COVID-19)</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=87NswgYLK-Y&amp;feature=youtu.be</t>
@@ -468,7 +468,7 @@
     <t>https://www.youtube.com/watch?v=pX3LR96k5w8</t>
   </si>
   <si>
-    <t>Shortage of Palliative Medications During COVID-19: Options</t>
+    <t>Shortage of Palliative Medications during COVID-19: Options</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Ss7SX7EhVQo&amp;feature=youtu.be</t>
@@ -1165,9 +1165,9 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2744,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2942,15 +2942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3210,7 +3201,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -3235,14 +3226,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399CABA5-8F7A-449A-A783-8358F5D70200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4FE66-1166-9B44-9299-017B26694EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="1120" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -595,7 +587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,23 +1158,23 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +1243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1611,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1726,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1">
+    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1841,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1887,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90">
+    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1933,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1956,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +1979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30">
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2010,7 +2002,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2048,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +2071,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2094,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60">
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2117,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2209,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2278,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>145</v>
       </c>
@@ -2332,7 +2324,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
@@ -2355,7 +2347,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>149</v>
       </c>
@@ -2378,7 +2370,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>149</v>
       </c>
@@ -2401,7 +2393,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>149</v>
       </c>
@@ -2424,7 +2416,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>149</v>
       </c>
@@ -2447,7 +2439,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>149</v>
       </c>
@@ -2470,7 +2462,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>149</v>
       </c>
@@ -2493,7 +2485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
@@ -2516,7 +2508,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>149</v>
       </c>
@@ -2539,7 +2531,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>149</v>
       </c>
@@ -2562,7 +2554,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
@@ -2585,7 +2577,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
@@ -2608,7 +2600,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>172</v>
       </c>
@@ -2633,11 +2625,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
+    <sortState ref="A2:G63">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
+  <sortState ref="A2:G48">
     <sortCondition ref="B2:B48"/>
   </sortState>
   <dataConsolidate/>
@@ -2748,17 +2740,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
@@ -2801,7 +2793,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
@@ -2816,7 +2808,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -2831,7 +2823,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="29.1">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -2840,94 +2832,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>179</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
+  <sortState ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -3202,6 +3194,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -3226,23 +3227,40 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4FE66-1166-9B44-9299-017B26694EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30205DF6-45A6-4AD4-A087-3BC4CC55714A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1120" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="184">
   <si>
     <t>Audience</t>
   </si>
@@ -572,6 +580,12 @@
   </si>
   <si>
     <t>https://www.socialworkers.org/News/Social-Work-Talks-Podcast/EP48-Self-Care-During-the-Coronavirus-Pandemic</t>
+  </si>
+  <si>
+    <t>Learn How To Support a Person with Dyspnea or COVID-19-Related Breathlessness</t>
+  </si>
+  <si>
+    <t>https://www.lifeanddeathmatters.ca/request-dyspnea-covid-19-videos/</t>
   </si>
   <si>
     <t>New Zealand</t>
@@ -587,7 +601,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +675,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -730,7 +750,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,63 +797,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1155,26 +1182,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1220,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1381,7 +1408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1496,7 +1523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1638,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1707,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A24" s="20" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="45" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="90">
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +1960,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +2006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +2029,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2048,7 +2075,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2071,7 +2098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +2121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="60">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2190,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2186,7 +2213,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" s="20" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2236,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="30">
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A50" s="4" t="s">
         <v>145</v>
       </c>
@@ -2324,7 +2351,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
@@ -2347,7 +2374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="20" t="s">
         <v>149</v>
       </c>
@@ -2370,7 +2397,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="20" t="s">
         <v>149</v>
       </c>
@@ -2393,7 +2420,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="20" t="s">
         <v>149</v>
       </c>
@@ -2416,7 +2443,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" s="20" t="s">
         <v>149</v>
       </c>
@@ -2439,7 +2466,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A56" s="20" t="s">
         <v>149</v>
       </c>
@@ -2462,7 +2489,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A57" s="20" t="s">
         <v>149</v>
       </c>
@@ -2485,7 +2512,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
@@ -2508,7 +2535,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A59" s="4" t="s">
         <v>149</v>
       </c>
@@ -2531,7 +2558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A60" s="20" t="s">
         <v>149</v>
       </c>
@@ -2554,7 +2581,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
@@ -2577,7 +2604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
@@ -2600,7 +2627,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A63" s="4" t="s">
         <v>172</v>
       </c>
@@ -2623,13 +2650,37 @@
         <v>178</v>
       </c>
     </row>
+    <row r="64" spans="1:7" s="27" customFormat="1" ht="45">
+      <c r="A64" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState ref="A2:G63">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:G48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
     <sortCondition ref="B2:B48"/>
   </sortState>
   <dataConsolidate/>
@@ -2696,9 +2747,10 @@
     <hyperlink ref="G54" r:id="rId60" xr:uid="{26590CC4-3194-41CD-94D7-145F561EE448}"/>
     <hyperlink ref="G53" r:id="rId61" xr:uid="{F931E333-3E48-433D-80B2-EF3E1041B7B5}"/>
     <hyperlink ref="G52" r:id="rId62" xr:uid="{682CD892-7F23-486D-AED2-DE2FE4AA57E9}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{59D210E6-B29E-4655-9898-51358A919B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId63"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId64"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -2740,17 +2792,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
@@ -2793,7 +2845,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
@@ -2808,7 +2860,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -2823,7 +2875,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="29.1">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -2832,94 +2884,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="D2:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -2934,6 +2986,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3193,74 +3279,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30205DF6-45A6-4AD4-A087-3BC4CC55714A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC5FA9-85EB-0F46-A6F8-10597C3A5639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="480" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -582,9 +574,6 @@
     <t>https://www.socialworkers.org/News/Social-Work-Talks-Podcast/EP48-Self-Care-During-the-Coronavirus-Pandemic</t>
   </si>
   <si>
-    <t>Learn How To Support a Person with Dyspnea or COVID-19-Related Breathlessness</t>
-  </si>
-  <si>
     <t>https://www.lifeanddeathmatters.ca/request-dyspnea-covid-19-videos/</t>
   </si>
   <si>
@@ -595,13 +584,16 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>learn how to support a person with dyspnea or COVID-19-related breathlessness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,26 +1174,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +1515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1569,7 +1561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +1699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1845,7 +1837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1">
+    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1860,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
@@ -1937,7 +1929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90">
+    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
@@ -1960,7 +1952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1983,7 +1975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +1998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30">
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +2067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2098,7 +2090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2121,7 +2113,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60">
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2167,7 +2159,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2205,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2251,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
@@ -2305,7 +2297,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
@@ -2328,7 +2320,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>145</v>
       </c>
@@ -2351,7 +2343,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
@@ -2374,7 +2366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>149</v>
       </c>
@@ -2397,7 +2389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>149</v>
       </c>
@@ -2420,7 +2412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>149</v>
       </c>
@@ -2443,7 +2435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>149</v>
       </c>
@@ -2466,7 +2458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>149</v>
       </c>
@@ -2489,7 +2481,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>149</v>
       </c>
@@ -2512,7 +2504,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
@@ -2535,7 +2527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>149</v>
       </c>
@@ -2558,7 +2550,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>149</v>
       </c>
@@ -2581,7 +2573,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
@@ -2604,7 +2596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
@@ -2627,7 +2619,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>172</v>
       </c>
@@ -2650,7 +2642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="27" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
         <v>7</v>
       </c>
@@ -2661,7 +2653,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>147</v>
@@ -2670,17 +2662,16 @@
         <v>43</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" ht="15"/>
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
+    <sortState ref="A2:G63">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
+  <sortState ref="A2:G48">
     <sortCondition ref="B2:B48"/>
   </sortState>
   <dataConsolidate/>
@@ -2792,17 +2783,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2830,7 +2821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
@@ -2845,7 +2836,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
@@ -2860,7 +2851,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -2875,7 +2866,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="29.1">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -2884,94 +2875,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
+  <sortState ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -3011,15 +3002,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3279,14 +3261,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC5FA9-85EB-0F46-A6F8-10597C3A5639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5025CD-05FA-034C-831C-5689469C828C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="480" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8020" yWindow="1120" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="183">
   <si>
     <t>Audience</t>
   </si>
@@ -572,9 +572,6 @@
   </si>
   <si>
     <t>https://www.socialworkers.org/News/Social-Work-Talks-Podcast/EP48-Self-Care-During-the-Coronavirus-Pandemic</t>
-  </si>
-  <si>
-    <t>https://www.lifeanddeathmatters.ca/request-dyspnea-covid-19-videos/</t>
   </si>
   <si>
     <t>New Zealand</t>
@@ -1178,7 +1175,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2653,17 +2650,12 @@
         <v>9</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F64" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G64" s="28" t="s">
-        <v>179</v>
-      </c>
+      <c r="G64" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
@@ -2738,10 +2730,9 @@
     <hyperlink ref="G54" r:id="rId60" xr:uid="{26590CC4-3194-41CD-94D7-145F561EE448}"/>
     <hyperlink ref="G53" r:id="rId61" xr:uid="{F931E333-3E48-433D-80B2-EF3E1041B7B5}"/>
     <hyperlink ref="G52" r:id="rId62" xr:uid="{682CD892-7F23-486D-AED2-DE2FE4AA57E9}"/>
-    <hyperlink ref="G64" r:id="rId63" xr:uid="{59D210E6-B29E-4655-9898-51358A919B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId64"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId63"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -2779,7 +2770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2891,20 +2882,20 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2977,31 +2968,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3261,6 +3227,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3271,17 +3262,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3300,6 +3280,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>

--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5025CD-05FA-034C-831C-5689469C828C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690B659-C67B-BF4C-8D01-97736658E381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8020" yWindow="1120" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
   <si>
     <t>Audience</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>learn how to support a person with dyspnea or COVID-19-related breathlessness</t>
+  </si>
+  <si>
+    <t>life and death matters</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2651,6 +2654,9 @@
       </c>
       <c r="D64" s="26" t="s">
         <v>182</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="F64" s="27" t="s">
         <v>43</v>

--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690B659-C67B-BF4C-8D01-97736658E381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30205DF6-45A6-4AD4-A087-3BC4CC55714A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="1120" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="184">
   <si>
     <t>Audience</t>
   </si>
@@ -574,6 +582,12 @@
     <t>https://www.socialworkers.org/News/Social-Work-Talks-Podcast/EP48-Self-Care-During-the-Coronavirus-Pandemic</t>
   </si>
   <si>
+    <t>Learn How To Support a Person with Dyspnea or COVID-19-Related Breathlessness</t>
+  </si>
+  <si>
+    <t>https://www.lifeanddeathmatters.ca/request-dyspnea-covid-19-videos/</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -581,19 +595,13 @@
   </si>
   <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>learn how to support a person with dyspnea or COVID-19-related breathlessness</t>
-  </si>
-  <si>
-    <t>life and death matters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,26 +1182,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1638,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A24" s="20" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="45" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="90">
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +1960,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2029,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2113,7 +2121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="60">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" s="20" t="s">
         <v>7</v>
       </c>
@@ -2228,7 +2236,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="30">
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A50" s="4" t="s">
         <v>145</v>
       </c>
@@ -2343,7 +2351,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
@@ -2366,7 +2374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="20" t="s">
         <v>149</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="20" t="s">
         <v>149</v>
       </c>
@@ -2412,7 +2420,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="20" t="s">
         <v>149</v>
       </c>
@@ -2435,7 +2443,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" s="20" t="s">
         <v>149</v>
       </c>
@@ -2458,7 +2466,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A56" s="20" t="s">
         <v>149</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A57" s="20" t="s">
         <v>149</v>
       </c>
@@ -2504,7 +2512,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A59" s="4" t="s">
         <v>149</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A60" s="20" t="s">
         <v>149</v>
       </c>
@@ -2573,7 +2581,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
@@ -2596,7 +2604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
@@ -2619,7 +2627,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A63" s="4" t="s">
         <v>172</v>
       </c>
@@ -2642,7 +2650,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="27" customFormat="1" ht="45">
       <c r="A64" s="26" t="s">
         <v>7</v>
       </c>
@@ -2653,23 +2661,26 @@
         <v>9</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="F64" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G64" s="28"/>
-    </row>
+      <c r="G64" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState ref="A2:G63">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:G48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
     <sortCondition ref="B2:B48"/>
   </sortState>
   <dataConsolidate/>
@@ -2736,9 +2747,10 @@
     <hyperlink ref="G54" r:id="rId60" xr:uid="{26590CC4-3194-41CD-94D7-145F561EE448}"/>
     <hyperlink ref="G53" r:id="rId61" xr:uid="{F931E333-3E48-433D-80B2-EF3E1041B7B5}"/>
     <hyperlink ref="G52" r:id="rId62" xr:uid="{682CD892-7F23-486D-AED2-DE2FE4AA57E9}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{59D210E6-B29E-4655-9898-51358A919B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId63"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId64"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -2776,21 +2788,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
@@ -2833,7 +2845,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
@@ -2848,7 +2860,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -2863,7 +2875,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="29.1">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -2872,94 +2884,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="D2:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -2974,6 +2986,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3233,74 +3279,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30205DF6-45A6-4AD4-A087-3BC4CC55714A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D53409-5CBA-CF4C-A315-D759DDE3D67E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -582,9 +574,6 @@
     <t>https://www.socialworkers.org/News/Social-Work-Talks-Podcast/EP48-Self-Care-During-the-Coronavirus-Pandemic</t>
   </si>
   <si>
-    <t>Learn How To Support a Person with Dyspnea or COVID-19-Related Breathlessness</t>
-  </si>
-  <si>
     <t>https://www.lifeanddeathmatters.ca/request-dyspnea-covid-19-videos/</t>
   </si>
   <si>
@@ -595,13 +584,16 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Learn How To Support a Person with Dyspnea or covid-19-Related Breathlessness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,26 +1174,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +1515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1569,7 +1561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +1699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1845,7 +1837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1">
+    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1860,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>7</v>
       </c>
@@ -1937,7 +1929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90">
+    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
@@ -1960,7 +1952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1983,7 +1975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +1998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30">
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +2067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2098,7 +2090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2121,7 +2113,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60">
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2167,7 +2159,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2205,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2251,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
@@ -2305,7 +2297,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
@@ -2328,7 +2320,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>145</v>
       </c>
@@ -2351,7 +2343,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
@@ -2374,7 +2366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>149</v>
       </c>
@@ -2397,7 +2389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>149</v>
       </c>
@@ -2420,7 +2412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>149</v>
       </c>
@@ -2443,7 +2435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>149</v>
       </c>
@@ -2466,7 +2458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>149</v>
       </c>
@@ -2489,7 +2481,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>149</v>
       </c>
@@ -2512,7 +2504,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
@@ -2535,7 +2527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>149</v>
       </c>
@@ -2558,7 +2550,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>149</v>
       </c>
@@ -2581,7 +2573,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
@@ -2604,7 +2596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>172</v>
       </c>
@@ -2627,7 +2619,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>172</v>
       </c>
@@ -2650,7 +2642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="27" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
         <v>7</v>
       </c>
@@ -2661,7 +2653,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>147</v>
@@ -2670,17 +2662,16 @@
         <v>43</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" ht="15"/>
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G57" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
+    <sortState ref="A2:G63">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
+  <sortState ref="A2:G48">
     <sortCondition ref="B2:B48"/>
   </sortState>
   <dataConsolidate/>
@@ -2792,17 +2783,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2830,7 +2821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
@@ -2845,7 +2836,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
@@ -2860,7 +2851,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -2875,7 +2866,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="29.1">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -2884,94 +2875,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
+  <sortState ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -2986,6 +2977,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -3008,15 +3008,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3280,13 +3271,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D53409-5CBA-CF4C-A315-D759DDE3D67E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94CAD6D-F0FF-7A48-95B9-FB4C23F46FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Learn How To Support a Person with Dyspnea or covid-19-Related Breathlessness</t>
+    <t>Learn How To Support a Person with Dyspnea or COVID-19-Related Breathlessness</t>
   </si>
 </sst>
 </file>
@@ -2977,40 +2977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -3270,10 +3236,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3290,20 +3301,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94CAD6D-F0FF-7A48-95B9-FB4C23F46FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3204611-2C0A-304F-9BBD-1F611533418E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +647,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -789,11 +805,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1177,8 +1193,8 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3237,6 +3253,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -3261,15 +3286,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
@@ -3290,6 +3306,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3298,12 +3322,4 @@
     <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B2F308-1CD9-47F7-927C-E5B437381F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1120" documentId="8_{B8BF83B0-EBDF-4114-A6F8-5BEB7A150D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFC60A94-D934-4988-816B-656034F8D782}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="189">
   <si>
     <t>Audience</t>
   </si>
@@ -332,7 +332,7 @@
     <t>https://www.pallium.ca/course/leap-online/</t>
   </si>
   <si>
-    <t>Learn How to Support a Person with Dyspnea or COVID-19-Related Breathlessness</t>
+    <t>Learn How to Support a Person with Dyspnea or COVID-19 Related Breathlessness</t>
   </si>
   <si>
     <t>https://www.lifeanddeathmatters.ca/request-dyspnea-covid-19-videos/</t>
@@ -589,6 +589,15 @@
   </si>
   <si>
     <t>https://www.fnha.ca/about/news-and-events/news/your-care-your-choices</t>
+  </si>
+  <si>
+    <t>Practicing Cultural Safety and Humility in the Response to COVID-19</t>
+  </si>
+  <si>
+    <t>BC College of Family Physicians</t>
+  </si>
+  <si>
+    <t>https://bccfp.bc.ca/wp-content/uploads/2020/05/Practising-cultural-safety-and-humility-in-response-to-COVID-19.pdf</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -770,7 +779,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,70 +837,66 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1227,8 +1232,8 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2048,26 +2053,26 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="32" customFormat="1" ht="30">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:7" s="24" customFormat="1" ht="30">
+      <c r="A36" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="23" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2485,26 +2490,26 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="32" customFormat="1" ht="30">
-      <c r="A55" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="32" t="s">
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="30">
+      <c r="A55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="23" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2669,7 +2674,29 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15"/>
+    <row r="63" spans="1:7" ht="45">
+      <c r="A63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="65" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
@@ -2746,9 +2773,10 @@
     <hyperlink ref="G19" r:id="rId59" xr:uid="{F931E333-3E48-433D-80B2-EF3E1041B7B5}"/>
     <hyperlink ref="G3" r:id="rId60" xr:uid="{682CD892-7F23-486D-AED2-DE2FE4AA57E9}"/>
     <hyperlink ref="G28" r:id="rId61" xr:uid="{59D210E6-B29E-4655-9898-51358A919B08}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{5D981B24-912B-49F1-809B-FFB59EF45900}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId62"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId63"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -2756,7 +2784,7 @@
           <x14:formula1>
             <xm:f>Data!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F56:F1048576 F1:F54</xm:sqref>
+          <xm:sqref>F1:F54 F56:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F86E01A6-9BFD-44B3-AEA9-2E6F3E8FCA17}">
           <x14:formula1>
@@ -2872,7 +2900,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -2916,20 +2944,20 @@
     <row r="9" spans="1:7">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1120" documentId="8_{B8BF83B0-EBDF-4114-A6F8-5BEB7A150D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFC60A94-D934-4988-816B-656034F8D782}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06F4CD9-FCB0-4957-B4B3-63DCBA0F834B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="230">
   <si>
     <t>Audience</t>
   </si>
@@ -236,6 +236,9 @@
     <t>https://www.advancecareplanning.ca/covid19/</t>
   </si>
   <si>
+    <t>Healthcare Provider Wellness</t>
+  </si>
+  <si>
     <t>Pan-Canadian</t>
   </si>
   <si>
@@ -281,7 +284,7 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Facilitating Goodbyes or Critical  Conversations Via Online</t>
+    <t>Facilitating Goodbyes or Critical  Conversations via Online</t>
   </si>
   <si>
     <t>Irish Hospice Foundation</t>
@@ -414,6 +417,15 @@
     <t>https://www.youtube.com/watch?v=h34W7yozmWU&amp;feature=youtu.be</t>
   </si>
   <si>
+    <t>Practicing Cultural Safety and Humility in the Response to COVID-19</t>
+  </si>
+  <si>
+    <t>BC College of Family Physicians</t>
+  </si>
+  <si>
+    <t>https://bccfp.bc.ca/wp-content/uploads/2020/05/Practising-cultural-safety-and-humility-in-response-to-COVID-19.pdf</t>
+  </si>
+  <si>
     <t>Primary Palliative Care amidst a Disaster</t>
   </si>
   <si>
@@ -591,13 +603,124 @@
     <t>https://www.fnha.ca/about/news-and-events/news/your-care-your-choices</t>
   </si>
   <si>
-    <t>Practicing Cultural Safety and Humility in the Response to COVID-19</t>
-  </si>
-  <si>
-    <t>BC College of Family Physicians</t>
-  </si>
-  <si>
-    <t>https://bccfp.bc.ca/wp-content/uploads/2020/05/Practising-cultural-safety-and-humility-in-response-to-COVID-19.pdf</t>
+    <t>“We are in a War”: Mitigating Burnout in COVID-19</t>
+  </si>
+  <si>
+    <t>Center to Advance Palliative Care</t>
+  </si>
+  <si>
+    <t>https://www.capc.org/blog/we-are-in-a-war-mitigating-burnout-in-covid-19/?utm_source=Center+to+Advance+Palliative+Care&amp;utm_campaign=524c26a78d-Non+Members%3A+Covid-19+Resources+4.22.20&amp;utm_medium=email&amp;utm_term=0_31106acbde-524c26a78d-369334033</t>
+  </si>
+  <si>
+    <t>Greater Good Online Institute for Health Professionals</t>
+  </si>
+  <si>
+    <t>Greater Good Science Center</t>
+  </si>
+  <si>
+    <t>https://ggsc.berkeley.edu/what_we_do/event/greater_good_institute_for_health_professionals</t>
+  </si>
+  <si>
+    <t>Mitigating the Psychological Effects of COVID-19 on Health Care Workers</t>
+  </si>
+  <si>
+    <t>Peter E. Wu et al.</t>
+  </si>
+  <si>
+    <t>https://www.cmaj.ca/content/early/2020/04/15/cmaj.200519.1</t>
+  </si>
+  <si>
+    <t>Peer-recommended Resources: Relaxation and Meditation Apps</t>
+  </si>
+  <si>
+    <t>American Psychological Association</t>
+  </si>
+  <si>
+    <t>https://div38healthpsychologist.com/2017/10/25/peer-recommended-resources-relaxation-and-meditation-apps/</t>
+  </si>
+  <si>
+    <t>Personal and Professional Strategies to Reduce Psychological Stress during a Pandemic</t>
+  </si>
+  <si>
+    <t>Canadian Association of Social Workers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lz2wW0CMb5A</t>
+  </si>
+  <si>
+    <t>Understanding and Addressing Sources of Anxiety among Health Care Professionals during the COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t>Tait Shanafelt, MD et al.</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/journals/jama/fullarticle/2764380?guestAccessKey=faf70d07-1880-446d-a13d-a9ce904e91dc&amp;utm_content=weekly_highlights&amp;utm_term=041120&amp;utm_source=silverchair&amp;utm_campaign=jama_network&amp;cmp=1&amp;utm_medium=email</t>
+  </si>
+  <si>
+    <t>Why am I Worried about Coronavirus Even Though I know I’m safe?</t>
+  </si>
+  <si>
+    <t>My Workplace Health</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A_Xj5ddv9mg&amp;list=PLMnuzZp8J5gobe5gdr01C7ISk8cZ6Znwz&amp;index=9</t>
+  </si>
+  <si>
+    <t>Effectively Communicating about Coronavirus in the Workplace</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M4cs6iFr0do</t>
+  </si>
+  <si>
+    <t>Leaders Helping the Helpers</t>
+  </si>
+  <si>
+    <t>Care for Caregivers</t>
+  </si>
+  <si>
+    <t>https://careforcaregivers.ca/wp-content/uploads/2020/04/Leaders-helping-helpers.pdf</t>
+  </si>
+  <si>
+    <t>COVID 19 - Anxiety Coping Strategies</t>
+  </si>
+  <si>
+    <t>https://careforcaregivers.ca/wp-content/uploads/2020/04/Managing-COVID19-Anxiety.pdf</t>
+  </si>
+  <si>
+    <t>Resilient Minds – On the Frontline</t>
+  </si>
+  <si>
+    <t>https://cmhavf.zoom.us/rec/share/_91FIIHfzTlIZLPXuBnZVJRwO73eT6a81XIW-_RexEpP3cmONhL9XilATEpArQ7D</t>
+  </si>
+  <si>
+    <t>Supporting the Well-Being of Healthcare Workers on the Front Line of the COVID-19 Crisis Webinar</t>
+  </si>
+  <si>
+    <t>Canadian College of Health Leaders</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_IeKVwF81FU&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Enhancing Psychological Health, Wellness &amp; Resilience in the Era of COVID-19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zx3e073AEx8&amp;amp=&amp;t=24s</t>
+  </si>
+  <si>
+    <t>Supporting the Mental Health of Staff During COVID-19: Strategies being used in Long-Term Care</t>
+  </si>
+  <si>
+    <t>SafeCare BC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UpZO7eyQdqQ&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Supporting the Mental Health of Staff During COVID-19: Strategies being used in Home Care</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0RL4AlGaQJ4&amp;feature=youtu.be</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -679,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,12 +818,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +896,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -826,77 +943,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1229,11 +1339,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1621,22 +1731,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="24" customFormat="1" ht="30">
@@ -1644,22 +1754,22 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
@@ -1673,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>18</v>
@@ -1696,16 +1806,16 @@
         <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="24" customFormat="1" ht="45">
@@ -1716,19 +1826,19 @@
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
@@ -1739,19 +1849,19 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="24" customFormat="1" ht="75">
@@ -1759,22 +1869,22 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="24" customFormat="1" ht="30">
@@ -1788,16 +1898,16 @@
         <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="24" customFormat="1" ht="30">
@@ -1811,16 +1921,16 @@
         <v>16</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="90">
@@ -1834,16 +1944,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="24" customFormat="1" ht="15">
@@ -1854,42 +1964,42 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45">
-      <c r="A28" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>97</v>
+      <c r="G28" s="23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" customHeight="1">
@@ -1900,19 +2010,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60">
@@ -1926,39 +2036,39 @@
         <v>21</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45">
       <c r="A31" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
@@ -1969,19 +2079,19 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
@@ -1992,19 +2102,19 @@
         <v>26</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30">
@@ -2018,16 +2128,16 @@
         <v>16</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
@@ -2041,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -2050,30 +2160,30 @@
         <v>12</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A36" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
@@ -2084,157 +2194,157 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45">
       <c r="A38" s="20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="24" t="s">
+      <c r="D39" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F39" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>127</v>
+      <c r="G39" s="23" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="24" customFormat="1" ht="30">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="24" customFormat="1" ht="45">
-      <c r="A41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="24" t="s">
+      <c r="G41" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45">
+      <c r="A42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C42" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="24" t="s">
+      <c r="D42" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F42" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="G42" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>15</v>
-      </c>
       <c r="C43" s="24" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="25" t="s">
-        <v>38</v>
+      <c r="G43" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15">
@@ -2242,114 +2352,114 @@
         <v>7</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
-      <c r="A45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="16" t="s">
+    <row r="45" spans="1:7" ht="15">
+      <c r="A45" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>139</v>
+      <c r="C45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45">
       <c r="A46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45">
+      <c r="A47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="20" t="s">
+      <c r="G47" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="24" t="s">
+      <c r="B48" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="24" t="s">
+      <c r="D48" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F48" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G48" s="23" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45">
-      <c r="A48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="24" customFormat="1" ht="45">
@@ -2363,39 +2473,39 @@
         <v>9</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30">
-      <c r="A50" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>151</v>
+      <c r="F50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30">
@@ -2409,85 +2519,85 @@
         <v>9</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>153</v>
+        <v>19</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="A52" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="20" t="s">
+      <c r="G53" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B54" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="21" t="s">
+      <c r="D54" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="G54" s="23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="24" customFormat="1" ht="30">
@@ -2495,19 +2605,19 @@
         <v>7</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>165</v>
@@ -2521,191 +2631,535 @@
         <v>32</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>166</v>
       </c>
       <c r="E56" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
+      <c r="A57" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F57" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="45">
-      <c r="A57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="G57" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="D58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A58" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="24" t="s">
+      <c r="G58" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="15">
+      <c r="A59" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="24" t="s">
+      <c r="D59" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F59" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G59" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="60">
-      <c r="A59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="60">
+      <c r="A60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A60" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="24" t="s">
+      <c r="D60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="15">
+      <c r="A61" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="24" t="s">
+      <c r="D61" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F61" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G61" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F61" t="s">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="15">
+      <c r="A62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="30">
-      <c r="A62" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="24" t="s">
+      <c r="G62" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30">
+      <c r="A63" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C63" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E62" s="24" t="s">
+      <c r="D63" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F63" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="45">
-      <c r="A63" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="27" t="s">
+      <c r="G63" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30">
+      <c r="A66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30">
+      <c r="A67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45">
+      <c r="A68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="75">
+      <c r="A69" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" t="s">
+        <v>202</v>
+      </c>
+      <c r="F69" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30">
+      <c r="A72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" ht="15"/>
+      <c r="D72" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30">
+      <c r="A73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30">
+      <c r="A74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45">
+      <c r="A75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" t="s">
+        <v>217</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30">
+      <c r="A76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45">
+      <c r="A77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45">
+      <c r="A78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G62">
       <sortCondition ref="D1:D55"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G47">
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
+    <sortCondition ref="D2:D65"/>
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="D1:D1048576">
@@ -2713,37 +3167,37 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G59" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G12" r:id="rId3" display="http://covid19.providencehealthcare.org/resources/tools-covid-conversations-patientsdms" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G56" r:id="rId4" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G57" r:id="rId4" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G61" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G62" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="G16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G40" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G41" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="G34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="G11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="G25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="G32" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G57" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G39" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G53" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G58" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G40" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G54" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="G15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G48" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="G18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="G10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G50" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G51" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="G29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="G17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G62" r:id="rId29" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
+    <hyperlink ref="G63" r:id="rId29" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
     <hyperlink ref="G23" r:id="rId30" xr:uid="{D1A003A7-83B0-4A25-AD01-2DC1467CFDB7}"/>
     <hyperlink ref="G4" r:id="rId31" xr:uid="{14811286-5305-41A0-BE96-FBB5D6F3A1F8}"/>
-    <hyperlink ref="G46" r:id="rId32" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
+    <hyperlink ref="G47" r:id="rId32" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
     <hyperlink ref="G30" r:id="rId33" xr:uid="{F3CF529A-34B0-4598-A917-ED1DB54B579F}"/>
     <hyperlink ref="G31" r:id="rId34" xr:uid="{0EB7216B-90CC-44EF-AE38-BA8103F03069}"/>
     <hyperlink ref="G2" r:id="rId35" xr:uid="{F2297418-1B6E-441E-9B4B-9BD8780E2A20}"/>
@@ -2752,34 +3206,49 @@
     <hyperlink ref="G7" r:id="rId38" xr:uid="{41E1F84B-907D-460D-8A4A-0F5CB3F55250}"/>
     <hyperlink ref="G36" r:id="rId39" xr:uid="{76CCD6D0-3BF2-43D9-96A3-CCC202BC567E}"/>
     <hyperlink ref="G37" r:id="rId40" xr:uid="{D352F136-D315-480A-92AD-ADD098EED3D7}"/>
-    <hyperlink ref="G54" r:id="rId41" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
-    <hyperlink ref="G42" r:id="rId42" xr:uid="{6F3CAC21-1DCD-474A-9787-C22BBD0C4E38}"/>
+    <hyperlink ref="G55" r:id="rId41" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{6F3CAC21-1DCD-474A-9787-C22BBD0C4E38}"/>
     <hyperlink ref="G33" r:id="rId43" xr:uid="{6BE943BD-671F-489F-AB3B-CF5D11F8263D}"/>
-    <hyperlink ref="G43" r:id="rId44" xr:uid="{E85101F4-9577-4AC1-844D-7E7D420BE749}"/>
-    <hyperlink ref="G60" r:id="rId45" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
+    <hyperlink ref="G44" r:id="rId44" xr:uid="{E85101F4-9577-4AC1-844D-7E7D420BE749}"/>
+    <hyperlink ref="G61" r:id="rId45" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
     <hyperlink ref="G8" r:id="rId46" xr:uid="{7C24382D-49F8-4923-91B9-773AC826C128}"/>
-    <hyperlink ref="G58" r:id="rId47" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
-    <hyperlink ref="G44" r:id="rId48" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
+    <hyperlink ref="G59" r:id="rId47" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
+    <hyperlink ref="G45" r:id="rId48" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
     <hyperlink ref="G20" r:id="rId49" xr:uid="{4F1D6A2D-E11C-41B7-B026-66CF7367B005}"/>
-    <hyperlink ref="G55" r:id="rId50" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
-    <hyperlink ref="G51" r:id="rId51" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
-    <hyperlink ref="G41" r:id="rId52" xr:uid="{D42286FC-FBC5-4AC8-9F80-CE45DA9024A1}"/>
+    <hyperlink ref="G56" r:id="rId50" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
+    <hyperlink ref="G42" r:id="rId52" xr:uid="{D42286FC-FBC5-4AC8-9F80-CE45DA9024A1}"/>
     <hyperlink ref="G13" r:id="rId53" xr:uid="{8272CA27-9695-400E-9D5C-D0AC5D569886}"/>
-    <hyperlink ref="G52" r:id="rId54" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
-    <hyperlink ref="G47" r:id="rId55" xr:uid="{F8E55E90-ECC1-40B9-9000-937017682D85}"/>
+    <hyperlink ref="G53" r:id="rId54" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
+    <hyperlink ref="G48" r:id="rId55" xr:uid="{F8E55E90-ECC1-40B9-9000-937017682D85}"/>
     <hyperlink ref="G9" r:id="rId56" xr:uid="{9466C75D-F543-45DA-BDBC-6648EDAF49C0}"/>
     <hyperlink ref="G5" r:id="rId57" xr:uid="{FBC18050-1F08-4D56-8DC9-DD7440799304}"/>
-    <hyperlink ref="G38" r:id="rId58" xr:uid="{26590CC4-3194-41CD-94D7-145F561EE448}"/>
+    <hyperlink ref="G39" r:id="rId58" xr:uid="{26590CC4-3194-41CD-94D7-145F561EE448}"/>
     <hyperlink ref="G19" r:id="rId59" xr:uid="{F931E333-3E48-433D-80B2-EF3E1041B7B5}"/>
     <hyperlink ref="G3" r:id="rId60" xr:uid="{682CD892-7F23-486D-AED2-DE2FE4AA57E9}"/>
     <hyperlink ref="G28" r:id="rId61" xr:uid="{59D210E6-B29E-4655-9898-51358A919B08}"/>
-    <hyperlink ref="G63" r:id="rId62" xr:uid="{5D981B24-912B-49F1-809B-FFB59EF45900}"/>
+    <hyperlink ref="G38" r:id="rId62" xr:uid="{5D981B24-912B-49F1-809B-FFB59EF45900}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{2A3DB95C-2DF1-4AC1-A08F-4FE882110E00}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{A2E141A9-5A8C-4809-9746-1B1E10B9797D}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{D86E6B30-7F30-45BB-95F0-C8F33D808AC5}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{38F0103C-89C6-4E05-B672-0BAD88C8785A}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{C8006C1E-E03F-4473-BD95-44FA5F4ABD6F}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{EB939059-A58D-4FAC-98BD-8C9D159B4783}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{F5CBB154-AF7E-4299-AA8D-13E77256680D}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{6C74D981-F20E-498B-B006-F77F6EB458D1}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{3300EFD9-F57A-4896-A881-1B6A70FBF6FF}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{6B66A80D-4068-4735-B531-E19CD15DC935}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{1067FB20-3D21-467D-9B4F-26FAAED2C815}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{2FC1C90A-BA67-4796-BC9F-C97782B2866B}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{9D5C8148-1456-406F-9BBE-6B12E4B6B825}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{8A5F1FEC-7C8E-49FD-A348-F13E84A398A6}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{5E66F24B-C095-4373-91BC-5CBC590F61A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId63"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId78"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7511B102-3DA6-4897-9B25-149E103336E2}">
           <x14:formula1>
             <xm:f>Data!$D$2:$D$5</xm:f>
@@ -2792,21 +3261,9 @@
           </x14:formula1>
           <xm:sqref>F55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCEEC85A-1DC4-4547-B883-C2ED288C2077}">
-          <x14:formula1>
-            <xm:f>Data!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:A35 A37:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF5D4537-EE11-4B38-8312-139835555EE2}">
-          <x14:formula1>
-            <xm:f>Data!$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A36</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Data!$B$2:$B$5</xm:f>
+            <xm:f>Data!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -2815,6 +3272,12 @@
             <xm:f>Data!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
+          <x14:formula1>
+            <xm:f>Data!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2827,7 +3290,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2862,7 +3325,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2879,7 +3342,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -2900,7 +3363,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -2915,23 +3378,25 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6"/>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
       <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>164</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="30" t="s">
-        <v>118</v>
+      <c r="A7" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2944,20 +3409,20 @@
     <row r="9" spans="1:7">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3030,28 +3495,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3315,16 +3764,32 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3332,5 +3797,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihsts.sharepoint.com/sites/bc-cpc/Shared Documents/BCCPC Core/COVID-19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{933D74DB-A789-4409-8195-A287FE3D6CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ABA28-32CA-4C45-9DA9-D39F1BEF6B96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -478,7 +470,7 @@
     <t>https://www.youtube.com/watch?v=87NswgYLK-Y&amp;feature=youtu.be</t>
   </si>
   <si>
-    <t>Guide to Evidence Based COVID Resrources</t>
+    <t>Guide to Evidence Based COVID Resources</t>
   </si>
   <si>
     <t>McMaster University</t>
@@ -490,7 +482,7 @@
     <t>Help Older Adults in Your Life Prepare for Potential Illness or Quarantine in the Following Ways</t>
   </si>
   <si>
-    <t>Canadian Frality Network</t>
+    <t>Canadian Frailty Network</t>
   </si>
   <si>
     <t>https://www.cfn-nce.ca/wp-content/uploads/2020/03/COVID-poster-Mar15.20.pdf</t>
@@ -769,7 +761,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,23 +1364,23 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E72:E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="60">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
@@ -1756,7 +1748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="75">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1771,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1871,7 +1863,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1917,7 +1909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="75">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1932,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1955,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +1978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2001,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45">
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
@@ -2032,7 +2024,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1">
+    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2078,7 +2070,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="45">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
@@ -2101,7 +2093,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2116,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45">
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -2147,7 +2139,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -2170,7 +2162,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45">
+    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2185,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="36" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="75">
+    <row r="37" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>119</v>
       </c>
@@ -2239,7 +2231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2254,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2277,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>14</v>
       </c>
@@ -2308,7 +2300,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="41" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2354,7 +2346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +2369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2423,7 +2415,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -2446,7 +2438,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2461,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2484,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="49" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
@@ -2515,7 +2507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2530,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2553,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2584,7 +2576,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45">
+    <row r="53" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>119</v>
       </c>
@@ -2630,7 +2622,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2668,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>14</v>
       </c>
@@ -2699,7 +2691,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2714,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2768,7 +2760,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>14</v>
       </c>
@@ -2791,7 +2783,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30">
+    <row r="63" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>14</v>
       </c>
@@ -2837,7 +2829,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45">
+    <row r="64" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2860,7 +2852,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>7</v>
       </c>
@@ -2883,7 +2875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>14</v>
       </c>
@@ -2906,7 +2898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30">
+    <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2929,7 +2921,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="90">
+    <row r="68" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>7</v>
       </c>
@@ -2952,7 +2944,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="60">
+    <row r="69" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2975,7 +2967,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45">
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>94</v>
       </c>
@@ -2998,7 +2990,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -3021,7 +3013,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30">
+    <row r="72" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -3044,7 +3036,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45">
+    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -3067,7 +3059,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3082,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="45">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>218</v>
       </c>
@@ -3113,7 +3105,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45">
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30">
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>7</v>
       </c>
@@ -3159,7 +3151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30">
+    <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -3182,7 +3174,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3197,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="45">
+    <row r="80" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>7</v>
       </c>
@@ -3228,7 +3220,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30">
+    <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3243,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>7</v>
       </c>
@@ -3276,11 +3268,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G82">
+    <sortState ref="A2:G82">
       <sortCondition ref="B1:B55"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
+  <sortState ref="A2:G65">
     <sortCondition ref="D2:D65"/>
   </sortState>
   <dataConsolidate/>
@@ -3415,21 +3407,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3443,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3457,7 +3447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>218</v>
       </c>
@@ -3472,7 +3462,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3487,7 +3477,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>236</v>
       </c>
@@ -3502,7 +3492,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>94</v>
       </c>
@@ -3516,7 +3506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -3525,88 +3515,88 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>237</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
+  <sortState ref="D2:D6">
     <sortCondition ref="D2:D6"/>
   </sortState>
   <dataValidations count="2">
@@ -3621,28 +3611,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3906,22 +3880,64 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF685D0-A0B1-4D3F-B154-F077D0CCE4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FFE6DE-921E-47B2-A6BE-8B383866A96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="256">
   <si>
     <t>Audience</t>
   </si>
@@ -597,6 +597,12 @@
     <t>https://cmhavf.zoom.us/rec/share/_91FIIHfzTlIZLPXuBnZVJRwO73eT6a81XIW-_RexEpP3cmONhL9XilATEpArQ7D</t>
   </si>
   <si>
+    <t>Role of Grief and Bereavement in the Care of Health Care Providers and Their Families during COVID 19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U1kKHWWIpTI&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>Role of Palliative Care</t>
   </si>
   <si>
@@ -786,10 +792,13 @@
     <t>https://www.fnha.ca/about/news-and-events/news/your-care-your-choices</t>
   </si>
   <si>
-    <t>Role of Grief and Bereavement in the Care of Health Care Providers and Their Families during COVID 19</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U1kKHWWIpTI&amp;feature=youtu.be</t>
+    <t>Improving Communication &amp; Decision-making in the Context of Serious Illness</t>
+  </si>
+  <si>
+    <t>Canadian Foundation for Healthcare Improvement</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7KJ0prosikA</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1430,11 +1439,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89:XFD89"/>
+      <pane ySplit="1" topLeftCell="D80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2875,119 +2884,119 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A63" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="24" t="s">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A63" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="24" customFormat="1" ht="15">
+      <c r="A64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C64" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="24" t="s">
+      <c r="D64" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F64" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G64" s="25" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="45">
-      <c r="A64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="24" customFormat="1" ht="45">
       <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45">
+      <c r="A66" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30">
-      <c r="A66" s="20" t="s">
+      <c r="G66" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30">
+      <c r="A67" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B67" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66" s="24" t="s">
+      <c r="D67" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F67" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G67" s="23" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="45">
-      <c r="A67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45">
@@ -3001,10 +3010,10 @@
         <v>15</v>
       </c>
       <c r="D68" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>18</v>
@@ -3013,27 +3022,27 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="21" t="s">
+    <row r="69" spans="1:7" ht="45">
+      <c r="A69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30">
@@ -3047,15 +3056,15 @@
         <v>15</v>
       </c>
       <c r="D70" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="21" t="s">
-        <v>198</v>
-      </c>
       <c r="F70" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="23" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3063,65 +3072,65 @@
       <c r="A71" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="24" t="s">
+    </row>
+    <row r="72" spans="1:7" ht="30">
+      <c r="A72" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="20" t="s">
+      <c r="G72" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15">
+      <c r="A73" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B73" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C73" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="30">
-      <c r="A73" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="20" t="s">
+      <c r="E73" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="21" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="23" t="s">
@@ -3133,25 +3142,25 @@
         <v>7</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E74" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="45">
+    </row>
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" s="20" t="s">
         <v>7</v>
       </c>
@@ -3159,42 +3168,42 @@
         <v>37</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D75" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45">
-      <c r="A76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="76" spans="1:7" ht="30">
+      <c r="A76" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="45">
@@ -3208,10 +3217,10 @@
         <v>15</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" t="s">
         <v>219</v>
-      </c>
-      <c r="E77" t="s">
-        <v>217</v>
       </c>
       <c r="F77" t="s">
         <v>25</v>
@@ -3224,118 +3233,118 @@
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45">
+      <c r="A80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E79" t="s">
-        <v>225</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="D80" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" t="s">
+        <v>227</v>
+      </c>
+      <c r="F80" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="24" t="s">
+      <c r="G80" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15">
+      <c r="A81" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C81" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="E80" s="24" t="s">
+      <c r="D81" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F81" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G81" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60">
-      <c r="A81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="82" spans="1:7" ht="60">
+      <c r="A82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
         <v>37</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E81" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="D82" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" t="s">
+        <v>231</v>
+      </c>
+      <c r="F82" t="s">
         <v>139</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="45">
-      <c r="A82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" t="s">
-        <v>115</v>
-      </c>
-      <c r="F82" t="s">
-        <v>12</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="45">
+    <row r="83" spans="1:7" ht="30">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -3358,76 +3367,76 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="33" customFormat="1" ht="75">
-      <c r="A84" s="31" t="s">
+    <row r="84" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A84" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="75">
+      <c r="A85" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="33" t="s">
+      <c r="B85" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C85" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="F84" s="33" t="s">
+      <c r="D85" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15">
-      <c r="A85" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="24" t="s">
+      <c r="G85" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15">
+      <c r="A86" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E85" s="24" t="s">
+      <c r="D86" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E86" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F86" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G86" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
-      <c r="A86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3435,70 +3444,93 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="E87" t="s">
-        <v>83</v>
-      </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30">
-      <c r="A88" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="24" t="s">
+      <c r="A88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="24" customFormat="1" ht="30">
+      <c r="A89" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C89" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" s="24" t="s">
+      <c r="D89" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="24" t="s">
+      <c r="F89" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="33" customFormat="1" ht="45">
-      <c r="A89" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="33" t="s">
+      <c r="G89" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15">
+      <c r="A90" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F89" s="33" t="s">
+      <c r="D90" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="34" t="s">
-        <v>248</v>
+      <c r="G90" s="32" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G88">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
       <sortCondition ref="D1:D58"/>
     </sortState>
   </autoFilter>
@@ -3511,12 +3543,12 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G81" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G82" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G14" r:id="rId3" display="http://covid19.providencehealthcare.org/resources/tools-covid-conversations-patientsdms" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G75" r:id="rId4" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G76" r:id="rId4" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G86" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G87" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="G18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -3525,23 +3557,23 @@
     <hyperlink ref="G13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="G37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="G47" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G78" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G79" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="G57" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G72" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G73" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="G17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G64" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G68" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G68" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G69" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="G20" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="G11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G69" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G70" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="G24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="G19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G88" r:id="rId29" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
+    <hyperlink ref="G89" r:id="rId29" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
     <hyperlink ref="G30" r:id="rId30" xr:uid="{D1A003A7-83B0-4A25-AD01-2DC1467CFDB7}"/>
     <hyperlink ref="G5" r:id="rId31" xr:uid="{14811286-5305-41A0-BE96-FBB5D6F3A1F8}"/>
-    <hyperlink ref="G65" r:id="rId32" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
+    <hyperlink ref="G66" r:id="rId32" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
     <hyperlink ref="G43" r:id="rId33" xr:uid="{F3CF529A-34B0-4598-A917-ED1DB54B579F}"/>
     <hyperlink ref="G46" r:id="rId34" xr:uid="{0EB7216B-90CC-44EF-AE38-BA8103F03069}"/>
     <hyperlink ref="G3" r:id="rId35" xr:uid="{F2297418-1B6E-441E-9B4B-9BD8780E2A20}"/>
@@ -3550,21 +3582,21 @@
     <hyperlink ref="G8" r:id="rId38" xr:uid="{41E1F84B-907D-460D-8A4A-0F5CB3F55250}"/>
     <hyperlink ref="G51" r:id="rId39" xr:uid="{76CCD6D0-3BF2-43D9-96A3-CCC202BC567E}"/>
     <hyperlink ref="G54" r:id="rId40" xr:uid="{D352F136-D315-480A-92AD-ADD098EED3D7}"/>
-    <hyperlink ref="G73" r:id="rId41" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
+    <hyperlink ref="G74" r:id="rId41" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
     <hyperlink ref="G60" r:id="rId42" xr:uid="{6F3CAC21-1DCD-474A-9787-C22BBD0C4E38}"/>
     <hyperlink ref="G48" r:id="rId43" xr:uid="{6BE943BD-671F-489F-AB3B-CF5D11F8263D}"/>
     <hyperlink ref="G61" r:id="rId44" xr:uid="{E85101F4-9577-4AC1-844D-7E7D420BE749}"/>
-    <hyperlink ref="G85" r:id="rId45" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
+    <hyperlink ref="G86" r:id="rId45" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
     <hyperlink ref="G9" r:id="rId46" xr:uid="{7C24382D-49F8-4923-91B9-773AC826C128}"/>
-    <hyperlink ref="G80" r:id="rId47" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
-    <hyperlink ref="G63" r:id="rId48" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
+    <hyperlink ref="G81" r:id="rId47" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
+    <hyperlink ref="G64" r:id="rId48" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
     <hyperlink ref="G22" r:id="rId49" xr:uid="{4F1D6A2D-E11C-41B7-B026-66CF7367B005}"/>
-    <hyperlink ref="G74" r:id="rId50" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
-    <hyperlink ref="G70" r:id="rId51" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
+    <hyperlink ref="G75" r:id="rId50" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
+    <hyperlink ref="G71" r:id="rId51" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
     <hyperlink ref="G59" r:id="rId52" xr:uid="{D42286FC-FBC5-4AC8-9F80-CE45DA9024A1}"/>
     <hyperlink ref="G15" r:id="rId53" xr:uid="{8272CA27-9695-400E-9D5C-D0AC5D569886}"/>
-    <hyperlink ref="G71" r:id="rId54" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
-    <hyperlink ref="G66" r:id="rId55" xr:uid="{F8E55E90-ECC1-40B9-9000-937017682D85}"/>
+    <hyperlink ref="G72" r:id="rId54" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
+    <hyperlink ref="G67" r:id="rId55" xr:uid="{F8E55E90-ECC1-40B9-9000-937017682D85}"/>
     <hyperlink ref="G10" r:id="rId56" xr:uid="{9466C75D-F543-45DA-BDBC-6648EDAF49C0}"/>
     <hyperlink ref="G6" r:id="rId57" xr:uid="{FBC18050-1F08-4D56-8DC9-DD7440799304}"/>
     <hyperlink ref="G56" r:id="rId58" xr:uid="{26590CC4-3194-41CD-94D7-145F561EE448}"/>
@@ -3577,26 +3609,27 @@
     <hyperlink ref="G45" r:id="rId65" xr:uid="{D86E6B30-7F30-45BB-95F0-C8F33D808AC5}"/>
     <hyperlink ref="G52" r:id="rId66" xr:uid="{38F0103C-89C6-4E05-B672-0BAD88C8785A}"/>
     <hyperlink ref="G53" r:id="rId67" xr:uid="{C8006C1E-E03F-4473-BD95-44FA5F4ABD6F}"/>
-    <hyperlink ref="G84" r:id="rId68" xr:uid="{EB939059-A58D-4FAC-98BD-8C9D159B4783}"/>
-    <hyperlink ref="G87" r:id="rId69" xr:uid="{F5CBB154-AF7E-4299-AA8D-13E77256680D}"/>
+    <hyperlink ref="G85" r:id="rId68" xr:uid="{EB939059-A58D-4FAC-98BD-8C9D159B4783}"/>
+    <hyperlink ref="G88" r:id="rId69" xr:uid="{F5CBB154-AF7E-4299-AA8D-13E77256680D}"/>
     <hyperlink ref="G23" r:id="rId70" xr:uid="{6C74D981-F20E-498B-B006-F77F6EB458D1}"/>
     <hyperlink ref="G39" r:id="rId71" xr:uid="{3300EFD9-F57A-4896-A881-1B6A70FBF6FF}"/>
     <hyperlink ref="G12" r:id="rId72" xr:uid="{6B66A80D-4068-4735-B531-E19CD15DC935}"/>
     <hyperlink ref="G62" r:id="rId73" xr:uid="{1067FB20-3D21-467D-9B4F-26FAAED2C815}"/>
-    <hyperlink ref="G79" r:id="rId74" xr:uid="{2FC1C90A-BA67-4796-BC9F-C97782B2866B}"/>
+    <hyperlink ref="G80" r:id="rId74" xr:uid="{2FC1C90A-BA67-4796-BC9F-C97782B2866B}"/>
     <hyperlink ref="G25" r:id="rId75" xr:uid="{9D5C8148-1456-406F-9BBE-6B12E4B6B825}"/>
-    <hyperlink ref="G77" r:id="rId76" xr:uid="{8A5F1FEC-7C8E-49FD-A348-F13E84A398A6}"/>
-    <hyperlink ref="G76" r:id="rId77" xr:uid="{5E66F24B-C095-4373-91BC-5CBC590F61A2}"/>
+    <hyperlink ref="G78" r:id="rId76" xr:uid="{8A5F1FEC-7C8E-49FD-A348-F13E84A398A6}"/>
+    <hyperlink ref="G77" r:id="rId77" xr:uid="{5E66F24B-C095-4373-91BC-5CBC590F61A2}"/>
     <hyperlink ref="G36" r:id="rId78" xr:uid="{089489A4-5735-4877-9AAA-540E6466964D}"/>
-    <hyperlink ref="G82" r:id="rId79" xr:uid="{8FA27010-1335-4272-9354-68A01D1F2509}"/>
-    <hyperlink ref="G83" r:id="rId80" xr:uid="{A6B78755-A6C2-4750-A71C-22AFC6DE42DB}"/>
+    <hyperlink ref="G83" r:id="rId79" xr:uid="{8FA27010-1335-4272-9354-68A01D1F2509}"/>
+    <hyperlink ref="G84" r:id="rId80" xr:uid="{A6B78755-A6C2-4750-A71C-22AFC6DE42DB}"/>
     <hyperlink ref="G44" r:id="rId81" xr:uid="{F0B13ECB-75A6-4068-9716-7393005EB9A2}"/>
     <hyperlink ref="G28" r:id="rId82" xr:uid="{6286836D-D6F8-44DE-A10A-1BD7AC427F98}"/>
     <hyperlink ref="G29" r:id="rId83" xr:uid="{51C8DC2C-83E9-4026-B813-4164415BF2EE}"/>
-    <hyperlink ref="G89" r:id="rId84" xr:uid="{CFFB7C6B-94E5-4904-A92A-C910E45A883F}"/>
+    <hyperlink ref="G63" r:id="rId84" xr:uid="{CFFB7C6B-94E5-4904-A92A-C910E45A883F}"/>
+    <hyperlink ref="G90" r:id="rId85" xr:uid="{38C58FCB-EE20-4972-A36D-F2AC78B02737}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId85"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId86"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -3714,7 +3747,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3738,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -3747,7 +3780,7 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -3760,20 +3793,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">

--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FFE6DE-921E-47B2-A6BE-8B383866A96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9983411A-1248-438D-88E8-D73194437B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="253">
   <si>
     <t>Audience</t>
   </si>
@@ -597,12 +597,6 @@
     <t>https://cmhavf.zoom.us/rec/share/_91FIIHfzTlIZLPXuBnZVJRwO73eT6a81XIW-_RexEpP3cmONhL9XilATEpArQ7D</t>
   </si>
   <si>
-    <t>Role of Grief and Bereavement in the Care of Health Care Providers and Their Families during COVID 19</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U1kKHWWIpTI&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Role of Palliative Care</t>
   </si>
   <si>
@@ -792,13 +786,10 @@
     <t>https://www.fnha.ca/about/news-and-events/news/your-care-your-choices</t>
   </si>
   <si>
-    <t>Improving Communication &amp; Decision-making in the Context of Serious Illness</t>
-  </si>
-  <si>
-    <t>Canadian Foundation for Healthcare Improvement</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7KJ0prosikA</t>
+    <t>Palliative Care in the Home: Lessons from COVID</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aoNd_ACk-o4</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -880,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +902,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -980,7 +977,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,63 +1047,73 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1439,11 +1446,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2884,119 +2891,119 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="45">
-      <c r="A63" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="33" t="s">
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="15">
+      <c r="A63" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45">
+      <c r="A65" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="33" t="s">
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A64" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="24" t="s">
+      <c r="G65" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30">
+      <c r="A66" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="24" customFormat="1" ht="45">
-      <c r="A65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="16" t="s">
+      <c r="D66" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45">
+      <c r="A67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" s="16" t="s">
+      <c r="D67" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="45">
-      <c r="A66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30">
-      <c r="A67" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>33</v>
+      <c r="G67" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45">
@@ -3010,10 +3017,10 @@
         <v>15</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>18</v>
@@ -3022,27 +3029,27 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="45">
-      <c r="A69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="16" t="s">
+    <row r="69" spans="1:7" ht="30">
+      <c r="A69" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="E69" s="21" t="s">
         <v>198</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30">
@@ -3056,15 +3063,15 @@
         <v>15</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="25" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3072,65 +3079,65 @@
       <c r="A71" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>18</v>
+      <c r="E71" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="24" t="s">
+      <c r="D72" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F72" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="25" t="s">
+      <c r="E72" s="21" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15">
+      <c r="F72" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30">
       <c r="A73" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="E73" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="24" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="23" t="s">
@@ -3142,22 +3149,22 @@
         <v>7</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30">
@@ -3168,42 +3175,42 @@
         <v>37</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30">
-      <c r="A76" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="24" t="s">
+    <row r="76" spans="1:7" ht="45">
+      <c r="A76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="23" t="s">
+      <c r="E76" t="s">
         <v>217</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="45">
@@ -3217,10 +3224,10 @@
         <v>15</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
         <v>25</v>
@@ -3233,210 +3240,210 @@
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E78" t="s">
-        <v>219</v>
-      </c>
-      <c r="F78" t="s">
-        <v>25</v>
+      <c r="E78" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E79" s="16" t="s">
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="E79" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15">
+      <c r="A80" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="45">
-      <c r="A80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="G80" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60">
+      <c r="A81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" t="s">
+        <v>139</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30">
+      <c r="A82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E80" t="s">
-        <v>227</v>
-      </c>
-      <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15">
-      <c r="A81" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60">
-      <c r="A82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" t="s">
-        <v>22</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="F82" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30">
-      <c r="A83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="83" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A83" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="23" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="24" customFormat="1" ht="45">
-      <c r="A84" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="20" t="s">
+    <row r="84" spans="1:7" ht="75">
+      <c r="A84" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="E84" s="33" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="75">
-      <c r="A85" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="33" t="s">
+      <c r="F84" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15">
+      <c r="A85" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15">
+      <c r="A86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="34" t="s">
+      <c r="C86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15">
-      <c r="A86" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="4" t="s">
         <v>240</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15">
+      <c r="G86" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3444,98 +3451,77 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E87" s="24" t="s">
         <v>243</v>
       </c>
+      <c r="E87" t="s">
+        <v>83</v>
+      </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30">
-      <c r="A88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="88" spans="1:7" s="24" customFormat="1" ht="30">
+      <c r="A88" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="36" customFormat="1" ht="15">
+      <c r="A89" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" t="s">
-        <v>83</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="D89" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="24" customFormat="1" ht="30">
-      <c r="A89" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
-      <c r="A90" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="F90" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
+    <row r="90" spans="1:7" ht="15"/>
+    <row r="91" spans="1:7" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
       <sortCondition ref="D1:D58"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G68">
-    <sortCondition ref="D2:D68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G67">
+    <sortCondition ref="D2:D67"/>
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="D1:D1048576">
@@ -3543,12 +3529,12 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G82" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G81" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G14" r:id="rId3" display="http://covid19.providencehealthcare.org/resources/tools-covid-conversations-patientsdms" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G76" r:id="rId4" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G75" r:id="rId4" location=".XrwyY2hKg2x" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G87" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G86" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="G18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -3557,23 +3543,23 @@
     <hyperlink ref="G13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="G37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="G47" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G79" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G78" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="G57" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G73" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G72" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="G17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G68" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G69" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G64" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G68" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="G20" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="G11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G70" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G69" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="G24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="G19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G89" r:id="rId29" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
+    <hyperlink ref="G88" r:id="rId29" xr:uid="{88F04679-530A-477C-9DFF-A67EB68AF38F}"/>
     <hyperlink ref="G30" r:id="rId30" xr:uid="{D1A003A7-83B0-4A25-AD01-2DC1467CFDB7}"/>
     <hyperlink ref="G5" r:id="rId31" xr:uid="{14811286-5305-41A0-BE96-FBB5D6F3A1F8}"/>
-    <hyperlink ref="G66" r:id="rId32" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
+    <hyperlink ref="G65" r:id="rId32" xr:uid="{6D8662A6-5841-48CC-BA2D-3BC8771CEB0C}"/>
     <hyperlink ref="G43" r:id="rId33" xr:uid="{F3CF529A-34B0-4598-A917-ED1DB54B579F}"/>
     <hyperlink ref="G46" r:id="rId34" xr:uid="{0EB7216B-90CC-44EF-AE38-BA8103F03069}"/>
     <hyperlink ref="G3" r:id="rId35" xr:uid="{F2297418-1B6E-441E-9B4B-9BD8780E2A20}"/>
@@ -3582,21 +3568,21 @@
     <hyperlink ref="G8" r:id="rId38" xr:uid="{41E1F84B-907D-460D-8A4A-0F5CB3F55250}"/>
     <hyperlink ref="G51" r:id="rId39" xr:uid="{76CCD6D0-3BF2-43D9-96A3-CCC202BC567E}"/>
     <hyperlink ref="G54" r:id="rId40" xr:uid="{D352F136-D315-480A-92AD-ADD098EED3D7}"/>
-    <hyperlink ref="G74" r:id="rId41" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
+    <hyperlink ref="G73" r:id="rId41" xr:uid="{124C88D6-9E0A-40E9-8D6A-14A467AE3E22}"/>
     <hyperlink ref="G60" r:id="rId42" xr:uid="{6F3CAC21-1DCD-474A-9787-C22BBD0C4E38}"/>
     <hyperlink ref="G48" r:id="rId43" xr:uid="{6BE943BD-671F-489F-AB3B-CF5D11F8263D}"/>
     <hyperlink ref="G61" r:id="rId44" xr:uid="{E85101F4-9577-4AC1-844D-7E7D420BE749}"/>
-    <hyperlink ref="G86" r:id="rId45" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
+    <hyperlink ref="G85" r:id="rId45" xr:uid="{8BA9CBBE-204B-4B73-8DFC-AB567E59D12D}"/>
     <hyperlink ref="G9" r:id="rId46" xr:uid="{7C24382D-49F8-4923-91B9-773AC826C128}"/>
-    <hyperlink ref="G81" r:id="rId47" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
-    <hyperlink ref="G64" r:id="rId48" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
+    <hyperlink ref="G80" r:id="rId47" xr:uid="{50859075-8410-415E-85F0-9F5C01B1BD02}"/>
+    <hyperlink ref="G63" r:id="rId48" xr:uid="{589F1475-1A72-435B-ADD5-CA6EBCBB2C52}"/>
     <hyperlink ref="G22" r:id="rId49" xr:uid="{4F1D6A2D-E11C-41B7-B026-66CF7367B005}"/>
-    <hyperlink ref="G75" r:id="rId50" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
-    <hyperlink ref="G71" r:id="rId51" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
+    <hyperlink ref="G74" r:id="rId50" xr:uid="{48F7A3AA-8447-4FBC-BC08-FF81A708AE8F}"/>
+    <hyperlink ref="G70" r:id="rId51" xr:uid="{C4C3460D-6C25-49E2-92B1-9A798C65FDE3}"/>
     <hyperlink ref="G59" r:id="rId52" xr:uid="{D42286FC-FBC5-4AC8-9F80-CE45DA9024A1}"/>
     <hyperlink ref="G15" r:id="rId53" xr:uid="{8272CA27-9695-400E-9D5C-D0AC5D569886}"/>
-    <hyperlink ref="G72" r:id="rId54" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
-    <hyperlink ref="G67" r:id="rId55" xr:uid="{F8E55E90-ECC1-40B9-9000-937017682D85}"/>
+    <hyperlink ref="G71" r:id="rId54" xr:uid="{16CFB32C-BD22-4CDA-9ECC-6A6FFA9E75CE}"/>
+    <hyperlink ref="G66" r:id="rId55" xr:uid="{F8E55E90-ECC1-40B9-9000-937017682D85}"/>
     <hyperlink ref="G10" r:id="rId56" xr:uid="{9466C75D-F543-45DA-BDBC-6648EDAF49C0}"/>
     <hyperlink ref="G6" r:id="rId57" xr:uid="{FBC18050-1F08-4D56-8DC9-DD7440799304}"/>
     <hyperlink ref="G56" r:id="rId58" xr:uid="{26590CC4-3194-41CD-94D7-145F561EE448}"/>
@@ -3609,27 +3595,26 @@
     <hyperlink ref="G45" r:id="rId65" xr:uid="{D86E6B30-7F30-45BB-95F0-C8F33D808AC5}"/>
     <hyperlink ref="G52" r:id="rId66" xr:uid="{38F0103C-89C6-4E05-B672-0BAD88C8785A}"/>
     <hyperlink ref="G53" r:id="rId67" xr:uid="{C8006C1E-E03F-4473-BD95-44FA5F4ABD6F}"/>
-    <hyperlink ref="G85" r:id="rId68" xr:uid="{EB939059-A58D-4FAC-98BD-8C9D159B4783}"/>
-    <hyperlink ref="G88" r:id="rId69" xr:uid="{F5CBB154-AF7E-4299-AA8D-13E77256680D}"/>
+    <hyperlink ref="G84" r:id="rId68" xr:uid="{EB939059-A58D-4FAC-98BD-8C9D159B4783}"/>
+    <hyperlink ref="G87" r:id="rId69" xr:uid="{F5CBB154-AF7E-4299-AA8D-13E77256680D}"/>
     <hyperlink ref="G23" r:id="rId70" xr:uid="{6C74D981-F20E-498B-B006-F77F6EB458D1}"/>
     <hyperlink ref="G39" r:id="rId71" xr:uid="{3300EFD9-F57A-4896-A881-1B6A70FBF6FF}"/>
     <hyperlink ref="G12" r:id="rId72" xr:uid="{6B66A80D-4068-4735-B531-E19CD15DC935}"/>
     <hyperlink ref="G62" r:id="rId73" xr:uid="{1067FB20-3D21-467D-9B4F-26FAAED2C815}"/>
-    <hyperlink ref="G80" r:id="rId74" xr:uid="{2FC1C90A-BA67-4796-BC9F-C97782B2866B}"/>
+    <hyperlink ref="G79" r:id="rId74" xr:uid="{2FC1C90A-BA67-4796-BC9F-C97782B2866B}"/>
     <hyperlink ref="G25" r:id="rId75" xr:uid="{9D5C8148-1456-406F-9BBE-6B12E4B6B825}"/>
-    <hyperlink ref="G78" r:id="rId76" xr:uid="{8A5F1FEC-7C8E-49FD-A348-F13E84A398A6}"/>
-    <hyperlink ref="G77" r:id="rId77" xr:uid="{5E66F24B-C095-4373-91BC-5CBC590F61A2}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{8A5F1FEC-7C8E-49FD-A348-F13E84A398A6}"/>
+    <hyperlink ref="G76" r:id="rId77" xr:uid="{5E66F24B-C095-4373-91BC-5CBC590F61A2}"/>
     <hyperlink ref="G36" r:id="rId78" xr:uid="{089489A4-5735-4877-9AAA-540E6466964D}"/>
-    <hyperlink ref="G83" r:id="rId79" xr:uid="{8FA27010-1335-4272-9354-68A01D1F2509}"/>
-    <hyperlink ref="G84" r:id="rId80" xr:uid="{A6B78755-A6C2-4750-A71C-22AFC6DE42DB}"/>
+    <hyperlink ref="G82" r:id="rId79" xr:uid="{8FA27010-1335-4272-9354-68A01D1F2509}"/>
+    <hyperlink ref="G83" r:id="rId80" xr:uid="{A6B78755-A6C2-4750-A71C-22AFC6DE42DB}"/>
     <hyperlink ref="G44" r:id="rId81" xr:uid="{F0B13ECB-75A6-4068-9716-7393005EB9A2}"/>
     <hyperlink ref="G28" r:id="rId82" xr:uid="{6286836D-D6F8-44DE-A10A-1BD7AC427F98}"/>
     <hyperlink ref="G29" r:id="rId83" xr:uid="{51C8DC2C-83E9-4026-B813-4164415BF2EE}"/>
-    <hyperlink ref="G63" r:id="rId84" xr:uid="{CFFB7C6B-94E5-4904-A92A-C910E45A883F}"/>
-    <hyperlink ref="G90" r:id="rId85" xr:uid="{38C58FCB-EE20-4972-A36D-F2AC78B02737}"/>
+    <hyperlink ref="G89" r:id="rId84" xr:uid="{A44D35E5-C8A5-44FC-9C56-47C018DDBBF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId86"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId85"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -3747,7 +3732,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3771,7 +3756,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -3780,7 +3765,7 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -3793,20 +3778,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -3879,6 +3864,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4138,48 +4157,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9983411A-1248-438D-88E8-D73194437B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
   <si>
     <t>Audience</t>
   </si>
@@ -299,7 +299,7 @@
     <t>https://www.youtube.com/watch?v=M4cs6iFr0do</t>
   </si>
   <si>
-    <t>End-of-Life Care in the ED for Patients Imminently Dying of a Transmissible Acute Respiratory Infection (Such as COVID-19)</t>
+    <t>End-of-life Care in the ED for Patients Imminently Dying of a Transmissible Acute Respiratory Infection (Such as COVID-19)</t>
   </si>
   <si>
     <t>Pallium Canada</t>
@@ -790,6 +790,46 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=aoNd_ACk-o4</t>
+  </si>
+  <si>
+    <t>Palliative Approach to Care in Long-term Care during COVID-19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TVD69RN2o6w&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Leadership in the Age of the COVID-19 Crisis</t>
+  </si>
+  <si>
+    <t>https://www.capc.org/events/recorded-webinars/leadership-age-covid-19-crisis/</t>
+  </si>
+  <si>
+    <t>Advance Care Planning and Serious Illness Conversations – Lessons for Improvement</t>
+  </si>
+  <si>
+    <t>Canadian Foundation for Healthcare Improvement</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XgvBWnZzkNc</t>
+  </si>
+  <si>
+    <t>Essential Conversations: Utilizing Advance Care Planning &amp; Serious Illness Tools During COVID-19 and Throughout the Patient Journey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6D89fNdQz7E&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Acknowledging and Responding to the Psychological Impact of COVID-19 on Health Care Providers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R1Ccg1X7dUQ&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life and Work in the Time of COVID-19: The Conversation Continues
+</t>
+  </si>
+  <si>
+    <t>https://www.virtualhospice.ca/en_US/Main+Site+Navigation/Home/Support/Support/The+Video+Gallery/For+Professionals/Life+and+work+in+the+time+of+COVID_19+_+The+Conversation+Continues_+June+2020.aspx#video_content_details</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -871,7 +911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,20 +936,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF548235"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -917,6 +945,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -977,7 +1014,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1010,8 +1047,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1031,89 +1066,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1446,11 +1466,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1535,25 +1555,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1581,29 +1601,29 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1650,48 +1670,48 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1764,7 +1784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1787,30 +1807,30 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="60">
-      <c r="A15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
+      <c r="A15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -1856,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1925,30 +1945,30 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="30">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2073,7 @@
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="22" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
@@ -2063,7 +2083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2086,49 +2106,49 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75">
-      <c r="A28" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
+      <c r="A28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="34" t="s">
+      <c r="F28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
+      <c r="A29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="34" t="s">
+      <c r="F29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2155,95 +2175,95 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="90">
-      <c r="A31" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
+      <c r="A31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="34" t="s">
+      <c r="F31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90">
-      <c r="A32" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
+      <c r="A32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="34" t="s">
+      <c r="F32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90">
-      <c r="A33" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="33" t="s">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
+      <c r="A33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="34" t="s">
+      <c r="F33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45">
-      <c r="A34" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
+      <c r="A34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="34" t="s">
+      <c r="F34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2317,25 +2337,25 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="105">
-      <c r="A38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="21" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2362,72 +2382,72 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="24" t="s">
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="23" t="s">
+      <c r="F40" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="23" t="s">
+      <c r="F41" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="23" t="s">
+      <c r="F42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2454,30 +2474,30 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45">
-      <c r="A44" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="30" t="s">
+    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
+      <c r="A44" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2547,25 +2567,25 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="24" t="s">
+      <c r="A48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="23" t="s">
+      <c r="F48" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="21" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2616,25 +2636,25 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="21" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2661,7 +2681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2708,48 +2728,48 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="23" t="s">
+      <c r="F56" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2776,7 +2796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2799,76 +2819,76 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="60">
-      <c r="A59" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="24" t="s">
+    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
+      <c r="A59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="30">
-      <c r="A60" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="24" t="s">
+    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A60" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="23" t="s">
+      <c r="F60" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A61" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="24" t="s">
+    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A61" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="25" t="s">
+      <c r="F61" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2891,30 +2911,30 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="15">
-      <c r="A63" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="24" t="s">
+    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A63" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2961,25 +2981,25 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="30">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="23" t="s">
+      <c r="F66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3030,163 +3050,163 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="23" t="s">
+      <c r="F69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30">
-      <c r="A70" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30">
-      <c r="A71" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="24" t="s">
+      <c r="A71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="23" t="s">
+      <c r="F72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="21" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
-      <c r="A73" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="23" t="s">
+      <c r="F73" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="21" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30">
-      <c r="A74" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="24" t="s">
+      <c r="A74" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="G74" s="21" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30">
-      <c r="A75" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="24" t="s">
+      <c r="A75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F75" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="21" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3283,25 +3303,25 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="24" t="s">
+      <c r="A80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3351,72 +3371,72 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="24" customFormat="1" ht="45">
-      <c r="A83" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="24" t="s">
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
+      <c r="A83" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="23" t="s">
+      <c r="G83" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="75">
-      <c r="A84" s="31" t="s">
+    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
+      <c r="A84" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="E84" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F84" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="34" t="s">
+      <c r="G84" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15">
-      <c r="A85" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="24" t="s">
+      <c r="A85" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3433,7 +3453,7 @@
       <c r="D86" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="22" t="s">
         <v>241</v>
       </c>
       <c r="F86" t="s">
@@ -3466,54 +3486,216 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="24" customFormat="1" ht="30">
-      <c r="A88" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="24" t="s">
+    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="E88" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="24" t="s">
+      <c r="F88" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="23" t="s">
+      <c r="G88" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="36" customFormat="1" ht="15">
-      <c r="A89" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="36" t="s">
+    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A89" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="D89" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15"/>
-    <row r="91" spans="1:7" ht="15"/>
+    <row r="90" spans="1:7" ht="30">
+      <c r="A90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30">
+      <c r="A91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E91" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30">
+      <c r="A92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30">
+      <c r="A93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60">
+      <c r="A94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="45">
+      <c r="A95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="75">
+      <c r="A96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E96" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" ht="15"/>
+    <row r="98" ht="15"/>
+    <row r="99" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -3612,9 +3794,16 @@
     <hyperlink ref="G28" r:id="rId82" xr:uid="{6286836D-D6F8-44DE-A10A-1BD7AC427F98}"/>
     <hyperlink ref="G29" r:id="rId83" xr:uid="{51C8DC2C-83E9-4026-B813-4164415BF2EE}"/>
     <hyperlink ref="G89" r:id="rId84" xr:uid="{A44D35E5-C8A5-44FC-9C56-47C018DDBBF2}"/>
+    <hyperlink ref="G90" r:id="rId85" xr:uid="{06487014-B9DE-4453-B637-06D061036A47}"/>
+    <hyperlink ref="G91" r:id="rId86" xr:uid="{65A9528E-8E81-40AD-B49B-596312148DF5}"/>
+    <hyperlink ref="G92" r:id="rId87" xr:uid="{DA59CCD9-FE23-445C-9339-11EF2E4E1C94}"/>
+    <hyperlink ref="G93" r:id="rId88" xr:uid="{2F268E25-6EDE-4BF8-B207-7FD025F433FD}"/>
+    <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
+    <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
+    <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId85"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -3659,7 +3848,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -3673,16 +3862,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3732,7 +3921,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3755,12 +3944,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B7"/>
@@ -3778,20 +3967,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -3864,40 +4053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4157,8 +4312,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4166,5 +4355,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DB93DF-283E-49E1-93E4-6DB4AAD37C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
   <si>
     <t>Audience</t>
   </si>
@@ -830,6 +830,99 @@
   </si>
   <si>
     <t>https://www.virtualhospice.ca/en_US/Main+Site+Navigation/Home/Support/Support/The+Video+Gallery/For+Professionals/Life+and+work+in+the+time+of+COVID_19+_+The+Conversation+Continues_+June+2020.aspx#video_content_details</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Social Connection</t>
+  </si>
+  <si>
+    <t>BC Centre for Palliative Care</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>https://self-compassion.org/category/exercises/</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>HCA_x000D_ COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
+  </si>
+  <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>First Nations Health_x000D_ Authority</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adlay Stump </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream... Corona Version</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1014,7 +1107,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1025,12 +1118,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1044,9 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1054,11 +1140,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1072,68 +1154,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1466,11 +1552,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
+      <pane ySplit="1" topLeftCell="D100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1481,7 +1567,7 @@
     <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="8" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1504,11 +1590,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1613,7 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1535,45 +1621,45 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1596,41 +1682,41 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1639,14 +1725,14 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1662,56 +1748,56 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1719,26 +1805,26 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1757,11 +1843,11 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1780,11 +1866,11 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1803,34 +1889,34 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
-      <c r="A15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1843,40 +1929,40 @@
       <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1981,7 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1903,72 +1989,72 @@
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1987,11 +2073,11 @@
       <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2010,34 +2096,34 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2142,7 @@
       <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="27" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2073,17 +2159,17 @@
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2102,57 +2188,57 @@
       <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
-      <c r="A28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="22" t="s">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="F29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75">
+    <row r="30" spans="1:7" ht="45">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2171,103 +2257,103 @@
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
-      <c r="A31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
-      <c r="A32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="21" t="s">
+      <c r="F32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
-      <c r="A33" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
-      <c r="A34" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="22" t="s">
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2372,7 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="27" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2309,18 +2395,18 @@
       <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2332,34 +2418,34 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105">
-      <c r="A38" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="22" t="s">
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2378,76 +2464,76 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A40" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="21" t="s">
+      <c r="F40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="21" t="s">
+      <c r="F42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="29" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2470,34 +2556,34 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
-      <c r="A44" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="27" t="s">
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A44" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2602,7 @@
       <c r="F45" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="27" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2539,7 +2625,7 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="27" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2559,37 +2645,37 @@
       <c r="E47" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="27" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="21" t="s">
+      <c r="F48" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2608,18 +2694,18 @@
       <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2628,37 +2714,37 @@
       <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2677,11 +2763,11 @@
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2700,11 +2786,11 @@
       <c r="F53" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2723,53 +2809,53 @@
       <c r="F54" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="22" t="s">
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="21" t="s">
+      <c r="F56" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="29" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2777,26 +2863,26 @@
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2815,80 +2901,80 @@
       <c r="F58" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
-      <c r="A59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A60" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="22" t="s">
+    <row r="60" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="21" t="s">
+      <c r="F60" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A61" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="22" t="s">
+    <row r="61" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="23" t="s">
+      <c r="F61" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="62" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2907,53 +2993,53 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A63" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="22" t="s">
+    <row r="63" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A63" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="27" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2976,53 +3062,53 @@
       <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="27" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="21" t="s">
+      <c r="F66" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45">
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="27" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3030,183 +3116,183 @@
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="19" t="s">
+      <c r="A69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="21" t="s">
+      <c r="F69" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30">
-      <c r="A70" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="19" t="s">
+      <c r="A70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="29" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30">
-      <c r="A71" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="22" t="s">
+      <c r="A71" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="29" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="21" t="s">
+      <c r="F72" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="29" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
-      <c r="A73" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="22" t="s">
+      <c r="A73" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="21" t="s">
+      <c r="F73" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30">
-      <c r="A74" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="22" t="s">
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="29" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30">
-      <c r="A75" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="22" t="s">
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="29" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3229,7 +3315,7 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="27" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3252,7 +3338,7 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="27" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3260,22 +3346,22 @@
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="27" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3298,30 +3384,30 @@
       <c r="F79" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="27" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="22" t="s">
+      <c r="A80" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3344,7 +3430,7 @@
       <c r="F81" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="27" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3367,76 +3453,76 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="27" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
-      <c r="A83" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="22" t="s">
+    <row r="83" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A84" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="29" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15">
-      <c r="A85" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="22" t="s">
+      <c r="A85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3453,13 +3539,13 @@
       <c r="D86" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="18" t="s">
         <v>241</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="27" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3482,53 +3568,53 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A88" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="22" t="s">
+    <row r="88" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A88" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="21" t="s">
+      <c r="G88" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A89" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="22" t="s">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="21" t="s">
+      <c r="F89" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="29" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3551,7 +3637,7 @@
       <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="27" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3574,7 +3660,7 @@
       <c r="F91" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="27" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3597,7 +3683,7 @@
       <c r="F92" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="27" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3620,7 +3706,7 @@
       <c r="F93" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="27" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3643,7 +3729,7 @@
       <c r="F94" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="27" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3666,11 +3752,11 @@
       <c r="F95" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="75">
+    <row r="96" spans="1:7" ht="45">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3689,13 +3775,286 @@
       <c r="F96" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="27" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" ht="15"/>
-    <row r="98" ht="15"/>
-    <row r="99" ht="15"/>
+    <row r="97" spans="1:7" ht="30">
+      <c r="A97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30">
+      <c r="A98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30">
+      <c r="A99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E99" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30">
+      <c r="A100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E100" t="s">
+        <v>270</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30">
+      <c r="A101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" t="s">
+        <v>273</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30">
+      <c r="A102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30">
+      <c r="A103" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30">
+      <c r="A104" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30">
+      <c r="A105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" t="s">
+        <v>282</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E106" t="s">
+        <v>285</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30">
+      <c r="A107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E107" t="s">
+        <v>288</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="A108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E108" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -3801,9 +4160,21 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
+    <hyperlink ref="G97" r:id="rId92" xr:uid="{D2028EB2-A31A-4989-A284-E01C3712125B}"/>
+    <hyperlink ref="G99" r:id="rId93" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{82A501D8-B54B-4AF3-9CAD-F7393E598666}"/>
+    <hyperlink ref="G98" r:id="rId94" xr:uid="{E9F8FC38-D02B-4775-BA08-E6990A18039F}"/>
+    <hyperlink ref="G100" r:id="rId95" xr:uid="{A83AF6C8-C38B-4798-89D8-A7BC2EACCFE4}"/>
+    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{C90C0CA2-ACF5-44B6-948A-49569954CB17}"/>
+    <hyperlink ref="G102" r:id="rId97" xr:uid="{5B94CA47-2A8A-47C7-9C4B-74C54AFEFF04}"/>
+    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{511ED429-7238-4CC4-9E9F-D047F6257D04}"/>
+    <hyperlink ref="G104" r:id="rId99" xr:uid="{A71C45B7-D48A-4CD0-92DF-3424FA73489A}"/>
+    <hyperlink ref="G105" r:id="rId100" xr:uid="{CE487645-A122-4866-8191-1091A831602D}"/>
+    <hyperlink ref="G106" r:id="rId101" xr:uid="{0F7E6ECE-7896-4818-9454-68DD8484233E}"/>
+    <hyperlink ref="G107" r:id="rId102" xr:uid="{CABE5062-D581-4F27-B525-022708794AD1}"/>
+    <hyperlink ref="G108" r:id="rId103" xr:uid="{7B9098D4-ECE4-48A1-AA82-C5B6923781C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -3854,7 +4225,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
@@ -3862,16 +4233,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3879,7 +4250,7 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
@@ -3893,7 +4264,7 @@
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
@@ -3902,28 +4273,28 @@
       <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
@@ -3944,12 +4315,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="20" t="s">
         <v>155</v>
       </c>
       <c r="B7"/>
@@ -3959,28 +4330,28 @@
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="B8"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="16"/>
+        <v>294</v>
+      </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -3988,54 +4359,54 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="B13"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15">
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="B15"/>
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="B16"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="2:4" ht="15">
       <c r="B17"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="2:4" ht="15">
-      <c r="B18" s="16"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:4" ht="15">
       <c r="B19"/>
     </row>
     <row r="26" spans="2:4" ht="15">
-      <c r="D26" s="16"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:4" ht="15">
-      <c r="D27" s="16"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="2:4" ht="15">
-      <c r="D28" s="16"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="32" spans="2:4" ht="15">
-      <c r="D32" s="16"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="38" spans="4:4" ht="15">
-      <c r="D38" s="16"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="44" spans="4:4" ht="15">
-      <c r="D44" s="16"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="4:4" ht="15">
-      <c r="D45" s="16"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="4:4" ht="15">
-      <c r="D46" s="16"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="4:4" ht="15">
-      <c r="D47" s="16"/>
+      <c r="D47" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
@@ -4053,6 +4424,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4312,48 +4717,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DB93DF-283E-49E1-93E4-6DB4AAD37C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F689C-5D91-EA4B-9925-D0C00639B5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -941,7 +941,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,7 +1107,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1156,12 +1156,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -1555,23 +1560,23 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,11 +1595,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1613,11 +1618,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1636,11 +1641,11 @@
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -1659,11 +1664,11 @@
       <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1682,11 +1687,11 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1705,11 +1710,11 @@
       <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1728,11 +1733,11 @@
       <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1751,11 +1756,11 @@
       <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1774,11 +1779,11 @@
       <c r="F9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -1797,11 +1802,11 @@
       <c r="F10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1820,11 +1825,11 @@
       <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1843,11 +1848,11 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="15">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1866,11 +1871,11 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1889,11 +1894,11 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1912,11 +1917,11 @@
       <c r="F15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1935,11 +1940,11 @@
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -1958,11 +1963,11 @@
       <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1981,11 +1986,11 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2004,11 +2009,11 @@
       <c r="F19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2027,11 +2032,11 @@
       <c r="F20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
@@ -2050,11 +2055,11 @@
       <c r="F21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2073,11 +2078,11 @@
       <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2096,11 +2101,11 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2119,11 +2124,11 @@
       <c r="F24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2142,11 +2147,11 @@
       <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2165,11 +2170,11 @@
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2188,11 +2193,11 @@
       <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>7</v>
       </c>
@@ -2211,11 +2216,11 @@
       <c r="F28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>7</v>
       </c>
@@ -2234,11 +2239,11 @@
       <c r="F29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45">
+    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2257,11 +2262,11 @@
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
@@ -2280,11 +2285,11 @@
       <c r="F31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>7</v>
       </c>
@@ -2303,11 +2308,11 @@
       <c r="F32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
@@ -2326,11 +2331,11 @@
       <c r="F33" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
@@ -2349,11 +2354,11 @@
       <c r="F34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2372,11 +2377,11 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2395,11 +2400,11 @@
       <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2418,11 +2423,11 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>7</v>
       </c>
@@ -2441,11 +2446,11 @@
       <c r="F38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2464,11 +2469,11 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>7</v>
       </c>
@@ -2487,11 +2492,11 @@
       <c r="F40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>7</v>
       </c>
@@ -2510,11 +2515,11 @@
       <c r="F41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>7</v>
       </c>
@@ -2533,11 +2538,11 @@
       <c r="F42" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2556,11 +2561,11 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>7</v>
       </c>
@@ -2579,11 +2584,11 @@
       <c r="F44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2602,11 +2607,11 @@
       <c r="F45" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2625,11 +2630,11 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2648,11 +2653,11 @@
       <c r="F47" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
@@ -2671,11 +2676,11 @@
       <c r="F48" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2694,11 +2699,11 @@
       <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
@@ -2717,11 +2722,11 @@
       <c r="F50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>155</v>
       </c>
@@ -2740,11 +2745,11 @@
       <c r="F51" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2763,11 +2768,11 @@
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2786,11 +2791,11 @@
       <c r="F53" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2809,11 +2814,11 @@
       <c r="F54" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>7</v>
       </c>
@@ -2832,11 +2837,11 @@
       <c r="F55" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="28" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>20</v>
       </c>
@@ -2855,11 +2860,11 @@
       <c r="F56" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2878,11 +2883,11 @@
       <c r="F57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G57" s="26" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="58" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2901,11 +2906,11 @@
       <c r="F58" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="59" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>7</v>
       </c>
@@ -2924,11 +2929,11 @@
       <c r="F59" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="60" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>7</v>
       </c>
@@ -2947,11 +2952,11 @@
       <c r="F60" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="61" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>7</v>
       </c>
@@ -2970,11 +2975,11 @@
       <c r="F61" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="62" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2993,11 +2998,11 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="26" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="63" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>7</v>
       </c>
@@ -3016,11 +3021,11 @@
       <c r="F63" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -3039,11 +3044,11 @@
       <c r="F64" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45">
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -3062,11 +3067,11 @@
       <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G65" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>20</v>
       </c>
@@ -3085,11 +3090,11 @@
       <c r="F66" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30">
+    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -3108,11 +3113,11 @@
       <c r="F67" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45">
+    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -3131,11 +3136,11 @@
       <c r="F68" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G68" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>7</v>
       </c>
@@ -3154,11 +3159,11 @@
       <c r="F69" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30">
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>7</v>
       </c>
@@ -3177,11 +3182,11 @@
       <c r="F70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>7</v>
       </c>
@@ -3200,11 +3205,11 @@
       <c r="F71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G71" s="28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>20</v>
       </c>
@@ -3223,11 +3228,11 @@
       <c r="F72" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30">
+    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>7</v>
       </c>
@@ -3246,11 +3251,11 @@
       <c r="F73" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G73" s="29" t="s">
+      <c r="G73" s="28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>7</v>
       </c>
@@ -3269,11 +3274,11 @@
       <c r="F74" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="28" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>7</v>
       </c>
@@ -3292,11 +3297,11 @@
       <c r="F75" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45">
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3315,11 +3320,11 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="27" t="s">
+      <c r="G76" s="26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3338,11 +3343,11 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="27" t="s">
+      <c r="G77" s="26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45">
+    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3361,11 +3366,11 @@
       <c r="F78" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="27" t="s">
+      <c r="G78" s="26" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3384,11 +3389,11 @@
       <c r="F79" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G79" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>7</v>
       </c>
@@ -3407,11 +3412,11 @@
       <c r="F80" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60">
+    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3430,11 +3435,11 @@
       <c r="F81" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="27" t="s">
+      <c r="G81" s="26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30">
+    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3453,11 +3458,11 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="83" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>7</v>
       </c>
@@ -3476,11 +3481,11 @@
       <c r="F83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="28" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="84" spans="1:7" s="18" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>155</v>
       </c>
@@ -3499,11 +3504,11 @@
       <c r="F84" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>7</v>
       </c>
@@ -3522,11 +3527,11 @@
       <c r="F85" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3545,11 +3550,11 @@
       <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G86" s="26" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3568,11 +3573,11 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G87" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="88" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>7</v>
       </c>
@@ -3591,11 +3596,11 @@
       <c r="F88" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>7</v>
       </c>
@@ -3614,11 +3619,11 @@
       <c r="F89" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="28" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30">
+    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3637,11 +3642,11 @@
       <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G90" s="26" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30">
+    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3660,11 +3665,11 @@
       <c r="F91" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G91" s="26" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3683,11 +3688,11 @@
       <c r="F92" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G92" s="26" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3706,11 +3711,11 @@
       <c r="F93" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G93" s="26" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="60">
+    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3729,11 +3734,11 @@
       <c r="F94" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G94" s="26" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45">
+    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3752,11 +3757,11 @@
       <c r="F95" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="27" t="s">
+      <c r="G95" s="26" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="45">
+    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3775,11 +3780,11 @@
       <c r="F96" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="G96" s="26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30">
+    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>65</v>
       </c>
@@ -3798,11 +3803,11 @@
       <c r="F97" t="s">
         <v>25</v>
       </c>
-      <c r="G97" s="27" t="s">
+      <c r="G97" s="26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30">
+    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>65</v>
       </c>
@@ -3821,11 +3826,11 @@
       <c r="F98" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G98" s="26" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30">
+    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>65</v>
       </c>
@@ -3844,11 +3849,11 @@
       <c r="F99" t="s">
         <v>25</v>
       </c>
-      <c r="G99" s="27" t="s">
+      <c r="G99" s="26" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30">
+    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>65</v>
       </c>
@@ -3867,11 +3872,11 @@
       <c r="F100" t="s">
         <v>25</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G100" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30">
+    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>65</v>
       </c>
@@ -3890,11 +3895,11 @@
       <c r="F101" t="s">
         <v>25</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G101" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30">
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>65</v>
       </c>
@@ -3913,11 +3918,11 @@
       <c r="F102" t="s">
         <v>25</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G102" s="26" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30">
+    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
@@ -3936,11 +3941,11 @@
       <c r="F103" t="s">
         <v>25</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="G103" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30">
+    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>65</v>
       </c>
@@ -3959,11 +3964,11 @@
       <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="G104" s="26" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30">
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>65</v>
       </c>
@@ -3982,11 +3987,11 @@
       <c r="F105" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="27" t="s">
+      <c r="G105" s="26" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30">
+    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>65</v>
       </c>
@@ -4005,11 +4010,11 @@
       <c r="F106" t="s">
         <v>25</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="G106" s="26" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30">
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>65</v>
       </c>
@@ -4028,11 +4033,11 @@
       <c r="F107" t="s">
         <v>25</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="G107" s="26" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30">
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>65</v>
       </c>
@@ -4051,7 +4056,7 @@
       <c r="F108" t="s">
         <v>25</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G108" s="26" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4222,17 +4227,17 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4246,7 +4251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -4275,7 +4280,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -4290,7 +4295,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>293</v>
       </c>
@@ -4305,7 +4310,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4319,7 +4324,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>155</v>
       </c>
@@ -4328,84 +4333,84 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>294</v>
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="2:4" ht="15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="2:4" ht="15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="2:4" ht="15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" ht="15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="2:4" ht="15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" ht="15">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="14"/>
     </row>
-    <row r="32" spans="2:4" ht="15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="14"/>
     </row>
-    <row r="38" spans="4:4" ht="15">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="14"/>
     </row>
-    <row r="44" spans="4:4" ht="15">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" ht="15">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" ht="15">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" ht="15">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="14"/>
     </row>
   </sheetData>
@@ -4433,31 +4438,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4717,14 +4697,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F689C-5D91-EA4B-9925-D0C00639B5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
   <si>
     <t>Audience</t>
   </si>
@@ -830,99 +830,6 @@
   </si>
   <si>
     <t>https://www.virtualhospice.ca/en_US/Main+Site+Navigation/Home/Support/Support/The+Video+Gallery/For+Professionals/Life+and+work+in+the+time+of+COVID_19+_+The+Conversation+Continues_+June+2020.aspx#video_content_details</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Social Connection</t>
-  </si>
-  <si>
-    <t>BC Centre for Palliative Care</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
-  </si>
-  <si>
-    <t>Self-Compassion Guided Meditations and Exercises</t>
-  </si>
-  <si>
-    <t>Kristen Neff</t>
-  </si>
-  <si>
-    <t>https://self-compassion.org/category/exercises/</t>
-  </si>
-  <si>
-    <t>How to Make Stress Your Friend</t>
-  </si>
-  <si>
-    <t>Kelly McGonigal</t>
-  </si>
-  <si>
-    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
-  </si>
-  <si>
-    <t>Working in Health Care during COVID-19</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>HCA_x000D_ COVID Needs Assessment</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
-  </si>
-  <si>
-    <t>Well-being and Psychological Supports</t>
-  </si>
-  <si>
-    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
-  </si>
-  <si>
-    <t>Home and Community Care COVID-19 Toolkit</t>
-  </si>
-  <si>
-    <t>First Nations Health_x000D_ Authority</t>
-  </si>
-  <si>
-    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
-  </si>
-  <si>
-    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adlay Stump </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
-  </si>
-  <si>
-    <t>I Dreamed a Dream... Corona Version</t>
-  </si>
-  <si>
-    <t>Sutton Shenanigans</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
-  </si>
-  <si>
-    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
-  </si>
-  <si>
-    <t>Good Morning America</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -941,7 +848,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,7 +1014,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1118,8 +1025,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1133,6 +1044,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1140,7 +1054,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1154,77 +1072,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1557,26 +1466,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="90">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1618,57 +1527,57 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1687,41 +1596,41 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1730,14 +1639,14 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1753,83 +1662,83 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:7" ht="51" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="45">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1848,11 +1757,11 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1871,11 +1780,11 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1894,34 +1803,34 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
+      <c r="A15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1934,40 +1843,40 @@
       <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1986,80 +1895,80 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="F21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2078,11 +1987,11 @@
       <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2101,34 +2010,34 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2147,11 +2056,11 @@
       <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2164,17 +2073,17 @@
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="22" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2193,57 +2102,57 @@
       <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
+      <c r="A28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="28" t="s">
+      <c r="F28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
+      <c r="A29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="28" t="s">
+      <c r="F29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="75">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2262,103 +2171,103 @@
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
+      <c r="A31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="28" t="s">
+      <c r="F31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
+      <c r="A32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="28" t="s">
+      <c r="F32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="18" t="s">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
+      <c r="A33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="28" t="s">
+      <c r="F33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
+      <c r="A34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="28" t="s">
+      <c r="F34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2377,11 +2286,11 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2400,18 +2309,18 @@
       <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2423,34 +2332,34 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="1:7" ht="105">
+      <c r="A38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2469,80 +2378,80 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="18" t="s">
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="28" t="s">
+      <c r="F40" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="18" t="s">
+    <row r="41" spans="1:7" ht="45">
+      <c r="A41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="28" t="s">
+      <c r="F41" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="28" t="s">
+      <c r="F42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="60">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2561,34 +2470,34 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="22" t="s">
+    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
+      <c r="A44" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2607,11 +2516,11 @@
       <c r="F45" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2630,11 +2539,11 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2650,37 +2559,37 @@
       <c r="E47" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="18" t="s">
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="28" t="s">
+      <c r="F48" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2699,18 +2608,18 @@
       <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G49" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2719,37 +2628,37 @@
       <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="45">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2768,11 +2677,11 @@
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2791,11 +2700,11 @@
       <c r="F53" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2814,80 +2723,80 @@
       <c r="F54" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="18" t="s">
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="G55" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="28" t="s">
+      <c r="F56" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2906,80 +2815,80 @@
       <c r="F58" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="18" t="s">
+    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
+      <c r="A59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="18" t="s">
+    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A60" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="28" t="s">
+      <c r="F60" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="18" t="s">
+    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A61" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="28" t="s">
+      <c r="F61" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2998,57 +2907,57 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="18" t="s">
+    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A63" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="45">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -3067,241 +2976,241 @@
       <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
+    <row r="66" spans="1:7" ht="30">
+      <c r="A66" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="28" t="s">
+      <c r="F66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="45">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="G67" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="45">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="16" t="s">
+    <row r="69" spans="1:7" ht="30">
+      <c r="A69" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="28" t="s">
+      <c r="F69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="16" t="s">
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="28" t="s">
+      <c r="G70" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="18" t="s">
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="28" t="s">
+      <c r="G71" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
+    <row r="72" spans="1:7" ht="15">
+      <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="28" t="s">
+      <c r="F72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="18" t="s">
+    <row r="73" spans="1:7" ht="30">
+      <c r="A73" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="28" t="s">
+      <c r="F73" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="18" t="s">
+    <row r="74" spans="1:7" ht="30">
+      <c r="A74" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="28" t="s">
+      <c r="G74" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="18" t="s">
+    <row r="75" spans="1:7" ht="30">
+      <c r="A75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="28" t="s">
+      <c r="G75" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="45">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3320,11 +3229,11 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G76" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="45">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3343,34 +3252,34 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="45">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="45">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3389,34 +3298,34 @@
       <c r="F79" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="G79" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="18" t="s">
+    <row r="80" spans="1:7" ht="15">
+      <c r="A80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="28" t="s">
+      <c r="G80" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="60">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3435,11 +3344,11 @@
       <c r="F81" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="G81" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="30">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3458,80 +3367,80 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G82" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="18" t="s">
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
+      <c r="A83" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G83" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="18" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
+    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
+      <c r="A84" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="28" t="s">
+      <c r="G84" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="18" t="s">
+    <row r="85" spans="1:7" ht="15">
+      <c r="A85" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="28" t="s">
+      <c r="G85" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3544,17 +3453,17 @@
       <c r="D86" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="22" t="s">
         <v>241</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="26" t="s">
+      <c r="G86" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3573,57 +3482,57 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="18" t="s">
+    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="28" t="s">
+      <c r="G88" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="18" t="s">
+    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A89" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="28" t="s">
+      <c r="F89" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="30">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3642,11 +3551,11 @@
       <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="30">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3665,11 +3574,11 @@
       <c r="F91" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3688,11 +3597,11 @@
       <c r="F92" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="30">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3711,11 +3620,11 @@
       <c r="F93" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="60">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3734,11 +3643,11 @@
       <c r="F94" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="G94" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="45">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3757,11 +3666,11 @@
       <c r="F95" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="26" t="s">
+      <c r="G95" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="75">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3780,286 +3689,13 @@
       <c r="F96" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E97" t="s">
-        <v>263</v>
-      </c>
-      <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E98" t="s">
-        <v>263</v>
-      </c>
-      <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" t="s">
-        <v>263</v>
-      </c>
-      <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E100" t="s">
-        <v>270</v>
-      </c>
-      <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E101" t="s">
-        <v>273</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" s="26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E102" t="s">
-        <v>263</v>
-      </c>
-      <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E103" t="s">
-        <v>263</v>
-      </c>
-      <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E104" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E105" t="s">
-        <v>282</v>
-      </c>
-      <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E106" t="s">
-        <v>285</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E107" t="s">
-        <v>288</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E108" t="s">
-        <v>291</v>
-      </c>
-      <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="26" t="s">
-        <v>292</v>
-      </c>
-    </row>
+    <row r="97" ht="15"/>
+    <row r="98" ht="15"/>
+    <row r="99" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -4165,21 +3801,9 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
-    <hyperlink ref="G97" r:id="rId92" xr:uid="{D2028EB2-A31A-4989-A284-E01C3712125B}"/>
-    <hyperlink ref="G99" r:id="rId93" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{82A501D8-B54B-4AF3-9CAD-F7393E598666}"/>
-    <hyperlink ref="G98" r:id="rId94" xr:uid="{E9F8FC38-D02B-4775-BA08-E6990A18039F}"/>
-    <hyperlink ref="G100" r:id="rId95" xr:uid="{A83AF6C8-C38B-4798-89D8-A7BC2EACCFE4}"/>
-    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{C90C0CA2-ACF5-44B6-948A-49569954CB17}"/>
-    <hyperlink ref="G102" r:id="rId97" xr:uid="{5B94CA47-2A8A-47C7-9C4B-74C54AFEFF04}"/>
-    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{511ED429-7238-4CC4-9E9F-D047F6257D04}"/>
-    <hyperlink ref="G104" r:id="rId99" xr:uid="{A71C45B7-D48A-4CD0-92DF-3424FA73489A}"/>
-    <hyperlink ref="G105" r:id="rId100" xr:uid="{CE487645-A122-4866-8191-1091A831602D}"/>
-    <hyperlink ref="G106" r:id="rId101" xr:uid="{0F7E6ECE-7896-4818-9454-68DD8484233E}"/>
-    <hyperlink ref="G107" r:id="rId102" xr:uid="{CABE5062-D581-4F27-B525-022708794AD1}"/>
-    <hyperlink ref="G108" r:id="rId103" xr:uid="{7B9098D4-ECE4-48A1-AA82-C5B6923781C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4227,35 +3851,35 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
@@ -4265,11 +3889,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
@@ -4278,28 +3902,28 @@
       <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
@@ -4310,7 +3934,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4320,12 +3944,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B7"/>
@@ -4333,85 +3957,85 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15">
       <c r="B8"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15">
       <c r="B13"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15">
       <c r="B16"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" ht="15">
       <c r="B17"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" ht="15">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" ht="15">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="14"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="14"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="14"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D47" s="14"/>
+    <row r="26" spans="2:4" ht="15">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="2:4" ht="15">
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="2:4" ht="15">
+      <c r="D28" s="16"/>
+    </row>
+    <row r="32" spans="2:4" ht="15">
+      <c r="D32" s="16"/>
+    </row>
+    <row r="38" spans="4:4" ht="15">
+      <c r="D38" s="16"/>
+    </row>
+    <row r="44" spans="4:4" ht="15">
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="4:4" ht="15">
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="4:4" ht="15">
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="4:4" ht="15">
+      <c r="D47" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
@@ -4429,15 +4053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4697,6 +4312,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4723,39 +4347,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43518780-3C6F-2B41-B2F5-DE889C3A2B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="460" windowWidth="19420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
   <si>
     <t>Audience</t>
   </si>
@@ -842,13 +842,106 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Social Connection</t>
+  </si>
+  <si>
+    <t>BC Centre for Palliative Care</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>https://self-compassion.org/category/exercises/</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>HCA_x000D_ COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
+  </si>
+  <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>First Nations Health_x000D_ Authority</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adlay Stump </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream... Corona Version</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,7 +1230,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1466,26 +1569,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97:G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90">
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -1577,7 +1680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1715,7 +1818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -1876,7 +1979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +2002,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +2025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +2048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
@@ -1968,7 +2071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +2094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +2186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75">
+    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>7</v>
       </c>
@@ -2198,7 +2301,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2324,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>7</v>
       </c>
@@ -2267,7 +2370,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2393,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2313,7 +2416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105">
+    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2462,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2382,7 +2485,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2508,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2531,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +2554,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2577,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="44" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2600,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2623,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2543,7 +2646,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2669,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2715,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
@@ -2635,7 +2738,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>155</v>
       </c>
@@ -2658,7 +2761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2681,7 +2784,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2704,7 +2807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +2830,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2853,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2876,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2796,7 +2899,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2922,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
+    <row r="59" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>7</v>
       </c>
@@ -2842,7 +2945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="60" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>7</v>
       </c>
@@ -2865,7 +2968,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="61" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="62" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +3014,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="63" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +3037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +3060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45">
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -2980,7 +3083,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +3106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45">
+    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -3026,7 +3129,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45">
+    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -3049,7 +3152,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3175,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30">
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>7</v>
       </c>
@@ -3095,7 +3198,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3221,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3244,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30">
+    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +3267,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>7</v>
       </c>
@@ -3187,7 +3290,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>7</v>
       </c>
@@ -3210,7 +3313,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45">
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3336,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +3359,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45">
+    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3382,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3302,7 +3405,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60">
+    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3348,7 +3451,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30">
+    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3474,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>7</v>
       </c>
@@ -3394,7 +3497,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
+    <row r="84" spans="1:7" s="22" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>155</v>
       </c>
@@ -3417,7 +3520,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3589,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="88" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3612,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="89" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3635,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30">
+    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3555,7 +3658,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30">
+    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3681,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3601,7 +3704,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3624,7 +3727,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="60">
+    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3647,7 +3750,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45">
+    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3773,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="75">
+    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3693,9 +3796,282 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" ht="15"/>
-    <row r="98" ht="15"/>
-    <row r="99" ht="15"/>
+    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E97" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E99" t="s">
+        <v>267</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" t="s">
+        <v>274</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" t="s">
+        <v>277</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E102" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E105" t="s">
+        <v>286</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E106" t="s">
+        <v>289</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E107" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" t="s">
+        <v>295</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -3706,7 +4082,10 @@
     <sortCondition ref="D2:D67"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D96 D109:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:D108">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -3801,9 +4180,21 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
+    <hyperlink ref="G97" r:id="rId92" xr:uid="{5629B4A9-C3D7-C74F-9B48-99F83049C7A9}"/>
+    <hyperlink ref="G99" r:id="rId93" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{7CD5A8BD-B732-2C42-B0FB-F4E8EF0FBCDB}"/>
+    <hyperlink ref="G98" r:id="rId94" xr:uid="{3B55E733-F88F-DC4B-BC3F-DBC2B8D27BF1}"/>
+    <hyperlink ref="G100" r:id="rId95" xr:uid="{7A12B6DA-4ABF-3647-8B92-7667CE559453}"/>
+    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{B186793D-1327-B14F-9D54-2187235CC3B5}"/>
+    <hyperlink ref="G102" r:id="rId97" xr:uid="{59256076-401F-B441-9203-033B0A186311}"/>
+    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{CEEFB8ED-1C9A-484E-9587-37CBEAAC8096}"/>
+    <hyperlink ref="G104" r:id="rId99" xr:uid="{57BFD784-5C1F-F741-BF1E-E85E3B7286D0}"/>
+    <hyperlink ref="G105" r:id="rId100" xr:uid="{5AB1F1EF-928D-9D4E-91E2-6F6FA5629BD6}"/>
+    <hyperlink ref="G106" r:id="rId101" xr:uid="{C5E0C70C-950F-6849-AF23-4923DC9FDF03}"/>
+    <hyperlink ref="G107" r:id="rId102" xr:uid="{4B507F21-E1AE-2F4F-9509-216451E1F45A}"/>
+    <hyperlink ref="G108" r:id="rId103" xr:uid="{5E3A7BBC-2143-2E4D-9387-014D7CCD3957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -3811,7 +4202,7 @@
           <x14:formula1>
             <xm:f>Data!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F57 F59:F1048576</xm:sqref>
+          <xm:sqref>F1:F57 F59:F96 F109:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F86E01A6-9BFD-44B3-AEA9-2E6F3E8FCA17}">
           <x14:formula1>
@@ -3823,19 +4214,19 @@
           <x14:formula1>
             <xm:f>Data!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1:B96 B109:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F2A78CC-13C9-4962-911B-274FAE1329EE}">
           <x14:formula1>
             <xm:f>Data!$C$2:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C96 C109:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
           <x14:formula1>
             <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>A1:A96 A109:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3851,17 +4242,17 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -3875,7 +4266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3889,7 +4280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -3904,7 +4295,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -3919,7 +4310,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>262</v>
       </c>
@@ -3934,7 +4325,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -3948,7 +4339,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>155</v>
       </c>
@@ -3957,84 +4348,84 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>263</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" ht="15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" ht="15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" ht="15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" ht="15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" ht="15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" ht="15">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" ht="15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" ht="15">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" ht="15">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" ht="15">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" ht="15">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" ht="15">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
@@ -4313,15 +4704,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -4346,14 +4728,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43518780-3C6F-2B41-B2F5-DE889C3A2B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="460" windowWidth="19420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
   <si>
     <t>Audience</t>
   </si>
@@ -842,106 +842,13 @@
   </si>
   <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Social Connection</t>
-  </si>
-  <si>
-    <t>BC Centre for Palliative Care</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
-  </si>
-  <si>
-    <t>Self-Compassion Guided Meditations and Exercises</t>
-  </si>
-  <si>
-    <t>Kristen Neff</t>
-  </si>
-  <si>
-    <t>https://self-compassion.org/category/exercises/</t>
-  </si>
-  <si>
-    <t>How to Make Stress Your Friend</t>
-  </si>
-  <si>
-    <t>Kelly McGonigal</t>
-  </si>
-  <si>
-    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
-  </si>
-  <si>
-    <t>Working in Health Care during COVID-19</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>HCA_x000D_ COVID Needs Assessment</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
-  </si>
-  <si>
-    <t>Well-being and Psychological Supports</t>
-  </si>
-  <si>
-    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
-  </si>
-  <si>
-    <t>Home and Community Care COVID-19 Toolkit</t>
-  </si>
-  <si>
-    <t>First Nations Health_x000D_ Authority</t>
-  </si>
-  <si>
-    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
-  </si>
-  <si>
-    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adlay Stump </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
-  </si>
-  <si>
-    <t>I Dreamed a Dream... Corona Version</t>
-  </si>
-  <si>
-    <t>Sutton Shenanigans</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
-  </si>
-  <si>
-    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
-  </si>
-  <si>
-    <t>Good Morning America</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,17 +1137,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1569,26 +1466,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:G108"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="90">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -1726,7 +1623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="45">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +1830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -1979,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +1899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +1922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2048,7 +1945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
@@ -2071,7 +1968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +1991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2186,7 +2083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
       <c r="A28" s="18" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="75">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2175,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
       <c r="A31" s="18" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2198,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
       <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
       <c r="A33" s="18" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A34" s="18" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2267,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2290,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2313,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="105">
       <c r="A38" s="18" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2359,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
@@ -2508,7 +2405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="18" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +2428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="18" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +2451,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="60">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2577,7 +2474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A44" s="28" t="s">
         <v>7</v>
       </c>
@@ -2600,7 +2497,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2623,7 +2520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2646,7 +2543,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="18" t="s">
         <v>7</v>
       </c>
@@ -2692,7 +2589,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2612,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2635,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="18" t="s">
         <v>155</v>
       </c>
@@ -2761,7 +2658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="45">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +2681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2807,7 +2704,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2830,7 +2727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="45">
       <c r="A55" s="18" t="s">
         <v>7</v>
       </c>
@@ -2853,7 +2750,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
@@ -2876,7 +2773,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2899,7 +2796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2922,7 +2819,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
       <c r="A59" s="18" t="s">
         <v>7</v>
       </c>
@@ -2945,7 +2842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A60" s="18" t="s">
         <v>7</v>
       </c>
@@ -2968,7 +2865,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A61" s="18" t="s">
         <v>7</v>
       </c>
@@ -2991,7 +2888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -3014,7 +2911,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A63" s="18" t="s">
         <v>7</v>
       </c>
@@ -3037,7 +2934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +2957,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="45">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -3083,7 +2980,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="30">
       <c r="A66" s="18" t="s">
         <v>20</v>
       </c>
@@ -3106,7 +3003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="45">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="45">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -3152,7 +3049,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="30">
       <c r="A69" s="18" t="s">
         <v>7</v>
       </c>
@@ -3175,7 +3072,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="18" t="s">
         <v>7</v>
       </c>
@@ -3198,7 +3095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="18" t="s">
         <v>7</v>
       </c>
@@ -3221,7 +3118,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
@@ -3244,7 +3141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="30">
       <c r="A73" s="18" t="s">
         <v>7</v>
       </c>
@@ -3267,7 +3164,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" s="18" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" s="18" t="s">
         <v>7</v>
       </c>
@@ -3313,7 +3210,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="45">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3336,7 +3233,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="45">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3359,7 +3256,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="45">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3382,7 +3279,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="45">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3302,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" s="18" t="s">
         <v>7</v>
       </c>
@@ -3428,7 +3325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="60">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3451,7 +3348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="30">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3474,7 +3371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A83" s="18" t="s">
         <v>7</v>
       </c>
@@ -3497,7 +3394,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="22" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
       <c r="A84" s="18" t="s">
         <v>155</v>
       </c>
@@ -3520,7 +3417,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" s="18" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3566,7 +3463,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3589,7 +3486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A88" s="18" t="s">
         <v>7</v>
       </c>
@@ -3612,7 +3509,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A89" s="18" t="s">
         <v>7</v>
       </c>
@@ -3635,7 +3532,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="30">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="30">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3681,7 +3578,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3704,7 +3601,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="30">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3727,7 +3624,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="60">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3647,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="45">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3773,7 +3670,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="75">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3796,282 +3693,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E99" t="s">
-        <v>267</v>
-      </c>
-      <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E100" t="s">
-        <v>274</v>
-      </c>
-      <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E101" t="s">
-        <v>277</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E102" t="s">
-        <v>267</v>
-      </c>
-      <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E103" t="s">
-        <v>267</v>
-      </c>
-      <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E104" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E105" t="s">
-        <v>286</v>
-      </c>
-      <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E106" t="s">
-        <v>289</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E107" t="s">
-        <v>292</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E108" t="s">
-        <v>295</v>
-      </c>
-      <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
+    <row r="97" ht="15"/>
+    <row r="98" ht="15"/>
+    <row r="99" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -4082,10 +3706,7 @@
     <sortCondition ref="D2:D67"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="D1:D96 D109:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97:D108">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -4180,21 +3801,9 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
-    <hyperlink ref="G97" r:id="rId92" xr:uid="{5629B4A9-C3D7-C74F-9B48-99F83049C7A9}"/>
-    <hyperlink ref="G99" r:id="rId93" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{7CD5A8BD-B732-2C42-B0FB-F4E8EF0FBCDB}"/>
-    <hyperlink ref="G98" r:id="rId94" xr:uid="{3B55E733-F88F-DC4B-BC3F-DBC2B8D27BF1}"/>
-    <hyperlink ref="G100" r:id="rId95" xr:uid="{7A12B6DA-4ABF-3647-8B92-7667CE559453}"/>
-    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{B186793D-1327-B14F-9D54-2187235CC3B5}"/>
-    <hyperlink ref="G102" r:id="rId97" xr:uid="{59256076-401F-B441-9203-033B0A186311}"/>
-    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{CEEFB8ED-1C9A-484E-9587-37CBEAAC8096}"/>
-    <hyperlink ref="G104" r:id="rId99" xr:uid="{57BFD784-5C1F-F741-BF1E-E85E3B7286D0}"/>
-    <hyperlink ref="G105" r:id="rId100" xr:uid="{5AB1F1EF-928D-9D4E-91E2-6F6FA5629BD6}"/>
-    <hyperlink ref="G106" r:id="rId101" xr:uid="{C5E0C70C-950F-6849-AF23-4923DC9FDF03}"/>
-    <hyperlink ref="G107" r:id="rId102" xr:uid="{4B507F21-E1AE-2F4F-9509-216451E1F45A}"/>
-    <hyperlink ref="G108" r:id="rId103" xr:uid="{5E3A7BBC-2143-2E4D-9387-014D7CCD3957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4202,7 +3811,7 @@
           <x14:formula1>
             <xm:f>Data!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F57 F59:F96 F109:F1048576</xm:sqref>
+          <xm:sqref>F1:F57 F59:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F86E01A6-9BFD-44B3-AEA9-2E6F3E8FCA17}">
           <x14:formula1>
@@ -4214,19 +3823,19 @@
           <x14:formula1>
             <xm:f>Data!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B96 B109:B1048576</xm:sqref>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F2A78CC-13C9-4962-911B-274FAE1329EE}">
           <x14:formula1>
             <xm:f>Data!$C$2:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C96 C109:C1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
           <x14:formula1>
             <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A96 A109:A1048576</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4242,17 +3851,17 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4266,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4280,7 +3889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -4295,7 +3904,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -4310,7 +3919,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>262</v>
       </c>
@@ -4325,7 +3934,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4339,7 +3948,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="25" t="s">
         <v>155</v>
       </c>
@@ -4348,84 +3957,84 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>263</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="15">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="15">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="15">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="15">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="15">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="15">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="15">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" ht="15">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" ht="15">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" ht="15">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" ht="15">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" ht="15">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
@@ -4704,6 +4313,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -4728,49 +4346,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0BD5BE-5958-4960-8EA8-51FA638DD4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
   <si>
     <t>Audience</t>
   </si>
@@ -830,6 +830,99 @@
   </si>
   <si>
     <t>https://www.virtualhospice.ca/en_US/Main+Site+Navigation/Home/Support/Support/The+Video+Gallery/For+Professionals/Life+and+work+in+the+time+of+COVID_19+_+The+Conversation+Continues_+June+2020.aspx#video_content_details</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Social Connection</t>
+  </si>
+  <si>
+    <t>BC Centre for Palliative Care</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>https://self-compassion.org/category/exercises/</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>HCA_x000D_ COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
+  </si>
+  <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>First Nations Health_x000D_ Authority</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adlay Stump </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream... Corona Version</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1014,7 +1107,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1025,12 +1118,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1044,9 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1054,11 +1140,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1072,68 +1154,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1466,11 +1552,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1481,7 +1567,7 @@
     <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="8" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1504,11 +1590,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1613,7 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1535,45 +1621,45 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1596,41 +1682,41 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1639,14 +1725,14 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1662,56 +1748,56 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1719,26 +1805,26 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1757,11 +1843,11 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1780,11 +1866,11 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1803,34 +1889,34 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
-      <c r="A15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1843,40 +1929,40 @@
       <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1981,7 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1903,72 +1989,72 @@
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1987,11 +2073,11 @@
       <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2010,34 +2096,34 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2142,7 @@
       <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="27" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2073,17 +2159,17 @@
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2102,57 +2188,57 @@
       <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
-      <c r="A28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
-      <c r="A29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="22" t="s">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="F29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75">
+    <row r="30" spans="1:7" ht="45">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2171,103 +2257,103 @@
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
-      <c r="A31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
-      <c r="A32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="21" t="s">
+      <c r="F32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
-      <c r="A33" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
-      <c r="A34" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="22" t="s">
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2372,7 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="27" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2309,18 +2395,18 @@
       <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2332,34 +2418,34 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105">
-      <c r="A38" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="22" t="s">
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2378,76 +2464,76 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A40" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="21" t="s">
+      <c r="F40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="21" t="s">
+      <c r="F42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="29" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2470,34 +2556,34 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
-      <c r="A44" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="27" t="s">
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A44" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2602,7 @@
       <c r="F45" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="27" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2539,7 +2625,7 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="27" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2559,37 +2645,37 @@
       <c r="E47" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="27" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="21" t="s">
+      <c r="F48" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2608,18 +2694,18 @@
       <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2628,37 +2714,37 @@
       <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2677,11 +2763,11 @@
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2700,11 +2786,11 @@
       <c r="F53" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2723,53 +2809,53 @@
       <c r="F54" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="22" t="s">
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="21" t="s">
+      <c r="F56" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="29" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2777,26 +2863,26 @@
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2815,80 +2901,80 @@
       <c r="F58" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
-      <c r="A59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A60" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="22" t="s">
+    <row r="60" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="21" t="s">
+      <c r="F60" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A61" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="22" t="s">
+    <row r="61" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="23" t="s">
+      <c r="F61" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="62" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2907,53 +2993,53 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A63" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="22" t="s">
+    <row r="63" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A63" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="27" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2976,53 +3062,53 @@
       <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="27" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="21" t="s">
+      <c r="F66" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45">
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="27" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3030,183 +3116,183 @@
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="19" t="s">
+      <c r="A69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="21" t="s">
+      <c r="F69" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30">
-      <c r="A70" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="19" t="s">
+      <c r="A70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="29" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30">
-      <c r="A71" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="22" t="s">
+      <c r="A71" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="29" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="21" t="s">
+      <c r="F72" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="29" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
-      <c r="A73" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="22" t="s">
+      <c r="A73" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="21" t="s">
+      <c r="F73" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30">
-      <c r="A74" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="22" t="s">
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="29" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30">
-      <c r="A75" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="22" t="s">
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="29" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3229,7 +3315,7 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="27" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3252,7 +3338,7 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="27" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3260,22 +3346,22 @@
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="27" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3298,30 +3384,30 @@
       <c r="F79" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="27" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="22" t="s">
+      <c r="A80" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3344,7 +3430,7 @@
       <c r="F81" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="27" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3367,76 +3453,76 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="27" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
-      <c r="A83" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="22" t="s">
+    <row r="83" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A84" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="29" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15">
-      <c r="A85" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="22" t="s">
+      <c r="A85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3453,13 +3539,13 @@
       <c r="D86" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="18" t="s">
         <v>241</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="27" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3482,53 +3568,53 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A88" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="22" t="s">
+    <row r="88" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A88" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="21" t="s">
+      <c r="G88" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A89" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="22" t="s">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="21" t="s">
+      <c r="F89" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="29" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3551,7 +3637,7 @@
       <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="27" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3574,7 +3660,7 @@
       <c r="F91" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="27" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3597,7 +3683,7 @@
       <c r="F92" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="27" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3620,7 +3706,7 @@
       <c r="F93" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="27" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3643,7 +3729,7 @@
       <c r="F94" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="27" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3666,11 +3752,11 @@
       <c r="F95" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="75">
+    <row r="96" spans="1:7" ht="45">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3689,13 +3775,286 @@
       <c r="F96" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="27" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" ht="15"/>
-    <row r="98" ht="15"/>
-    <row r="99" ht="15"/>
+    <row r="97" spans="1:7" ht="30">
+      <c r="A97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30">
+      <c r="A98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30">
+      <c r="A99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E99" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30">
+      <c r="A100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E100" t="s">
+        <v>270</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30">
+      <c r="A101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" t="s">
+        <v>273</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30">
+      <c r="A102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30">
+      <c r="A103" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30">
+      <c r="A104" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30">
+      <c r="A105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" t="s">
+        <v>282</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E106" t="s">
+        <v>285</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30">
+      <c r="A107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E107" t="s">
+        <v>288</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="A108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E108" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -3801,24 +4160,24 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
+    <hyperlink ref="G97" r:id="rId92" xr:uid="{D2028EB2-A31A-4989-A284-E01C3712125B}"/>
+    <hyperlink ref="G99" r:id="rId93" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{82A501D8-B54B-4AF3-9CAD-F7393E598666}"/>
+    <hyperlink ref="G98" r:id="rId94" xr:uid="{E9F8FC38-D02B-4775-BA08-E6990A18039F}"/>
+    <hyperlink ref="G100" r:id="rId95" xr:uid="{A83AF6C8-C38B-4798-89D8-A7BC2EACCFE4}"/>
+    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{C90C0CA2-ACF5-44B6-948A-49569954CB17}"/>
+    <hyperlink ref="G102" r:id="rId97" xr:uid="{5B94CA47-2A8A-47C7-9C4B-74C54AFEFF04}"/>
+    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{511ED429-7238-4CC4-9E9F-D047F6257D04}"/>
+    <hyperlink ref="G104" r:id="rId99" xr:uid="{A71C45B7-D48A-4CD0-92DF-3424FA73489A}"/>
+    <hyperlink ref="G105" r:id="rId100" xr:uid="{CE487645-A122-4866-8191-1091A831602D}"/>
+    <hyperlink ref="G106" r:id="rId101" xr:uid="{0F7E6ECE-7896-4818-9454-68DD8484233E}"/>
+    <hyperlink ref="G107" r:id="rId102" xr:uid="{CABE5062-D581-4F27-B525-022708794AD1}"/>
+    <hyperlink ref="G108" r:id="rId103" xr:uid="{7B9098D4-ECE4-48A1-AA82-C5B6923781C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7511B102-3DA6-4897-9B25-149E103336E2}">
-          <x14:formula1>
-            <xm:f>Data!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F57 F59:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F86E01A6-9BFD-44B3-AEA9-2E6F3E8FCA17}">
-          <x14:formula1>
-            <xm:f>Data!$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>F58</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Data!$B$2:$B$6</xm:f>
@@ -3833,9 +4192,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
           <x14:formula1>
-            <xm:f>Data!$A:$A</xm:f>
+            <xm:f>Data!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10EC01DF-6468-4178-A358-7210F8A6D527}">
+          <x14:formula1>
+            <xm:f>Data!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3847,14 +4212,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
@@ -3862,16 +4227,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3879,7 +4244,7 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
@@ -3893,7 +4258,7 @@
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
@@ -3902,28 +4267,28 @@
       <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
@@ -3944,12 +4309,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="20" t="s">
         <v>155</v>
       </c>
       <c r="B7"/>
@@ -3959,28 +4324,28 @@
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="B8"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="16"/>
+        <v>294</v>
+      </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -3988,54 +4353,54 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="B13"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15">
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="B15"/>
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="B16"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="2:4" ht="15">
       <c r="B17"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="2:4" ht="15">
-      <c r="B18" s="16"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:4" ht="15">
       <c r="B19"/>
     </row>
     <row r="26" spans="2:4" ht="15">
-      <c r="D26" s="16"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:4" ht="15">
-      <c r="D27" s="16"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="2:4" ht="15">
-      <c r="D28" s="16"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="32" spans="2:4" ht="15">
-      <c r="D32" s="16"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="38" spans="4:4" ht="15">
-      <c r="D38" s="16"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="44" spans="4:4" ht="15">
-      <c r="D44" s="16"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="4:4" ht="15">
-      <c r="D45" s="16"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="4:4" ht="15">
-      <c r="D46" s="16"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="4:4" ht="15">
-      <c r="D47" s="16"/>
+      <c r="D47" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
@@ -4053,6 +4418,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4312,7 +4702,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4321,39 +4711,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0BD5BE-5958-4960-8EA8-51FA638DD4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE304D7-DD4B-B044-B16F-F9B02F7B5B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
   <si>
     <t>Audience</t>
   </si>
@@ -832,116 +832,113 @@
     <t>https://www.virtualhospice.ca/en_US/Main+Site+Navigation/Home/Support/Support/The+Video+Gallery/For+Professionals/Life+and+work+in+the+time+of+COVID_19+_+The+Conversation+Continues_+June+2020.aspx#video_content_details</t>
   </si>
   <si>
+    <t>Physicians</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>Health Care Assistant Summer 2020 Social Connection</t>
   </si>
   <si>
+    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>HCA COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream... Corona Version</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
+  </si>
+  <si>
     <t>BC Centre for Palliative Care</t>
   </si>
   <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
+    <t>Adlay Stump</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
   </si>
   <si>
-    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
   </si>
   <si>
-    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
-  </si>
-  <si>
     <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
   </si>
   <si>
-    <t>Self-Compassion Guided Meditations and Exercises</t>
-  </si>
-  <si>
-    <t>Kristen Neff</t>
-  </si>
-  <si>
     <t>https://self-compassion.org/category/exercises/</t>
   </si>
   <si>
-    <t>How to Make Stress Your Friend</t>
-  </si>
-  <si>
-    <t>Kelly McGonigal</t>
-  </si>
-  <si>
     <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
   </si>
   <si>
-    <t>Working in Health Care during COVID-19</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
   </si>
   <si>
-    <t>HCA_x000D_ COVID Needs Assessment</t>
-  </si>
-  <si>
     <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
   </si>
   <si>
-    <t>Well-being and Psychological Supports</t>
-  </si>
-  <si>
     <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
   </si>
   <si>
-    <t>Home and Community Care COVID-19 Toolkit</t>
-  </si>
-  <si>
-    <t>First Nations Health_x000D_ Authority</t>
-  </si>
-  <si>
     <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
   </si>
   <si>
-    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adlay Stump </t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
   </si>
   <si>
-    <t>I Dreamed a Dream... Corona Version</t>
-  </si>
-  <si>
-    <t>Sutton Shenanigans</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
   </si>
   <si>
-    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
-  </si>
-  <si>
-    <t>Good Morning America</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
-  </si>
-  <si>
-    <t>Physicians</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Germany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,7 +1104,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1118,8 +1115,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1133,6 +1134,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1140,7 +1144,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1154,72 +1162,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1554,24 +1558,24 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,11 +1594,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1613,57 +1617,57 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1682,41 +1686,41 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1725,14 +1729,14 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1748,83 +1752,83 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1843,11 +1847,11 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="15">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1866,11 +1870,11 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1889,34 +1893,34 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1929,40 +1933,40 @@
       <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1981,80 +1985,80 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="29" t="s">
+      <c r="F21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2073,11 +2077,11 @@
       <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2096,34 +2100,34 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="27" t="s">
+      <c r="F24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2142,11 +2146,11 @@
       <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2159,17 +2163,17 @@
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="22" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2188,57 +2192,57 @@
       <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="45">
-      <c r="A28" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45">
+    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2257,103 +2261,103 @@
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="45">
-      <c r="A31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="29" t="s">
+      <c r="F31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="45">
-      <c r="A32" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" ht="45">
-      <c r="A33" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="18" t="s">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="29" t="s">
+      <c r="F33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="45">
-      <c r="A34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2372,11 +2376,11 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2395,18 +2399,18 @@
       <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2418,34 +2422,34 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2464,80 +2468,80 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="15">
-      <c r="A40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="18" t="s">
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="29" t="s">
+      <c r="F40" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="18" t="s">
+    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="29" t="s">
+      <c r="F41" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="29" t="s">
+      <c r="F42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2556,34 +2560,34 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="18" customFormat="1" ht="45">
-      <c r="A44" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="22" t="s">
+    <row r="44" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2602,11 +2606,11 @@
       <c r="F45" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2625,11 +2629,11 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2645,37 +2649,37 @@
       <c r="E47" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="18" t="s">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="29" t="s">
+      <c r="F48" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2694,18 +2698,18 @@
       <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2714,37 +2718,37 @@
       <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2763,11 +2767,11 @@
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2786,11 +2790,11 @@
       <c r="F53" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2809,80 +2813,80 @@
       <c r="F54" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="A55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="18" t="s">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="29" t="s">
+      <c r="F56" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G57" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2901,80 +2905,80 @@
       <c r="F58" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A59" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="18" t="s">
+    <row r="59" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A60" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="18" t="s">
+    <row r="60" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="29" t="s">
+      <c r="F60" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" ht="15">
-      <c r="A61" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="18" t="s">
+    <row r="61" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="29" t="s">
+      <c r="F61" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="62" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2993,57 +2997,57 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="18" customFormat="1" ht="15">
-      <c r="A63" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="18" t="s">
+    <row r="63" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45">
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -3062,241 +3066,241 @@
       <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G65" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
-      <c r="A66" s="15" t="s">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="29" t="s">
+      <c r="F66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30">
+    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45">
+    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G68" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="16" t="s">
+    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="29" t="s">
+      <c r="F69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30">
-      <c r="A70" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="16" t="s">
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
-      <c r="A71" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="18" t="s">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G71" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="15" t="s">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="29" t="s">
+      <c r="F72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30">
-      <c r="A73" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="18" t="s">
+    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="29" t="s">
+      <c r="F73" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
-      <c r="A74" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="18" t="s">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15">
-      <c r="A75" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="18" t="s">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45">
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3315,11 +3319,11 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="27" t="s">
+      <c r="G76" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3338,34 +3342,34 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="27" t="s">
+      <c r="G77" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45">
+    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="27" t="s">
+      <c r="G78" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3384,34 +3388,34 @@
       <c r="F79" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G79" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="18" t="s">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60">
+    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3430,11 +3434,11 @@
       <c r="F81" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="27" t="s">
+      <c r="G81" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30">
+    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3453,80 +3457,80 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A83" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="18" t="s">
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="18" customFormat="1" ht="45">
-      <c r="A84" s="15" t="s">
+    <row r="84" spans="1:7" s="22" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15">
-      <c r="A85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="18" t="s">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3539,17 +3543,17 @@
       <c r="D86" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="22" t="s">
         <v>241</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G86" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3568,57 +3572,57 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G87" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="18" t="s">
+    <row r="88" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15">
-      <c r="A89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="18" t="s">
+    <row r="89" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="29" t="s">
+      <c r="F89" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30">
+    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3637,11 +3641,11 @@
       <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G90" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30">
+    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3660,11 +3664,11 @@
       <c r="F91" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G91" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3683,11 +3687,11 @@
       <c r="F92" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G92" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3706,11 +3710,11 @@
       <c r="F93" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G93" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="60">
+    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3729,11 +3733,11 @@
       <c r="F94" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G94" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45">
+    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3752,11 +3756,11 @@
       <c r="F95" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="27" t="s">
+      <c r="G95" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="45">
+    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3775,11 +3779,11 @@
       <c r="F96" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="G96" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30">
+    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>65</v>
       </c>
@@ -3790,19 +3794,19 @@
         <v>15</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E97" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
       </c>
-      <c r="G97" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30">
+      <c r="G97" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>65</v>
       </c>
@@ -3813,19 +3817,19 @@
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F98" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30">
+      <c r="G98" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>65</v>
       </c>
@@ -3836,19 +3840,19 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F99" t="s">
         <v>25</v>
       </c>
-      <c r="G99" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30">
+      <c r="G99" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>65</v>
       </c>
@@ -3862,16 +3866,16 @@
         <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F100" t="s">
         <v>25</v>
       </c>
-      <c r="G100" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30">
+      <c r="G100" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>65</v>
       </c>
@@ -3882,19 +3886,19 @@
         <v>27</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F101" t="s">
         <v>25</v>
       </c>
-      <c r="G101" s="27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30">
+      <c r="G101" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>65</v>
       </c>
@@ -3905,19 +3909,19 @@
         <v>15</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E102" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F102" t="s">
         <v>25</v>
       </c>
-      <c r="G102" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30">
+      <c r="G102" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
@@ -3928,19 +3932,19 @@
         <v>15</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F103" t="s">
         <v>25</v>
       </c>
-      <c r="G103" s="27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30">
+      <c r="G103" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>65</v>
       </c>
@@ -3951,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E104" t="s">
         <v>59</v>
@@ -3959,11 +3963,11 @@
       <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30">
+      <c r="G104" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>65</v>
       </c>
@@ -3974,19 +3978,19 @@
         <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30">
+      <c r="G105" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>65</v>
       </c>
@@ -3997,19 +4001,19 @@
         <v>22</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E106" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F106" t="s">
         <v>25</v>
       </c>
-      <c r="G106" s="27" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30">
+      <c r="G106" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>65</v>
       </c>
@@ -4020,19 +4024,19 @@
         <v>22</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F107" t="s">
         <v>25</v>
       </c>
-      <c r="G107" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30">
+      <c r="G107" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>65</v>
       </c>
@@ -4043,16 +4047,16 @@
         <v>22</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F108" t="s">
         <v>25</v>
       </c>
-      <c r="G108" s="27" t="s">
-        <v>292</v>
+      <c r="G108" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4160,24 +4164,36 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
-    <hyperlink ref="G97" r:id="rId92" xr:uid="{D2028EB2-A31A-4989-A284-E01C3712125B}"/>
-    <hyperlink ref="G99" r:id="rId93" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{82A501D8-B54B-4AF3-9CAD-F7393E598666}"/>
-    <hyperlink ref="G98" r:id="rId94" xr:uid="{E9F8FC38-D02B-4775-BA08-E6990A18039F}"/>
-    <hyperlink ref="G100" r:id="rId95" xr:uid="{A83AF6C8-C38B-4798-89D8-A7BC2EACCFE4}"/>
-    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{C90C0CA2-ACF5-44B6-948A-49569954CB17}"/>
-    <hyperlink ref="G102" r:id="rId97" xr:uid="{5B94CA47-2A8A-47C7-9C4B-74C54AFEFF04}"/>
-    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{511ED429-7238-4CC4-9E9F-D047F6257D04}"/>
-    <hyperlink ref="G104" r:id="rId99" xr:uid="{A71C45B7-D48A-4CD0-92DF-3424FA73489A}"/>
-    <hyperlink ref="G105" r:id="rId100" xr:uid="{CE487645-A122-4866-8191-1091A831602D}"/>
-    <hyperlink ref="G106" r:id="rId101" xr:uid="{0F7E6ECE-7896-4818-9454-68DD8484233E}"/>
-    <hyperlink ref="G107" r:id="rId102" xr:uid="{CABE5062-D581-4F27-B525-022708794AD1}"/>
-    <hyperlink ref="G108" r:id="rId103" xr:uid="{7B9098D4-ECE4-48A1-AA82-C5B6923781C3}"/>
+    <hyperlink ref="G97" r:id="rId92" xr:uid="{40276AD0-420F-0E4E-AF2D-68B437C76007}"/>
+    <hyperlink ref="G98" r:id="rId93" xr:uid="{90FD78BF-33BC-9A4E-940E-5F7B252669EE}"/>
+    <hyperlink ref="G99" r:id="rId94" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{48C5F786-3EE5-7C44-88F4-99C48A9C8360}"/>
+    <hyperlink ref="G100" r:id="rId95" xr:uid="{33F85E84-3038-2640-8EC3-E798D3232FD8}"/>
+    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{F3EC284D-CD4C-7D4F-9377-38FD258BE91D}"/>
+    <hyperlink ref="G102" r:id="rId97" xr:uid="{737CFF8E-800D-8A47-B928-8A78546E290C}"/>
+    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{8727A66F-342B-574F-A124-9A7452A3A9D7}"/>
+    <hyperlink ref="G104" r:id="rId99" xr:uid="{ECCEF2F3-1081-9D48-A775-6168B4A5DBF6}"/>
+    <hyperlink ref="G105" r:id="rId100" xr:uid="{88E84D55-A336-B54A-8DCE-E361DFC96FD9}"/>
+    <hyperlink ref="G106" r:id="rId101" xr:uid="{3367A2BE-A5E8-0648-90B4-B028E9F67C08}"/>
+    <hyperlink ref="G107" r:id="rId102" xr:uid="{9BF6645B-ADAA-9B4F-A8F3-342199688560}"/>
+    <hyperlink ref="G108" r:id="rId103" xr:uid="{4A4E66E0-8E61-2C4C-A9A1-708720C08568}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7511B102-3DA6-4897-9B25-149E103336E2}">
+          <x14:formula1>
+            <xm:f>Data!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F57 F59:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F86E01A6-9BFD-44B3-AEA9-2E6F3E8FCA17}">
+          <x14:formula1>
+            <xm:f>Data!$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F58</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Data!$B$2:$B$6</xm:f>
@@ -4192,15 +4208,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$7</xm:f>
+            <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10EC01DF-6468-4178-A358-7210F8A6D527}">
-          <x14:formula1>
-            <xm:f>Data!$D$2:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4212,39 +4222,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
@@ -4254,11 +4264,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
@@ -4267,28 +4277,28 @@
       <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
@@ -4299,7 +4309,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4309,12 +4319,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B7"/>
@@ -4322,85 +4332,85 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="15">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="15">
+        <v>263</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="2:4" ht="15">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" ht="15">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" ht="15">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" ht="15">
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:4" ht="15">
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4" ht="15">
-      <c r="D28" s="14"/>
-    </row>
-    <row r="32" spans="2:4" ht="15">
-      <c r="D32" s="14"/>
-    </row>
-    <row r="38" spans="4:4" ht="15">
-      <c r="D38" s="14"/>
-    </row>
-    <row r="44" spans="4:4" ht="15">
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="4:4" ht="15">
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="4:4" ht="15">
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="4:4" ht="15">
-      <c r="D47" s="14"/>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="16"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="16"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="16"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
@@ -4418,28 +4428,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4703,22 +4697,64 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE304D7-DD4B-B044-B16F-F9B02F7B5B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
   <si>
     <t>Audience</t>
   </si>
@@ -842,103 +842,13 @@
   </si>
   <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Social Connection</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
-  </si>
-  <si>
-    <t>Self-Compassion Guided Meditations and Exercises</t>
-  </si>
-  <si>
-    <t>How to Make Stress Your Friend</t>
-  </si>
-  <si>
-    <t>Working in Health Care during COVID-19</t>
-  </si>
-  <si>
-    <t>HCA COVID Needs Assessment</t>
-  </si>
-  <si>
-    <t>Well-being and Psychological Supports</t>
-  </si>
-  <si>
-    <t>Home and Community Care COVID-19 Toolkit</t>
-  </si>
-  <si>
-    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
-  </si>
-  <si>
-    <t>I Dreamed a Dream... Corona Version</t>
-  </si>
-  <si>
-    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
-  </si>
-  <si>
-    <t>BC Centre for Palliative Care</t>
-  </si>
-  <si>
-    <t>Kristen Neff</t>
-  </si>
-  <si>
-    <t>Kelly McGonigal</t>
-  </si>
-  <si>
-    <t>Adlay Stump</t>
-  </si>
-  <si>
-    <t>Sutton Shenanigans</t>
-  </si>
-  <si>
-    <t>Good Morning America</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
-  </si>
-  <si>
-    <t>https://self-compassion.org/category/exercises/</t>
-  </si>
-  <si>
-    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
-  </si>
-  <si>
-    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
-  </si>
-  <si>
-    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,26 +1466,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="90">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1805,7 +1715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="45">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1851,7 +1761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -1920,7 +1830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1943,7 +1853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -1966,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +1899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +1922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +1945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
@@ -2058,7 +1968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +1991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
       <c r="A28" s="18" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="75">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2175,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
       <c r="A31" s="18" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2198,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
       <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
       <c r="A33" s="18" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A34" s="18" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2267,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2290,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2313,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="105">
       <c r="A38" s="18" t="s">
         <v>7</v>
       </c>
@@ -2449,7 +2359,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="18" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="18" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2451,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="60">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A44" s="28" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2497,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2633,7 +2543,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2656,7 +2566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="18" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2589,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2612,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2635,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="18" t="s">
         <v>155</v>
       </c>
@@ -2748,7 +2658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="45">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2771,7 +2681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2794,7 +2704,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="45">
       <c r="A55" s="18" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2750,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
@@ -2863,7 +2773,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2886,7 +2796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2909,7 +2819,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
       <c r="A59" s="18" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +2842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A60" s="18" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2865,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A61" s="18" t="s">
         <v>7</v>
       </c>
@@ -2978,7 +2888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +2911,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A63" s="18" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +2934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -3047,7 +2957,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="45">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -3070,7 +2980,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="30">
       <c r="A66" s="18" t="s">
         <v>20</v>
       </c>
@@ -3093,7 +3003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="45">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -3116,7 +3026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="45">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3049,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="30">
       <c r="A69" s="18" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3072,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="18" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="18" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3118,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
@@ -3231,7 +3141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="30">
       <c r="A73" s="18" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3164,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" s="18" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" s="18" t="s">
         <v>7</v>
       </c>
@@ -3300,7 +3210,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="45">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3233,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="45">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3346,7 +3256,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="45">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3279,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="45">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3302,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" s="18" t="s">
         <v>7</v>
       </c>
@@ -3415,7 +3325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="60">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +3348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="30">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3461,7 +3371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
       <c r="A83" s="18" t="s">
         <v>7</v>
       </c>
@@ -3484,7 +3394,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="22" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
       <c r="A84" s="18" t="s">
         <v>155</v>
       </c>
@@ -3507,7 +3417,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" s="18" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3553,7 +3463,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A88" s="18" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3509,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
       <c r="A89" s="18" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3532,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="30">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="30">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3578,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3691,7 +3601,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="30">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3624,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="60">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3737,7 +3647,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="45">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3670,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="75">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3783,282 +3693,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E97" t="s">
-        <v>278</v>
-      </c>
-      <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E98" t="s">
-        <v>278</v>
-      </c>
-      <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E99" t="s">
-        <v>278</v>
-      </c>
-      <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E100" t="s">
-        <v>279</v>
-      </c>
-      <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E101" t="s">
-        <v>280</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E102" t="s">
-        <v>278</v>
-      </c>
-      <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E103" t="s">
-        <v>278</v>
-      </c>
-      <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E104" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E106" t="s">
-        <v>281</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E107" t="s">
-        <v>282</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E108" t="s">
-        <v>283</v>
-      </c>
-      <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
+    <row r="97" ht="15"/>
+    <row r="98" ht="15"/>
+    <row r="99" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -4164,21 +3801,9 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
-    <hyperlink ref="G97" r:id="rId92" xr:uid="{40276AD0-420F-0E4E-AF2D-68B437C76007}"/>
-    <hyperlink ref="G98" r:id="rId93" xr:uid="{90FD78BF-33BC-9A4E-940E-5F7B252669EE}"/>
-    <hyperlink ref="G99" r:id="rId94" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{48C5F786-3EE5-7C44-88F4-99C48A9C8360}"/>
-    <hyperlink ref="G100" r:id="rId95" xr:uid="{33F85E84-3038-2640-8EC3-E798D3232FD8}"/>
-    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{F3EC284D-CD4C-7D4F-9377-38FD258BE91D}"/>
-    <hyperlink ref="G102" r:id="rId97" xr:uid="{737CFF8E-800D-8A47-B928-8A78546E290C}"/>
-    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{8727A66F-342B-574F-A124-9A7452A3A9D7}"/>
-    <hyperlink ref="G104" r:id="rId99" xr:uid="{ECCEF2F3-1081-9D48-A775-6168B4A5DBF6}"/>
-    <hyperlink ref="G105" r:id="rId100" xr:uid="{88E84D55-A336-B54A-8DCE-E361DFC96FD9}"/>
-    <hyperlink ref="G106" r:id="rId101" xr:uid="{3367A2BE-A5E8-0648-90B4-B028E9F67C08}"/>
-    <hyperlink ref="G107" r:id="rId102" xr:uid="{9BF6645B-ADAA-9B4F-A8F3-342199688560}"/>
-    <hyperlink ref="G108" r:id="rId103" xr:uid="{4A4E66E0-8E61-2C4C-A9A1-708720C08568}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4226,17 +3851,17 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +3889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -4279,7 +3904,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -4294,7 +3919,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>262</v>
       </c>
@@ -4309,7 +3934,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4323,7 +3948,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="25" t="s">
         <v>155</v>
       </c>
@@ -4332,84 +3957,84 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>263</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="15">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="15">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="15">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="15">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="15">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="15">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="15">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" ht="15">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" ht="15">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" ht="15">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" ht="15">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" ht="15">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
@@ -4428,15 +4053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4696,6 +4312,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4722,39 +4347,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2deb\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF5585A-E818-4704-BE18-E768748B127F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3FC757-D3B7-584D-914B-BC9038E1FB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
   <si>
     <t>Audience</t>
   </si>
@@ -842,13 +842,103 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Social Connection</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>HCA COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream... Corona Version</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>Adlay Stump</t>
+  </si>
+  <si>
+    <t>BC Centre for Palliative Care</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
+  </si>
+  <si>
+    <t>https://self-compassion.org/category/exercises/</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,7 +1104,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,6 +1167,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
@@ -1137,7 +1228,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1466,26 +1567,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90">
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -1577,7 +1678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1715,7 +1816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1885,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="60">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -1876,7 +1977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +2000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +2023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +2046,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
@@ -1968,7 +2069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +2092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +2184,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="75">
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2230,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="75">
+    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="90">
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>7</v>
       </c>
@@ -2198,7 +2299,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="90">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="90">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2345,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>7</v>
       </c>
@@ -2267,7 +2368,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2391,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2313,7 +2414,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2437,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105">
+    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2460,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2382,7 +2483,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2506,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2529,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +2552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2575,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="44" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2598,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2543,7 +2644,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2667,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2690,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2713,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
@@ -2635,7 +2736,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>155</v>
       </c>
@@ -2658,7 +2759,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2681,7 +2782,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2704,7 +2805,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +2828,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2851,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2874,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2796,7 +2897,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2920,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="60">
+    <row r="59" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>7</v>
       </c>
@@ -2842,7 +2943,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="60" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>7</v>
       </c>
@@ -2865,7 +2966,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="61" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="62" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +3012,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="63" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +3035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +3058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45">
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -2980,7 +3081,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +3104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45">
+    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -3026,7 +3127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45">
+    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -3049,7 +3150,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3173,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30">
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>7</v>
       </c>
@@ -3095,7 +3196,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3219,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3242,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30">
+    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +3265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>7</v>
       </c>
@@ -3187,7 +3288,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>7</v>
       </c>
@@ -3210,7 +3311,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45">
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3334,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +3357,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45">
+    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3380,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3302,7 +3403,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60">
+    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3348,7 +3449,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30">
+    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3472,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="22" customFormat="1" ht="45">
+    <row r="83" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>7</v>
       </c>
@@ -3394,7 +3495,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="22" customFormat="1" ht="75">
+    <row r="84" spans="1:7" s="22" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>155</v>
       </c>
@@ -3417,7 +3518,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3564,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3587,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="22" customFormat="1" ht="30">
+    <row r="88" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3610,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="22" customFormat="1" ht="15">
+    <row r="89" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3633,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30">
+    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3555,7 +3656,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30">
+    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3679,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3601,7 +3702,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3624,7 +3725,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="60">
+    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3647,7 +3748,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45">
+    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3771,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="75">
+    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3693,9 +3794,282 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" ht="15"/>
-    <row r="98" ht="15"/>
-    <row r="99" ht="15"/>
+    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E97" t="s">
+        <v>281</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" t="s">
+        <v>281</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99" t="s">
+        <v>281</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E100" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E101" t="s">
+        <v>282</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E102" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E103" t="s">
+        <v>281</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E106" t="s">
+        <v>280</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E107" t="s">
+        <v>279</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E108" t="s">
+        <v>278</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -3706,7 +4080,10 @@
     <sortCondition ref="D2:D67"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D96 D98:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -3801,9 +4178,21 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
+    <hyperlink ref="G108" r:id="rId92" xr:uid="{D937B828-0E52-A84E-B716-2CF05D0BAD58}"/>
+    <hyperlink ref="G107" r:id="rId93" xr:uid="{34D715D8-ACB8-A94E-8F98-CF792534AE64}"/>
+    <hyperlink ref="G106" r:id="rId94" xr:uid="{4DA8AB98-EDB6-C24F-9D8E-D47DF85AF325}"/>
+    <hyperlink ref="G105" r:id="rId95" xr:uid="{33EED3A2-1FA4-7A46-AA1B-A2024E85D25F}"/>
+    <hyperlink ref="G104" r:id="rId96" xr:uid="{B6CC9918-4BB4-F245-B9D1-20292FDD6E39}"/>
+    <hyperlink ref="G97" r:id="rId97" xr:uid="{E29CF4BE-9984-A642-970D-50C005B22C4D}"/>
+    <hyperlink ref="G98" r:id="rId98" xr:uid="{CE659889-A125-1E44-B90C-1BD16FF68792}"/>
+    <hyperlink ref="G99" r:id="rId99" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{BB91E405-ADCD-6C4C-B7D4-8BE3546ED36C}"/>
+    <hyperlink ref="G100" r:id="rId100" xr:uid="{BEED5158-72FC-9949-94FA-FB8219093FE1}"/>
+    <hyperlink ref="G101" r:id="rId101" location="t-6077" xr:uid="{2F6AD9A0-8676-A34F-B1C9-414A6B0B6AD1}"/>
+    <hyperlink ref="G102" r:id="rId102" xr:uid="{82724DF4-A9F8-AC4B-AB06-BE28198F7E9B}"/>
+    <hyperlink ref="G103" r:id="rId103" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{43C447A4-AC5D-0A41-B392-8C1A34C87BB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId92"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -3851,17 +4240,17 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -3875,7 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3889,7 +4278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -3904,7 +4293,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -3919,7 +4308,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>262</v>
       </c>
@@ -3934,7 +4323,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -3948,7 +4337,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>155</v>
       </c>
@@ -3957,84 +4346,84 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>263</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" ht="15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="2:4" ht="15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="2:4" ht="15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" ht="15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="2:4" ht="15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:4" ht="15">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" s="16"/>
     </row>
-    <row r="32" spans="2:4" ht="15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
     </row>
-    <row r="38" spans="4:4" ht="15">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="16"/>
     </row>
-    <row r="44" spans="4:4" ht="15">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="4:4" ht="15">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="4:4" ht="15">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="4:4" ht="15">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="16"/>
     </row>
   </sheetData>
@@ -4313,15 +4702,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -4346,14 +4726,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3FC757-D3B7-584D-914B-BC9038E1FB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC6C544-5408-F34E-BAE9-109DD16265B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,9 +1569,9 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4222,7 +4222,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
           <x14:formula1>
-            <xm:f>Data!$A:$A</xm:f>
+            <xm:f>Data!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -4442,6 +4442,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4701,41 +4735,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4752,23 +4771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC6C544-5408-F34E-BAE9-109DD16265B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B5DAB-F7E0-8F44-BB9B-1E94223A4F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="269">
   <si>
     <t>Audience</t>
   </si>
@@ -847,91 +847,10 @@
     <t>Health Care Assistant Summer 2020 Social Connection</t>
   </si>
   <si>
-    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
-  </si>
-  <si>
-    <t>Self-Compassion Guided Meditations and Exercises</t>
-  </si>
-  <si>
-    <t>How to Make Stress Your Friend</t>
-  </si>
-  <si>
-    <t>Working in Health Care during COVID-19</t>
-  </si>
-  <si>
-    <t>HCA COVID Needs Assessment</t>
-  </si>
-  <si>
-    <t>Well-being and Psychological Supports</t>
-  </si>
-  <si>
-    <t>Home and Community Care COVID-19 Toolkit</t>
-  </si>
-  <si>
-    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
-  </si>
-  <si>
-    <t>I Dreamed a Dream... Corona Version</t>
-  </si>
-  <si>
-    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
-  </si>
-  <si>
-    <t>Good Morning America</t>
-  </si>
-  <si>
-    <t>Sutton Shenanigans</t>
-  </si>
-  <si>
-    <t>Adlay Stump</t>
-  </si>
-  <si>
     <t>BC Centre for Palliative Care</t>
   </si>
   <si>
-    <t>Kelly McGonigal</t>
-  </si>
-  <si>
-    <t>Kristen Neff</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
-  </si>
-  <si>
-    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
-  </si>
-  <si>
-    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
-  </si>
-  <si>
-    <t>https://self-compassion.org/category/exercises/</t>
-  </si>
-  <si>
-    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1023,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1167,7 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
@@ -1228,17 +1146,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1567,11 +1475,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3808,266 +3716,13 @@
         <v>266</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E98" t="s">
-        <v>281</v>
-      </c>
-      <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="E99" t="s">
-        <v>281</v>
-      </c>
-      <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E100" t="s">
-        <v>283</v>
-      </c>
-      <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E101" t="s">
-        <v>282</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" s="32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E102" t="s">
-        <v>281</v>
-      </c>
-      <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E103" t="s">
-        <v>281</v>
-      </c>
-      <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E104" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E106" t="s">
-        <v>280</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E107" t="s">
-        <v>279</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="32" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E108" t="s">
-        <v>278</v>
-      </c>
-      <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="32" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4080,10 +3735,7 @@
     <sortCondition ref="D2:D67"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="D1:D96 D98:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -4178,21 +3830,10 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
-    <hyperlink ref="G108" r:id="rId92" xr:uid="{D937B828-0E52-A84E-B716-2CF05D0BAD58}"/>
-    <hyperlink ref="G107" r:id="rId93" xr:uid="{34D715D8-ACB8-A94E-8F98-CF792534AE64}"/>
-    <hyperlink ref="G106" r:id="rId94" xr:uid="{4DA8AB98-EDB6-C24F-9D8E-D47DF85AF325}"/>
-    <hyperlink ref="G105" r:id="rId95" xr:uid="{33EED3A2-1FA4-7A46-AA1B-A2024E85D25F}"/>
-    <hyperlink ref="G104" r:id="rId96" xr:uid="{B6CC9918-4BB4-F245-B9D1-20292FDD6E39}"/>
-    <hyperlink ref="G97" r:id="rId97" xr:uid="{E29CF4BE-9984-A642-970D-50C005B22C4D}"/>
-    <hyperlink ref="G98" r:id="rId98" xr:uid="{CE659889-A125-1E44-B90C-1BD16FF68792}"/>
-    <hyperlink ref="G99" r:id="rId99" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{BB91E405-ADCD-6C4C-B7D4-8BE3546ED36C}"/>
-    <hyperlink ref="G100" r:id="rId100" xr:uid="{BEED5158-72FC-9949-94FA-FB8219093FE1}"/>
-    <hyperlink ref="G101" r:id="rId101" location="t-6077" xr:uid="{2F6AD9A0-8676-A34F-B1C9-414A6B0B6AD1}"/>
-    <hyperlink ref="G102" r:id="rId102" xr:uid="{82724DF4-A9F8-AC4B-AB06-BE28198F7E9B}"/>
-    <hyperlink ref="G103" r:id="rId103" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{43C447A4-AC5D-0A41-B392-8C1A34C87BB0}"/>
+    <hyperlink ref="G97" r:id="rId92" xr:uid="{9C1E1962-C771-FC44-A801-55209932BFC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId93"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4222,7 +3863,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$7</xm:f>
+            <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -4442,40 +4083,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4735,10 +4342,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4755,20 +4407,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B5DAB-F7E0-8F44-BB9B-1E94223A4F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F91D2-5625-EF4C-9DC9-6FFCA6A547B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2300" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
   <si>
     <t>Audience</t>
   </si>
@@ -851,6 +851,87 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream... Corona Version</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
+    <t>HCA COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
+  </si>
+  <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
+    <t>Adlay Stump</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
+  </si>
+  <si>
+    <t>https://self-compassion.org/category/exercises/</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
 </sst>
 </file>
@@ -1475,11 +1556,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3723,6 +3804,259 @@
       </c>
       <c r="G97" s="6" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E99" t="s">
+        <v>267</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E100" t="s">
+        <v>279</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" t="s">
+        <v>280</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E106" t="s">
+        <v>281</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E107" t="s">
+        <v>282</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" t="s">
+        <v>283</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3831,9 +4165,20 @@
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
     <hyperlink ref="G97" r:id="rId92" xr:uid="{9C1E1962-C771-FC44-A801-55209932BFC3}"/>
+    <hyperlink ref="G98" r:id="rId93" xr:uid="{217118B1-29AD-9840-BDAB-8BAA0A514B6A}"/>
+    <hyperlink ref="G99" r:id="rId94" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{0FC1E362-1421-484E-AAFE-A16304E27FDD}"/>
+    <hyperlink ref="G100" r:id="rId95" xr:uid="{04673E6E-C7AD-724C-867D-3B7F4F3A25B8}"/>
+    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{EEA2D754-07C6-9048-BB92-5504EC5B3E37}"/>
+    <hyperlink ref="G102" r:id="rId97" xr:uid="{0313BF6F-701D-9346-B78E-26B9DF98A031}"/>
+    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{7E325F24-CAE3-9042-A4DC-6785C22465F6}"/>
+    <hyperlink ref="G104" r:id="rId99" xr:uid="{8521DCFF-703B-A94E-B6DF-90EEA59BB98A}"/>
+    <hyperlink ref="G105" r:id="rId100" xr:uid="{FCB1C206-B66A-0448-980E-6978E2975DE2}"/>
+    <hyperlink ref="G106" r:id="rId101" xr:uid="{00C492D1-6901-CE41-8F85-0D7CDAD83B12}"/>
+    <hyperlink ref="G107" r:id="rId102" xr:uid="{C699D03F-DEDA-3D47-8B94-FE0C157541E5}"/>
+    <hyperlink ref="G108" r:id="rId103" xr:uid="{12BD522E-A465-8E4F-B138-2F0C1CECB2A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId93"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4343,6 +4688,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -4367,15 +4721,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
@@ -4396,6 +4741,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4404,12 +4757,4 @@
     <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F91D2-5625-EF4C-9DC9-6FFCA6A547B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8BB84-5353-254F-97CD-9C80F21CF9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2300" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="273">
   <si>
     <t>Audience</t>
   </si>
@@ -853,51 +853,9 @@
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
   </si>
   <si>
-    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
-  </si>
-  <si>
-    <t>I Dreamed a Dream... Corona Version</t>
-  </si>
-  <si>
-    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
-  </si>
-  <si>
-    <t>Home and Community Care COVID-19 Toolkit</t>
-  </si>
-  <si>
-    <t>Well-being and Psychological Supports</t>
-  </si>
-  <si>
-    <t>HCA COVID Needs Assessment</t>
-  </si>
-  <si>
-    <t>Working in Health Care during COVID-19</t>
-  </si>
-  <si>
-    <t>How to Make Stress Your Friend</t>
-  </si>
-  <si>
-    <t>Self-Compassion Guided Meditations and Exercises</t>
-  </si>
-  <si>
     <t>Health Care Assistant Summer 2020 Resilience Handout</t>
   </si>
   <si>
-    <t>Kristen Neff</t>
-  </si>
-  <si>
-    <t>Kelly McGonigal</t>
-  </si>
-  <si>
-    <t>Adlay Stump</t>
-  </si>
-  <si>
-    <t>Sutton Shenanigans</t>
-  </si>
-  <si>
-    <t>Good Morning America</t>
-  </si>
-  <si>
     <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
   </si>
   <si>
@@ -905,33 +863,6 @@
   </si>
   <si>
     <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
-  </si>
-  <si>
-    <t>https://self-compassion.org/category/exercises/</t>
-  </si>
-  <si>
-    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
-  </si>
-  <si>
-    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
-  </si>
-  <si>
-    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1490,8 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3817,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E98" t="s">
         <v>267</v>
@@ -3826,7 +3757,7 @@
         <v>25</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
@@ -3840,7 +3771,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E99" t="s">
         <v>267</v>
@@ -3849,215 +3780,35 @@
         <v>25</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E100" t="s">
-        <v>279</v>
-      </c>
-      <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E101" t="s">
-        <v>280</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E102" t="s">
-        <v>267</v>
-      </c>
-      <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E103" t="s">
-        <v>267</v>
-      </c>
-      <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E104" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E106" t="s">
-        <v>281</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E107" t="s">
-        <v>282</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E108" t="s">
-        <v>283</v>
-      </c>
-      <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>295</v>
-      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
@@ -4167,18 +3918,9 @@
     <hyperlink ref="G97" r:id="rId92" xr:uid="{9C1E1962-C771-FC44-A801-55209932BFC3}"/>
     <hyperlink ref="G98" r:id="rId93" xr:uid="{217118B1-29AD-9840-BDAB-8BAA0A514B6A}"/>
     <hyperlink ref="G99" r:id="rId94" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{0FC1E362-1421-484E-AAFE-A16304E27FDD}"/>
-    <hyperlink ref="G100" r:id="rId95" xr:uid="{04673E6E-C7AD-724C-867D-3B7F4F3A25B8}"/>
-    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{EEA2D754-07C6-9048-BB92-5504EC5B3E37}"/>
-    <hyperlink ref="G102" r:id="rId97" xr:uid="{0313BF6F-701D-9346-B78E-26B9DF98A031}"/>
-    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{7E325F24-CAE3-9042-A4DC-6785C22465F6}"/>
-    <hyperlink ref="G104" r:id="rId99" xr:uid="{8521DCFF-703B-A94E-B6DF-90EEA59BB98A}"/>
-    <hyperlink ref="G105" r:id="rId100" xr:uid="{FCB1C206-B66A-0448-980E-6978E2975DE2}"/>
-    <hyperlink ref="G106" r:id="rId101" xr:uid="{00C492D1-6901-CE41-8F85-0D7CDAD83B12}"/>
-    <hyperlink ref="G107" r:id="rId102" xr:uid="{C699D03F-DEDA-3D47-8B94-FE0C157541E5}"/>
-    <hyperlink ref="G108" r:id="rId103" xr:uid="{12BD522E-A465-8E4F-B138-2F0C1CECB2A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId95"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4428,6 +4170,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4687,41 +4463,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4738,23 +4499,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8BB84-5353-254F-97CD-9C80F21CF9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A62A9BB-AB55-4841-9B24-03B5AB8516E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2300" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="283">
   <si>
     <t>Audience</t>
   </si>
@@ -853,9 +853,27 @@
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
   </si>
   <si>
+    <t>HCA COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
     <t>Health Care Assistant Summer 2020 Resilience Handout</t>
   </si>
   <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
     <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
   </si>
   <si>
@@ -863,6 +881,18 @@
   </si>
   <si>
     <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
+  </si>
+  <si>
+    <t>https://self-compassion.org/category/exercises/</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
   </si>
 </sst>
 </file>
@@ -1490,8 +1520,8 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="A104:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3748,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
         <v>267</v>
@@ -3757,7 +3787,7 @@
         <v>25</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
@@ -3771,7 +3801,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E99" t="s">
         <v>267</v>
@@ -3780,20 +3810,100 @@
         <v>25</v>
       </c>
       <c r="G99" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G103" s="6"/>
+      <c r="E100" t="s">
+        <v>274</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" t="s">
+        <v>275</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E102" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G104" s="6"/>
@@ -3918,9 +4028,13 @@
     <hyperlink ref="G97" r:id="rId92" xr:uid="{9C1E1962-C771-FC44-A801-55209932BFC3}"/>
     <hyperlink ref="G98" r:id="rId93" xr:uid="{217118B1-29AD-9840-BDAB-8BAA0A514B6A}"/>
     <hyperlink ref="G99" r:id="rId94" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{0FC1E362-1421-484E-AAFE-A16304E27FDD}"/>
+    <hyperlink ref="G100" r:id="rId95" xr:uid="{04673E6E-C7AD-724C-867D-3B7F4F3A25B8}"/>
+    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{EEA2D754-07C6-9048-BB92-5504EC5B3E37}"/>
+    <hyperlink ref="G102" r:id="rId97" xr:uid="{0313BF6F-701D-9346-B78E-26B9DF98A031}"/>
+    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{7E325F24-CAE3-9042-A4DC-6785C22465F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId95"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId99"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4170,31 +4284,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4203,7 +4292,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4463,18 +4552,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4482,7 +4585,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4499,4 +4602,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A62A9BB-AB55-4841-9B24-03B5AB8516E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{470FEC87-B6BE-E64B-BBD2-662C8C502334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2300" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="287">
   <si>
     <t>Audience</t>
   </si>
@@ -853,6 +853,12 @@
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
   </si>
   <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
     <t>HCA COVID Needs Assessment</t>
   </si>
   <si>
@@ -893,6 +899,12 @@
   </si>
   <si>
     <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="A104:XFD108"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3778,7 +3790,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
         <v>267</v>
@@ -3787,7 +3799,7 @@
         <v>25</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
@@ -3801,7 +3813,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
         <v>267</v>
@@ -3810,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3824,16 +3836,16 @@
         <v>22</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F100" t="s">
         <v>25</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3847,16 +3859,16 @@
         <v>27</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F101" t="s">
         <v>25</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3870,7 +3882,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E102" t="s">
         <v>267</v>
@@ -3879,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
@@ -3893,7 +3905,7 @@
         <v>15</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E103" t="s">
         <v>267</v>
@@ -3902,14 +3914,54 @@
         <v>25</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G105" s="6"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G106" s="6"/>
@@ -4032,9 +4084,11 @@
     <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{EEA2D754-07C6-9048-BB92-5504EC5B3E37}"/>
     <hyperlink ref="G102" r:id="rId97" xr:uid="{0313BF6F-701D-9346-B78E-26B9DF98A031}"/>
     <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{7E325F24-CAE3-9042-A4DC-6785C22465F6}"/>
+    <hyperlink ref="G104" r:id="rId99" xr:uid="{8521DCFF-703B-A94E-B6DF-90EEA59BB98A}"/>
+    <hyperlink ref="G105" r:id="rId100" xr:uid="{FCB1C206-B66A-0448-980E-6978E2975DE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId99"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId101"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4284,6 +4338,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4292,7 +4371,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4552,32 +4631,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4585,7 +4650,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4602,15 +4667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{470FEC87-B6BE-E64B-BBD2-662C8C502334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F91D2-5625-EF4C-9DC9-6FFCA6A547B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2300" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
   <si>
     <t>Audience</t>
   </si>
@@ -853,6 +853,15 @@
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
   </si>
   <si>
+    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream... Corona Version</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
     <t>Home and Community Care COVID-19 Toolkit</t>
   </si>
   <si>
@@ -880,6 +889,15 @@
     <t>Kelly McGonigal</t>
   </si>
   <si>
+    <t>Adlay Stump</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
     <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
   </si>
   <si>
@@ -905,6 +923,15 @@
   </si>
   <si>
     <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3790,7 +3817,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E98" t="s">
         <v>267</v>
@@ -3799,7 +3826,7 @@
         <v>25</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
@@ -3813,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E99" t="s">
         <v>267</v>
@@ -3822,7 +3849,7 @@
         <v>25</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3836,16 +3863,16 @@
         <v>22</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E100" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F100" t="s">
         <v>25</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3859,16 +3886,16 @@
         <v>27</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F101" t="s">
         <v>25</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3882,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
         <v>267</v>
@@ -3891,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
@@ -3905,7 +3932,7 @@
         <v>15</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E103" t="s">
         <v>267</v>
@@ -3914,7 +3941,7 @@
         <v>25</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -3928,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E104" t="s">
         <v>59</v>
@@ -3937,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3951,7 +3978,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E105" t="s">
         <v>35</v>
@@ -3960,17 +3987,77 @@
         <v>18</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G108" s="6"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E106" t="s">
+        <v>281</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E107" t="s">
+        <v>282</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" t="s">
+        <v>283</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
@@ -4086,9 +4173,12 @@
     <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{7E325F24-CAE3-9042-A4DC-6785C22465F6}"/>
     <hyperlink ref="G104" r:id="rId99" xr:uid="{8521DCFF-703B-A94E-B6DF-90EEA59BB98A}"/>
     <hyperlink ref="G105" r:id="rId100" xr:uid="{FCB1C206-B66A-0448-980E-6978E2975DE2}"/>
+    <hyperlink ref="G106" r:id="rId101" xr:uid="{00C492D1-6901-CE41-8F85-0D7CDAD83B12}"/>
+    <hyperlink ref="G107" r:id="rId102" xr:uid="{C699D03F-DEDA-3D47-8B94-FE0C157541E5}"/>
+    <hyperlink ref="G108" r:id="rId103" xr:uid="{12BD522E-A465-8E4F-B138-2F0C1CECB2A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId101"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4338,40 +4428,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4631,26 +4687,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4667,4 +4738,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F91D2-5625-EF4C-9DC9-6FFCA6A547B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF230B54-8213-3148-A077-9852126AAAB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2300" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,12 +853,6 @@
     <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
   </si>
   <si>
-    <t>Family’s Rendition of ‘One Day More’ from "Les Mis"</t>
-  </si>
-  <si>
-    <t>I Dreamed a Dream... Corona Version</t>
-  </si>
-  <si>
     <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
   </si>
   <si>
@@ -932,6 +926,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream-Corona Version</t>
   </si>
 </sst>
 </file>
@@ -1558,9 +1558,9 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3817,7 +3817,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E98" t="s">
         <v>267</v>
@@ -3826,7 +3826,7 @@
         <v>25</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
@@ -3840,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
         <v>267</v>
@@ -3849,7 +3849,7 @@
         <v>25</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3863,16 +3863,16 @@
         <v>22</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E100" t="s">
         <v>277</v>
       </c>
-      <c r="E100" t="s">
-        <v>279</v>
-      </c>
       <c r="F100" t="s">
         <v>25</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3886,16 +3886,16 @@
         <v>27</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F101" t="s">
         <v>25</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3909,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
         <v>267</v>
@@ -3918,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
@@ -3932,7 +3932,7 @@
         <v>15</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
         <v>267</v>
@@ -3941,7 +3941,7 @@
         <v>25</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E104" t="s">
         <v>59</v>
@@ -3964,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3978,7 +3978,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E105" t="s">
         <v>35</v>
@@ -3987,7 +3987,7 @@
         <v>18</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4001,16 +4001,16 @@
         <v>22</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E106" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F106" t="s">
         <v>25</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4024,16 +4024,16 @@
         <v>22</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="E107" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F107" t="s">
         <v>25</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4047,16 +4047,16 @@
         <v>22</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E108" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F108" t="s">
         <v>25</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4428,6 +4428,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4687,41 +4721,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4738,23 +4757,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF230B54-8213-3148-A077-9852126AAAB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF771CBB-BEBC-4530-B66D-99896A7E29B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2300" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
   <si>
     <t>Audience</t>
   </si>
@@ -832,6 +832,99 @@
     <t>https://www.virtualhospice.ca/en_US/Main+Site+Navigation/Home/Support/Support/The+Video+Gallery/For+Professionals/Life+and+work+in+the+time+of+COVID_19+_+The+Conversation+Continues_+June+2020.aspx#video_content_details</t>
   </si>
   <si>
+    <t>Health Care Assistant Summer 2020 Social Connection</t>
+  </si>
+  <si>
+    <t>BC Centre for Palliative Care</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
+  </si>
+  <si>
+    <t>Self-Compassion Guided Meditations and Exercises</t>
+  </si>
+  <si>
+    <t>Kristen Neff</t>
+  </si>
+  <si>
+    <t>https://self-compassion.org/category/exercises/</t>
+  </si>
+  <si>
+    <t>How to Make Stress Your Friend</t>
+  </si>
+  <si>
+    <t>Kelly McGonigal</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
+  </si>
+  <si>
+    <t>Working in Health Care during COVID-19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>HCA_x000D_ COVID Needs Assessment</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
+  </si>
+  <si>
+    <t>Well-being and Psychological Supports</t>
+  </si>
+  <si>
+    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
+  </si>
+  <si>
+    <t>Home and Community Care COVID-19 Toolkit</t>
+  </si>
+  <si>
+    <t>First Nations Health_x000D_ Authority</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
+  </si>
+  <si>
+    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adlay Stump </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
+  </si>
+  <si>
+    <t>I Dreamed a Dream Corona Version</t>
+  </si>
+  <si>
+    <t>Sutton Shenanigans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
+  </si>
+  <si>
+    <t>Family’s Rendition of ‘One Day More’</t>
+  </si>
+  <si>
+    <t>Good Morning America</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
+  </si>
+  <si>
     <t>Physicians</t>
   </si>
   <si>
@@ -842,103 +935,13 @@
   </si>
   <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Social Connection</t>
-  </si>
-  <si>
-    <t>BC Centre for Palliative Care</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5gSoo2kmHi0</t>
-  </si>
-  <si>
-    <t>Woman Makes Announcement from Home Giving Safety Measures against Coronavirus</t>
-  </si>
-  <si>
-    <t>Home and Community Care COVID-19 Toolkit</t>
-  </si>
-  <si>
-    <t>Well-being and Psychological Supports</t>
-  </si>
-  <si>
-    <t>HCA COVID Needs Assessment</t>
-  </si>
-  <si>
-    <t>Working in Health Care during COVID-19</t>
-  </si>
-  <si>
-    <t>How to Make Stress Your Friend</t>
-  </si>
-  <si>
-    <t>Self-Compassion Guided Meditations and Exercises</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 Resilience Handout</t>
-  </si>
-  <si>
-    <t>Kristen Neff</t>
-  </si>
-  <si>
-    <t>Kelly McGonigal</t>
-  </si>
-  <si>
-    <t>Adlay Stump</t>
-  </si>
-  <si>
-    <t>Sutton Shenanigans</t>
-  </si>
-  <si>
-    <t>Good Morning America</t>
-  </si>
-  <si>
-    <t>Health Care Assistant Summer 2020 - Dealing Fear &amp; Anxiety Presentation</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_p6ct97vhHw&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw</t>
-  </si>
-  <si>
-    <t>https://self-compassion.org/category/exercises/</t>
-  </si>
-  <si>
-    <t>https://www.ted.com/talks/kelly_mcgonigal_how_to_make_stress_your_friend?language=en#t-6077</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mAydHEj7JqI&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw</t>
-  </si>
-  <si>
-    <t>https://www.fraserhealth.ca/employees/clinical-resources/coronavirus-information/well-being-and-psychological-supports</t>
-  </si>
-  <si>
-    <t>https://www.fnha.ca/Documents/FNHA-Home-and-Community-Care-COVID-19-Toolkit.pdf</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Osbxp8pyBGk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_XM5hc5eJyI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
-  </si>
-  <si>
-    <t>Family’s Rendition of ‘One Day More’</t>
-  </si>
-  <si>
-    <t>I Dreamed a Dream-Corona Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,7 +1107,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1115,12 +1118,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1134,9 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1144,11 +1140,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1162,68 +1154,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1558,24 +1554,24 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="52.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,11 +1590,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1617,57 +1613,57 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1686,41 +1682,41 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1729,14 +1725,14 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1752,83 +1748,83 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:7" ht="51" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1847,11 +1843,11 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1870,11 +1866,11 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1893,34 +1889,34 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1933,40 +1929,40 @@
       <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1985,80 +1981,80 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2077,11 +2073,11 @@
       <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2100,34 +2096,34 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2146,11 +2142,11 @@
       <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2163,17 +2159,17 @@
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2192,57 +2188,57 @@
       <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="22" t="s">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="F29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="45">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2261,103 +2257,103 @@
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="21" t="s">
+      <c r="F32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="22" t="s">
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2376,11 +2372,11 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2399,18 +2395,18 @@
       <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2422,34 +2418,34 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="22" t="s">
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2468,80 +2464,80 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="21" t="s">
+      <c r="F40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="22" t="s">
+    <row r="41" spans="1:7" ht="45">
+      <c r="A41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="19" t="s">
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="21" t="s">
+      <c r="F42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="60">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2560,34 +2556,34 @@
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="27" t="s">
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A44" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="18" customFormat="1" ht="30">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2606,11 +2602,11 @@
       <c r="F45" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2629,11 +2625,11 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2649,37 +2645,37 @@
       <c r="E47" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="22" t="s">
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="21" t="s">
+      <c r="F48" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2698,18 +2694,18 @@
       <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2718,37 +2714,37 @@
       <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2767,11 +2763,11 @@
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2790,11 +2786,11 @@
       <c r="F53" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2813,80 +2809,80 @@
       <c r="F54" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="22" t="s">
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="21" t="s">
+      <c r="F56" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2905,80 +2901,80 @@
       <c r="F58" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="22" t="s">
+    <row r="60" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="21" t="s">
+      <c r="F60" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="22" t="s">
+    <row r="61" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="23" t="s">
+      <c r="F61" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2997,57 +2993,57 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="22" t="s">
+    <row r="63" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A63" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="18" customFormat="1" ht="45">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="45">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -3066,241 +3062,241 @@
       <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+    <row r="66" spans="1:7" ht="30">
+      <c r="A66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="21" t="s">
+      <c r="F66" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="27" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="45">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="27" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="19" t="s">
+    <row r="69" spans="1:7" ht="30">
+      <c r="A69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="21" t="s">
+      <c r="F69" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="19" t="s">
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="22" t="s">
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
+    <row r="72" spans="1:7" ht="15">
+      <c r="A72" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="21" t="s">
+      <c r="F72" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="29" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="22" t="s">
+    <row r="73" spans="1:7" ht="30">
+      <c r="A73" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="21" t="s">
+      <c r="F73" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="22" t="s">
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="29" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="22" t="s">
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="45">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3319,11 +3315,11 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="45">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3342,34 +3338,34 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="45">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="45">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3388,34 +3384,34 @@
       <c r="F79" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="22" t="s">
+    <row r="80" spans="1:7" ht="15">
+      <c r="A80" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="60">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3434,11 +3430,11 @@
       <c r="F81" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="27" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="30">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3457,80 +3453,80 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="27" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="22" t="s">
+    <row r="83" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="22" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:7" s="18" customFormat="1" ht="45">
+      <c r="A84" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="29" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="22" t="s">
+    <row r="85" spans="1:7" ht="15">
+      <c r="A85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3543,17 +3539,17 @@
       <c r="D86" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="18" t="s">
         <v>241</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3572,57 +3568,57 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="22" t="s">
+    <row r="88" spans="1:7" s="18" customFormat="1" ht="30">
+      <c r="A88" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="21" t="s">
+      <c r="G88" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="22" t="s">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15">
+      <c r="A89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="21" t="s">
+      <c r="F89" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="29" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="30">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3641,11 +3637,11 @@
       <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="27" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="30">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3664,11 +3660,11 @@
       <c r="F91" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="27" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3687,11 +3683,11 @@
       <c r="F92" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="30">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3710,11 +3706,11 @@
       <c r="F93" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="27" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="60">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3733,11 +3729,11 @@
       <c r="F94" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="45">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3756,11 +3752,11 @@
       <c r="F95" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="45">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3779,11 +3775,11 @@
       <c r="F96" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="27" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="30">
       <c r="A97" s="4" t="s">
         <v>65</v>
       </c>
@@ -3794,19 +3790,19 @@
         <v>15</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E97" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G97" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30">
       <c r="A98" s="4" t="s">
         <v>65</v>
       </c>
@@ -3817,19 +3813,19 @@
         <v>15</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F98" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="G98" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30">
       <c r="A99" s="4" t="s">
         <v>65</v>
       </c>
@@ -3840,19 +3836,19 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E99" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F99" t="s">
         <v>25</v>
       </c>
-      <c r="G99" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G99" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30">
       <c r="A100" s="4" t="s">
         <v>65</v>
       </c>
@@ -3863,19 +3859,19 @@
         <v>22</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F100" t="s">
         <v>25</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G100" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30">
       <c r="A101" s="4" t="s">
         <v>65</v>
       </c>
@@ -3886,19 +3882,19 @@
         <v>27</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" t="s">
+        <v>273</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="E101" t="s">
-        <v>278</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:7" ht="30">
       <c r="A102" s="4" t="s">
         <v>65</v>
       </c>
@@ -3909,19 +3905,19 @@
         <v>15</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F102" t="s">
         <v>25</v>
       </c>
-      <c r="G102" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="G102" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30">
       <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
@@ -3932,19 +3928,19 @@
         <v>15</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F103" t="s">
         <v>25</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G103" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30">
       <c r="A104" s="4" t="s">
         <v>65</v>
       </c>
@@ -3955,7 +3951,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
         <v>59</v>
@@ -3963,11 +3959,11 @@
       <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G104" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30">
       <c r="A105" s="4" t="s">
         <v>65</v>
       </c>
@@ -3978,19 +3974,19 @@
         <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G105" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30">
       <c r="A106" s="4" t="s">
         <v>65</v>
       </c>
@@ -4001,19 +3997,19 @@
         <v>22</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F106" t="s">
         <v>25</v>
       </c>
-      <c r="G106" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G106" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30">
       <c r="A107" s="4" t="s">
         <v>65</v>
       </c>
@@ -4024,19 +4020,19 @@
         <v>22</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E107" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F107" t="s">
         <v>25</v>
       </c>
-      <c r="G107" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G107" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
       <c r="A108" s="4" t="s">
         <v>65</v>
       </c>
@@ -4047,16 +4043,16 @@
         <v>22</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F108" t="s">
         <v>25</v>
       </c>
-      <c r="G108" s="6" t="s">
-        <v>293</v>
+      <c r="G108" s="27" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4164,36 +4160,24 @@
     <hyperlink ref="G94" r:id="rId89" xr:uid="{65FACFA1-6D91-4F5C-88C4-C45939FF38B6}"/>
     <hyperlink ref="G95" r:id="rId90" xr:uid="{819C11F7-FA7F-4A39-A0BE-E9D41E30B540}"/>
     <hyperlink ref="G96" r:id="rId91" location="video_content_details" xr:uid="{F1875F81-3639-431B-9D75-C99C5C4C746F}"/>
-    <hyperlink ref="G97" r:id="rId92" xr:uid="{9C1E1962-C771-FC44-A801-55209932BFC3}"/>
-    <hyperlink ref="G98" r:id="rId93" xr:uid="{217118B1-29AD-9840-BDAB-8BAA0A514B6A}"/>
-    <hyperlink ref="G99" r:id="rId94" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{0FC1E362-1421-484E-AAFE-A16304E27FDD}"/>
-    <hyperlink ref="G100" r:id="rId95" xr:uid="{04673E6E-C7AD-724C-867D-3B7F4F3A25B8}"/>
-    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{EEA2D754-07C6-9048-BB92-5504EC5B3E37}"/>
-    <hyperlink ref="G102" r:id="rId97" xr:uid="{0313BF6F-701D-9346-B78E-26B9DF98A031}"/>
-    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{7E325F24-CAE3-9042-A4DC-6785C22465F6}"/>
-    <hyperlink ref="G104" r:id="rId99" xr:uid="{8521DCFF-703B-A94E-B6DF-90EEA59BB98A}"/>
-    <hyperlink ref="G105" r:id="rId100" xr:uid="{FCB1C206-B66A-0448-980E-6978E2975DE2}"/>
-    <hyperlink ref="G106" r:id="rId101" xr:uid="{00C492D1-6901-CE41-8F85-0D7CDAD83B12}"/>
-    <hyperlink ref="G107" r:id="rId102" xr:uid="{C699D03F-DEDA-3D47-8B94-FE0C157541E5}"/>
-    <hyperlink ref="G108" r:id="rId103" xr:uid="{12BD522E-A465-8E4F-B138-2F0C1CECB2A9}"/>
+    <hyperlink ref="G97" r:id="rId92" xr:uid="{D2028EB2-A31A-4989-A284-E01C3712125B}"/>
+    <hyperlink ref="G99" r:id="rId93" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support%2FPatioTalk%20Resilience%20handout%202020%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FBCCPC%20Core%2FCOVID%2D19%2FStrategic%20Initiatives%2FHCA%20education%20and%20support&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWQ1UExvN1ZKYUpLaGVMdVk3aEY3NU1CMjZXMURXcEpjS2U1RThEWlpReGpvUT9ydGltZT1vR3JfTU4wejJFZw" xr:uid="{82A501D8-B54B-4AF3-9CAD-F7393E598666}"/>
+    <hyperlink ref="G98" r:id="rId94" xr:uid="{E9F8FC38-D02B-4775-BA08-E6990A18039F}"/>
+    <hyperlink ref="G100" r:id="rId95" xr:uid="{A83AF6C8-C38B-4798-89D8-A7BC2EACCFE4}"/>
+    <hyperlink ref="G101" r:id="rId96" location="t-6077" xr:uid="{C90C0CA2-ACF5-44B6-948A-49569954CB17}"/>
+    <hyperlink ref="G102" r:id="rId97" xr:uid="{5B94CA47-2A8A-47C7-9C4B-74C54AFEFF04}"/>
+    <hyperlink ref="G103" r:id="rId98" display="https://ihsts.sharepoint.com/sites/bc-cpc/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report%2FHCA%20COVID%20needs%20assessment%2Epdf&amp;parent=%2Fsites%2Fbc%2Dcpc%2FShared%20Documents%2FCommunications%2F2020%20Communications%2FStrategic%20Initiatives%2FHCA%20needs%20assessment%20report&amp;p=true&amp;originalPath=aHR0cHM6Ly9paHN0cy5zaGFyZXBvaW50LmNvbS86Yjovcy9iYy1jcGMvRWRkS0NPZ1hfXzFJanNvV1RHNnl3RDhCZGF6RjZBRlhFdUszUjVhUGpQaUZUUT9ydGltZT1WaHB6TmQ4ejJFZw" xr:uid="{511ED429-7238-4CC4-9E9F-D047F6257D04}"/>
+    <hyperlink ref="G104" r:id="rId99" xr:uid="{A71C45B7-D48A-4CD0-92DF-3424FA73489A}"/>
+    <hyperlink ref="G105" r:id="rId100" xr:uid="{CE487645-A122-4866-8191-1091A831602D}"/>
+    <hyperlink ref="G106" r:id="rId101" xr:uid="{0F7E6ECE-7896-4818-9454-68DD8484233E}"/>
+    <hyperlink ref="G107" r:id="rId102" xr:uid="{CABE5062-D581-4F27-B525-022708794AD1}"/>
+    <hyperlink ref="G108" r:id="rId103" xr:uid="{7B9098D4-ECE4-48A1-AA82-C5B6923781C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7511B102-3DA6-4897-9B25-149E103336E2}">
-          <x14:formula1>
-            <xm:f>Data!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F57 F59:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F86E01A6-9BFD-44B3-AEA9-2E6F3E8FCA17}">
-          <x14:formula1>
-            <xm:f>Data!$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>F58</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Data!$B$2:$B$6</xm:f>
@@ -4208,9 +4192,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7DC8AE-F9E2-45F8-A2AE-429A34517105}">
           <x14:formula1>
-            <xm:f>Data!$A:$A</xm:f>
+            <xm:f>Data!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10EC01DF-6468-4178-A358-7210F8A6D527}">
+          <x14:formula1>
+            <xm:f>Data!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4223,38 +4213,38 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
@@ -4264,11 +4254,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
@@ -4277,28 +4267,28 @@
       <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
@@ -4309,7 +4299,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4319,12 +4309,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="20" t="s">
         <v>155</v>
       </c>
       <c r="B7"/>
@@ -4332,85 +4322,85 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15">
       <c r="B8"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15">
       <c r="B13"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15">
       <c r="B16"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="2:4" ht="15">
       <c r="B17"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:4" ht="15">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" ht="15">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="16"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="16"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="16"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D47" s="16"/>
+    <row r="26" spans="2:4" ht="15">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:4" ht="15">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:4" ht="15">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="32" spans="2:4" ht="15">
+      <c r="D32" s="14"/>
+    </row>
+    <row r="38" spans="4:4" ht="15">
+      <c r="D38" s="14"/>
+    </row>
+    <row r="44" spans="4:4" ht="15">
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="4:4" ht="15">
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="4:4" ht="15">
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="4:4" ht="15">
+      <c r="D47" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D6">
@@ -4428,40 +4418,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4721,40 +4677,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF771CBB-BEBC-4530-B66D-99896A7E29B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB6B7CD-AB5B-488D-AE95-6A60993560A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="308">
   <si>
     <t>Audience</t>
   </si>
@@ -923,6 +923,39 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DZafX_U5aqs</t>
+  </si>
+  <si>
+    <t>Mental Health Support for Healthcare Providers</t>
+  </si>
+  <si>
+    <t>https://cmha.bc.ca/mental-health/mental-health-information/</t>
+  </si>
+  <si>
+    <t>Care to Speak</t>
+  </si>
+  <si>
+    <t>https://www.careforcaregivers.ca/caretospeak/</t>
+  </si>
+  <si>
+    <t>Mobile Response Team &amp; COVID-19</t>
+  </si>
+  <si>
+    <t>Provincial Health Services Authority</t>
+  </si>
+  <si>
+    <t>https://www2.gov.bc.ca/gov/content/overdose/mobile-response-team</t>
+  </si>
+  <si>
+    <t>Home Support Workers: Safe Return to Work</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Home-Support-Workers-Safe-Return-to-Work.pdf</t>
+  </si>
+  <si>
+    <t>Personal Grief Rituals</t>
+  </si>
+  <si>
+    <t>https://ihsts.sharepoint.com/:b:/s/bc-cpc/EX6vaw8mMtRNvCjCMaHh9k4B6sFusgGe1JrhjtyhzF3ybg?e=BZQI80</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1107,7 +1140,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1163,63 +1196,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1552,11 +1594,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="D108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4053,6 +4095,121 @@
       </c>
       <c r="G108" s="27" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30">
+      <c r="A109" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30">
+      <c r="A110" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30">
+      <c r="A111" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E111" t="s">
+        <v>298</v>
+      </c>
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30">
+      <c r="A112" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30">
+      <c r="A113" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>302</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F113" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="33" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4172,9 +4329,14 @@
     <hyperlink ref="G106" r:id="rId101" xr:uid="{0F7E6ECE-7896-4818-9454-68DD8484233E}"/>
     <hyperlink ref="G107" r:id="rId102" xr:uid="{CABE5062-D581-4F27-B525-022708794AD1}"/>
     <hyperlink ref="G108" r:id="rId103" xr:uid="{7B9098D4-ECE4-48A1-AA82-C5B6923781C3}"/>
+    <hyperlink ref="G111" r:id="rId104" xr:uid="{B0F4ED21-6D7E-435B-BC7D-053F28130305}"/>
+    <hyperlink ref="G110" r:id="rId105" xr:uid="{A3B51F86-B5FB-403D-8CE1-22D99E5FE8F9}"/>
+    <hyperlink ref="G109" r:id="rId106" xr:uid="{9C1D708E-82B7-431D-A404-2FFF78CEB00F}"/>
+    <hyperlink ref="G112" r:id="rId107" xr:uid="{2DA48C97-400B-4D06-A015-DA677EED2588}"/>
+    <hyperlink ref="G113" r:id="rId108" xr:uid="{C59C46D8-7A9B-4D16-9E2E-812136BE1918}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId104"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId109"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4286,7 +4448,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -4332,20 +4494,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -4418,6 +4580,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -4677,42 +4873,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4720,5 +4882,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23223"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB6B7CD-AB5B-488D-AE95-6A60993560A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCC39BD-4BB5-4A73-9C06-BBEF75DB3308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="325">
   <si>
     <t>Audience</t>
   </si>
@@ -956,6 +956,57 @@
   </si>
   <si>
     <t>https://ihsts.sharepoint.com/:b:/s/bc-cpc/EX6vaw8mMtRNvCjCMaHh9k4B6sFusgGe1JrhjtyhzF3ybg?e=BZQI80</t>
+  </si>
+  <si>
+    <t>Health Care Assistants Summer 2020 Self-Reflection to Support Grief and Growth</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eawdB0kqx60&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>The Gift and Power of Emotional Courage</t>
+  </si>
+  <si>
+    <t>Susan David</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/susan_david_the_gift_and_power_of_emotional_courage</t>
+  </si>
+  <si>
+    <t>How Journaling Can Help You in Hard Times</t>
+  </si>
+  <si>
+    <t>Kira M. Newman</t>
+  </si>
+  <si>
+    <t>https://greatergood.berkeley.edu/article/item/how_journaling_can_help_you_in_hard_times</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Adapting Rituals of Grief &amp; Growth</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XXb4j8gRxEw&amp;t=6s</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Social Connection in a Time of Physical Distancing</t>
+  </si>
+  <si>
+    <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-1-Social-Connection.pdf</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Dealing with Fear &amp; Anxiety</t>
+  </si>
+  <si>
+    <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-2-Fear-and-Anxiety.pdf</t>
+  </si>
+  <si>
+    <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-3-Rituals.pdf</t>
+  </si>
+  <si>
+    <t>Health Care Assistant Summer 2020 Self-Reflection to Support Grief and Growth</t>
+  </si>
+  <si>
+    <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-4-Reflection.pdf</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1207,61 +1258,61 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1594,11 +1645,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
+      <pane ySplit="1" topLeftCell="D112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4210,6 +4261,190 @@
       </c>
       <c r="G113" s="33" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30">
+      <c r="A114" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30">
+      <c r="A115" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30">
+      <c r="A116" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="F116" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30">
+      <c r="A117" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F117" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30">
+      <c r="A118" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30">
+      <c r="A119" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F119" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30">
+      <c r="A120" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F120" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30">
+      <c r="A121" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F121" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="27" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4334,9 +4569,17 @@
     <hyperlink ref="G109" r:id="rId106" xr:uid="{9C1D708E-82B7-431D-A404-2FFF78CEB00F}"/>
     <hyperlink ref="G112" r:id="rId107" xr:uid="{2DA48C97-400B-4D06-A015-DA677EED2588}"/>
     <hyperlink ref="G113" r:id="rId108" xr:uid="{C59C46D8-7A9B-4D16-9E2E-812136BE1918}"/>
+    <hyperlink ref="G114" r:id="rId109" xr:uid="{8AC04176-9F68-4712-9C2E-97DE520C6168}"/>
+    <hyperlink ref="G115" r:id="rId110" xr:uid="{34449B95-C5B1-44F6-9264-F913D2E56E20}"/>
+    <hyperlink ref="G116" r:id="rId111" xr:uid="{91E1C451-60ED-4757-A2BA-03FAD9A81EF7}"/>
+    <hyperlink ref="G117" r:id="rId112" xr:uid="{1FEA0498-D9E7-4BC6-960C-4721B3A9344E}"/>
+    <hyperlink ref="G118" r:id="rId113" xr:uid="{12777953-0BB8-4B09-B140-72E5FE2BC319}"/>
+    <hyperlink ref="G119" r:id="rId114" xr:uid="{4988832C-BCB9-489F-B6CA-84411877FC88}"/>
+    <hyperlink ref="G120" r:id="rId115" xr:uid="{81CEAA16-146D-4E1C-B9D6-AE7831DF18EF}"/>
+    <hyperlink ref="G121" r:id="rId116" xr:uid="{24DA55B3-EDB0-40C3-8BBE-BB64D27164FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId109"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId117"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4448,7 +4691,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -4494,20 +4737,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -4580,15 +4823,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -4611,6 +4845,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4874,11 +5117,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCC39BD-4BB5-4A73-9C06-BBEF75DB3308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F162017D-47E1-429C-8985-96EEBFEA2C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="326">
   <si>
     <t>Audience</t>
   </si>
@@ -958,7 +958,7 @@
     <t>https://ihsts.sharepoint.com/:b:/s/bc-cpc/EX6vaw8mMtRNvCjCMaHh9k4B6sFusgGe1JrhjtyhzF3ybg?e=BZQI80</t>
   </si>
   <si>
-    <t>Health Care Assistants Summer 2020 Self-Reflection to Support Grief and Growth</t>
+    <t>Health Care Assistants Summer 2020 Self-Reflection to Support Grief and Growth-Video</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=eawdB0kqx60&amp;feature=youtu.be</t>
@@ -982,28 +982,31 @@
     <t>https://greatergood.berkeley.edu/article/item/how_journaling_can_help_you_in_hard_times</t>
   </si>
   <si>
-    <t>Health Care Assistant Summer 2020 Adapting Rituals of Grief &amp; Growth</t>
+    <t>Health Care Assistant Summer 2020 Adapting Rituals of Grief &amp; Growth-Video</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XXb4j8gRxEw&amp;t=6s</t>
   </si>
   <si>
-    <t>Health Care Assistant Summer 2020 Social Connection in a Time of Physical Distancing</t>
+    <t>Health Care Assistant Summer 2020 Social Connection in a Time of Physical Distancing - Presentation Slides</t>
   </si>
   <si>
     <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-1-Social-Connection.pdf</t>
   </si>
   <si>
-    <t>Health Care Assistant Summer 2020 Dealing with Fear &amp; Anxiety</t>
+    <t>Health Care Assistant Summer 2020 Dealing with Fear &amp; Anxiety - Presentation Slides</t>
   </si>
   <si>
     <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-2-Fear-and-Anxiety.pdf</t>
   </si>
   <si>
+    <t>Health Care Assistant Summer 2020 Adapting Rituals of Grief &amp; Growth - Presentation Slides</t>
+  </si>
+  <si>
     <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-3-Rituals.pdf</t>
   </si>
   <si>
-    <t>Health Care Assistant Summer 2020 Self-Reflection to Support Grief and Growth</t>
+    <t>Health Care Assistant Summer 2020 Self-Reflection to Support Grief and Growth - Presentation Slides</t>
   </si>
   <si>
     <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-4-Reflection.pdf</t>
@@ -1258,61 +1261,61 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1648,8 +1651,8 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4263,7 +4266,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30">
+    <row r="114" spans="1:7" ht="45">
       <c r="A114" s="31" t="s">
         <v>65</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30">
+    <row r="118" spans="1:7" ht="45">
       <c r="A118" s="31" t="s">
         <v>65</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30">
+    <row r="120" spans="1:7" ht="45">
       <c r="A120" s="31" t="s">
         <v>65</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>15</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E120" s="32" t="s">
         <v>263</v>
@@ -4421,10 +4424,10 @@
         <v>25</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="30">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="45">
       <c r="A121" s="31" t="s">
         <v>65</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E121" s="32" t="s">
         <v>263</v>
@@ -4444,7 +4447,7 @@
         <v>25</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -4737,20 +4740,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -4823,6 +4826,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -4845,15 +4857,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5117,11 +5120,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F162017D-47E1-429C-8985-96EEBFEA2C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{116A83ED-46E6-4338-8DA5-F8EC1737ACA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="328">
   <si>
     <t>Audience</t>
   </si>
@@ -1010,6 +1010,12 @@
   </si>
   <si>
     <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/08/BCCPC-Patio-Ponderings-4-Reflection.pdf</t>
+  </si>
+  <si>
+    <t>Clinical Protocols: What Real Cases Have Taught Us</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A-Z49i2yHbY</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1261,61 +1267,61 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1648,11 +1654,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122:A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4448,6 +4454,29 @@
       </c>
       <c r="G121" s="27" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15">
+      <c r="A122" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>322</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F122" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="33" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4580,9 +4609,10 @@
     <hyperlink ref="G119" r:id="rId114" xr:uid="{4988832C-BCB9-489F-B6CA-84411877FC88}"/>
     <hyperlink ref="G120" r:id="rId115" xr:uid="{81CEAA16-146D-4E1C-B9D6-AE7831DF18EF}"/>
     <hyperlink ref="G121" r:id="rId116" xr:uid="{24DA55B3-EDB0-40C3-8BBE-BB64D27164FC}"/>
+    <hyperlink ref="G122" r:id="rId117" xr:uid="{739EF9BF-EAFB-49C9-8690-5BF24F42A8FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId117"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId118"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4694,7 +4724,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -4740,20 +4770,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -4826,40 +4856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -5119,8 +5115,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5128,5 +5158,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116A83ED-46E6-4338-8DA5-F8EC1737ACA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B479A0-28E9-4379-BD1A-0C4CC73CE005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="331">
   <si>
     <t>Audience</t>
   </si>
@@ -1016,6 +1017,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=A-Z49i2yHbY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying Psychological Impacts &amp; Needs Due to COVID 19 Part 1 </t>
+  </si>
+  <si>
+    <t>Diana Vissers</t>
+  </si>
+  <si>
+    <t>https://www.bcmsa.ca/wp-content/uploads/2020/09/WTW-Toolkit-Part-1-Final-1.pdf</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1267,61 +1277,61 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1654,7 +1664,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
@@ -4477,6 +4487,29 @@
       </c>
       <c r="G122" s="33" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30">
+      <c r="A123" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>324</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="F123" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="33" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4610,9 +4643,10 @@
     <hyperlink ref="G120" r:id="rId115" xr:uid="{81CEAA16-146D-4E1C-B9D6-AE7831DF18EF}"/>
     <hyperlink ref="G121" r:id="rId116" xr:uid="{24DA55B3-EDB0-40C3-8BBE-BB64D27164FC}"/>
     <hyperlink ref="G122" r:id="rId117" xr:uid="{739EF9BF-EAFB-49C9-8690-5BF24F42A8FE}"/>
+    <hyperlink ref="G123" r:id="rId118" xr:uid="{B745374F-519A-446D-B191-57C74A27A027}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId118"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId119"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4724,7 +4758,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -4770,20 +4804,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -5116,6 +5150,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
@@ -5140,23 +5183,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B479A0-28E9-4379-BD1A-0C4CC73CE005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{068DA24F-553A-4A60-A36A-3594A419EEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="335">
   <si>
     <t>Audience</t>
   </si>
@@ -1026,6 +1026,18 @@
   </si>
   <si>
     <t>https://www.bcmsa.ca/wp-content/uploads/2020/09/WTW-Toolkit-Part-1-Final-1.pdf</t>
+  </si>
+  <si>
+    <t>Preparing Communities for End of Life Journey in Community</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Preparing-Communities-for-End-of-Life-Journey-in-Community.pdf</t>
+  </si>
+  <si>
+    <t>For Nurses: Advance Care Planning during COVID 19</t>
+  </si>
+  <si>
+    <t>https://www.fnha.ca/Documents/FNHA-Advance-Care-Planning-During-Covid-19-Guide.pdf</t>
   </si>
   <si>
     <t>Physicians</t>
@@ -1044,7 +1056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1118,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1210,7 +1229,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1275,63 +1294,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1664,11 +1684,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122:A123"/>
+      <pane ySplit="1" topLeftCell="D120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4512,6 +4532,52 @@
         <v>326</v>
       </c>
     </row>
+    <row r="124" spans="1:7" ht="15">
+      <c r="A124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30">
+      <c r="A125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="27" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G58" xr:uid="{01F70AC8-F911-4676-9746-6E4145D26250}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
@@ -4522,7 +4588,7 @@
     <sortCondition ref="D2:D67"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D123 D125:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -4644,9 +4710,11 @@
     <hyperlink ref="G121" r:id="rId116" xr:uid="{24DA55B3-EDB0-40C3-8BBE-BB64D27164FC}"/>
     <hyperlink ref="G122" r:id="rId117" xr:uid="{739EF9BF-EAFB-49C9-8690-5BF24F42A8FE}"/>
     <hyperlink ref="G123" r:id="rId118" xr:uid="{B745374F-519A-446D-B191-57C74A27A027}"/>
+    <hyperlink ref="G124" r:id="rId119" xr:uid="{39402CC8-B8B4-46E1-A2B3-0BC13999F6E0}"/>
+    <hyperlink ref="G125" r:id="rId120" xr:uid="{773B4E89-920C-4E26-ADE7-42B8B560AF08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId119"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId121"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4758,7 +4826,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -4804,20 +4872,20 @@
     <row r="9" spans="1:7" ht="15">
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -4890,6 +4958,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D83B78EDF08BA4595F0FC8E1D40F77E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58860e619a0f61508b05be848c722d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25d400d9-5b28-422d-aa61-69b545335a0f" xmlns:ns3="311946b4-224d-423c-891c-e94db618f1dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05e6d3fea9933738f77cb1eee93e2816" ns2:_="" ns3:_="">
     <xsd:import namespace="25d400d9-5b28-422d-aa61-69b545335a0f"/>
@@ -5149,15 +5226,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5184,11 +5252,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36ef\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gibson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068DA24F-553A-4A60-A36A-3594A419EEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27712EE2-37B0-40D0-B0E2-8373B7DDE6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="15" windowWidth="11430" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID Resources-HCP'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COVID Resources-HCP'!$D$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="340">
   <si>
     <t>Audience</t>
   </si>
@@ -1050,13 +1050,29 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>B.C. Health Care Assistants:  Assessment of education and support needs during COVID-19 Report- June 5, 2020</t>
+  </si>
+  <si>
+    <t>BC Centre for Palliative Care and Life and Death Matters</t>
+  </si>
+  <si>
+    <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/03/HCA-needs-assessment-June-2020.pdf</t>
+  </si>
+  <si>
+    <t>https://mygrief.azurewebsites.net/mod/lesson/view.php?id=554&amp;utm_source=Canadian+Virtual+Hospice+%7C+Portail+canadien+en+soins+palliatifs&amp;utm_campaign=9d332db16d-EMAIL_CAMPAIGN_2020_Oct30MonthlyEnews_COPY_01&amp;utm_medium=email&amp;utm_term=0_8030ddb8bb-9d332db16d-427597322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For people working in healthcare:  Module 1 - COVID-19 and grief
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,7 +1245,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1295,6 +1311,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
@@ -1684,14 +1701,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1703,7 +1720,7 @@
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -1795,7 +1812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1">
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+    <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +1950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +1996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="15">
+    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +2019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -2048,7 +2065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -2071,7 +2088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -2094,7 +2111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2134,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2180,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
@@ -2186,7 +2203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2341,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2433,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2479,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2502,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2508,7 +2525,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +2548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +2571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>7</v>
       </c>
@@ -2577,7 +2594,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2600,7 +2617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="40" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>7</v>
       </c>
@@ -2623,7 +2640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2686,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2692,7 +2709,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2732,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2755,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
@@ -2761,7 +2778,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +2801,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
@@ -2807,7 +2824,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
@@ -2853,7 +2870,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>155</v>
       </c>
@@ -2876,7 +2893,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2899,7 +2916,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
@@ -2922,7 +2939,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2945,7 +2962,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>7</v>
       </c>
@@ -2968,7 +2985,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>20</v>
       </c>
@@ -2991,7 +3008,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -3014,7 +3031,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="58" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -3037,7 +3054,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="59" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +3077,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="60" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>7</v>
       </c>
@@ -3083,7 +3100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="61" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>7</v>
       </c>
@@ -3106,7 +3123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="62" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="63" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>7</v>
       </c>
@@ -3152,7 +3169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -3175,7 +3192,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45">
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -3198,7 +3215,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>20</v>
       </c>
@@ -3221,7 +3238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -3244,7 +3261,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -3267,7 +3284,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3307,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>7</v>
       </c>
@@ -3313,7 +3330,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>7</v>
       </c>
@@ -3336,7 +3353,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>20</v>
       </c>
@@ -3359,7 +3376,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>7</v>
       </c>
@@ -3382,7 +3399,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3422,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>7</v>
       </c>
@@ -3428,7 +3445,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45">
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3451,7 +3468,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3474,7 +3491,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45">
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3497,7 +3514,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45">
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60">
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3566,7 +3583,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3589,7 +3606,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="83" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>7</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="18" customFormat="1" ht="45">
+    <row r="84" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>155</v>
       </c>
@@ -3635,7 +3652,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -3681,7 +3698,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -3704,7 +3721,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="18" customFormat="1" ht="30">
+    <row r="88" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>7</v>
       </c>
@@ -3727,7 +3744,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="89" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3767,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -3773,7 +3790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3796,7 +3813,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3836,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3842,7 +3859,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="60">
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45">
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3888,7 +3905,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="45">
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3911,7 +3928,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30">
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>65</v>
       </c>
@@ -3934,7 +3951,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>65</v>
       </c>
@@ -3957,7 +3974,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>65</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>65</v>
       </c>
@@ -4003,7 +4020,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>65</v>
       </c>
@@ -4026,7 +4043,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>65</v>
       </c>
@@ -4049,7 +4066,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
@@ -4072,7 +4089,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>65</v>
       </c>
@@ -4095,7 +4112,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30">
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>65</v>
       </c>
@@ -4118,7 +4135,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>65</v>
       </c>
@@ -4141,7 +4158,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>65</v>
       </c>
@@ -4164,7 +4181,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>65</v>
       </c>
@@ -4187,7 +4204,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>65</v>
       </c>
@@ -4210,7 +4227,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>65</v>
       </c>
@@ -4233,7 +4250,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>65</v>
       </c>
@@ -4256,7 +4273,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>65</v>
       </c>
@@ -4279,7 +4296,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30">
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>65</v>
       </c>
@@ -4302,7 +4319,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="45">
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>65</v>
       </c>
@@ -4325,7 +4342,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30">
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>65</v>
       </c>
@@ -4348,7 +4365,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="30">
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>65</v>
       </c>
@@ -4371,7 +4388,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30">
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>65</v>
       </c>
@@ -4394,7 +4411,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="45">
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="31" t="s">
         <v>65</v>
       </c>
@@ -4417,7 +4434,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>65</v>
       </c>
@@ -4440,7 +4457,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="45">
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
         <v>65</v>
       </c>
@@ -4463,7 +4480,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="45">
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>65</v>
       </c>
@@ -4486,7 +4503,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
         <v>7</v>
       </c>
@@ -4509,7 +4526,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="30">
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>7</v>
       </c>
@@ -4532,7 +4549,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -4555,7 +4572,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>20</v>
       </c>
@@ -4576,6 +4593,52 @@
       </c>
       <c r="G125" s="27" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F126" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4712,9 +4775,11 @@
     <hyperlink ref="G123" r:id="rId118" xr:uid="{B745374F-519A-446D-B191-57C74A27A027}"/>
     <hyperlink ref="G124" r:id="rId119" xr:uid="{39402CC8-B8B4-46E1-A2B3-0BC13999F6E0}"/>
     <hyperlink ref="G125" r:id="rId120" xr:uid="{773B4E89-920C-4E26-ADE7-42B8B560AF08}"/>
+    <hyperlink ref="G126" r:id="rId121" xr:uid="{4B849044-DB8C-4BBD-A4A2-C40A7F3D7022}"/>
+    <hyperlink ref="G127" r:id="rId122" display="https://mygrief.azurewebsites.net/mod/lesson/view.php?id=554&amp;utm_source=Canadian+Virtual+Hospice+%7C+Portail+canadien+en+soins+palliatifs&amp;utm_campaign=9d332db16d-EMAIL_CAMPAIGN_2020_Oct30MonthlyEnews_COPY_01&amp;utm_medium=email&amp;utm_term=0_8030ddb8bb-9d332db16d-427597322" xr:uid="{A3F97A57-6AD7-4CAB-A904-2D70E4B7B135}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId121"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId123"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4756,7 +4821,7 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
@@ -4766,7 +4831,7 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4780,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4794,7 +4859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -4809,7 +4874,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -4824,7 +4889,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>331</v>
       </c>
@@ -4839,7 +4904,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4853,7 +4918,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>155</v>
       </c>
@@ -4862,84 +4927,84 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>332</v>
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="2:4" ht="15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="2:4" ht="15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="2:4" ht="15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19"/>
     </row>
-    <row r="26" spans="2:4" ht="15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="2:4" ht="15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="2:4" ht="15">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" s="14"/>
     </row>
-    <row r="32" spans="2:4" ht="15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="14"/>
     </row>
-    <row r="38" spans="4:4" ht="15">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="14"/>
     </row>
-    <row r="44" spans="4:4" ht="15">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="4:4" ht="15">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="4:4" ht="15">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="4:4" ht="15">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="14"/>
     </row>
   </sheetData>
@@ -4958,12 +5023,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5227,38 +5308,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CB2480-C82C-4199-9EFA-AE254CDEBB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gibson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27712EE2-37B0-40D0-B0E2-8373B7DDE6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1590D311-56B3-470F-AAB5-F25DA09A00D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="11430" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="343">
   <si>
     <t>Audience</t>
   </si>
@@ -1066,6 +1066,15 @@
   <si>
     <t xml:space="preserve">For people working in healthcare:  Module 1 - COVID-19 and grief
 </t>
+  </si>
+  <si>
+    <t>https://www.inautumnscocoon.com/courses?cid=100f7d3b-534f-4465-9e0b-b5f3ddc1aedf&amp;utm_source=so</t>
+  </si>
+  <si>
+    <t>Barbara Morningstar</t>
+  </si>
+  <si>
+    <t>Softening Death, Dying and Grief, Bringing Comfort to Challenging Times, A Series of Five Workshops</t>
   </si>
 </sst>
 </file>
@@ -1701,11 +1710,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4639,6 +4648,29 @@
       </c>
       <c r="G127" s="27" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="F128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="27" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4777,9 +4809,10 @@
     <hyperlink ref="G125" r:id="rId120" xr:uid="{773B4E89-920C-4E26-ADE7-42B8B560AF08}"/>
     <hyperlink ref="G126" r:id="rId121" xr:uid="{4B849044-DB8C-4BBD-A4A2-C40A7F3D7022}"/>
     <hyperlink ref="G127" r:id="rId122" display="https://mygrief.azurewebsites.net/mod/lesson/view.php?id=554&amp;utm_source=Canadian+Virtual+Hospice+%7C+Portail+canadien+en+soins+palliatifs&amp;utm_campaign=9d332db16d-EMAIL_CAMPAIGN_2020_Oct30MonthlyEnews_COPY_01&amp;utm_medium=email&amp;utm_term=0_8030ddb8bb-9d332db16d-427597322" xr:uid="{A3F97A57-6AD7-4CAB-A904-2D70E4B7B135}"/>
+    <hyperlink ref="G128" r:id="rId123" xr:uid="{61EBC404-CE5F-4737-BD67-EA61E87157C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId123"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId124"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -5023,28 +5056,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5308,21 +5325,34 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5347,9 +5377,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/resource-data.xlsx
+++ b/resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gibson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1590D311-56B3-470F-AAB5-F25DA09A00D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7630D4-17C9-4564-9865-B519B93FC2A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="15" windowWidth="11430" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12450" yWindow="165" windowWidth="11430" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="346">
   <si>
     <t>Audience</t>
   </si>
@@ -1075,6 +1075,15 @@
   </si>
   <si>
     <t>Softening Death, Dying and Grief, Bringing Comfort to Challenging Times, A Series of Five Workshops</t>
+  </si>
+  <si>
+    <t>Self-care for Medical Workers: Burn Out, Compassion Fatigue &amp; Exquisite Empathy</t>
+  </si>
+  <si>
+    <t>Barbara Morningstar interviews Dr. Michael Kearney</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rNUBB_mtav0&amp;feature=youtu.be</t>
   </si>
 </sst>
 </file>
@@ -1710,11 +1719,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4671,6 +4680,29 @@
       </c>
       <c r="G128" s="27" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E129" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="F129" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="27" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4810,9 +4842,10 @@
     <hyperlink ref="G126" r:id="rId121" xr:uid="{4B849044-DB8C-4BBD-A4A2-C40A7F3D7022}"/>
     <hyperlink ref="G127" r:id="rId122" display="https://mygrief.azurewebsites.net/mod/lesson/view.php?id=554&amp;utm_source=Canadian+Virtual+Hospice+%7C+Portail+canadien+en+soins+palliatifs&amp;utm_campaign=9d332db16d-EMAIL_CAMPAIGN_2020_Oct30MonthlyEnews_COPY_01&amp;utm_medium=email&amp;utm_term=0_8030ddb8bb-9d332db16d-427597322" xr:uid="{A3F97A57-6AD7-4CAB-A904-2D70E4B7B135}"/>
     <hyperlink ref="G128" r:id="rId123" xr:uid="{61EBC404-CE5F-4737-BD67-EA61E87157C2}"/>
+    <hyperlink ref="G129" r:id="rId124" xr:uid="{F5063372-9315-432A-A651-509B201DDD03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId124"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId125"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -5056,12 +5089,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5325,34 +5374,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5377,12 +5413,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>